--- a/추가피처데이터/투자자별매매동향(수급)/285130.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/285130.xlsx
@@ -1727,43 +1727,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1995,94 +1995,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>204</v>
+        <v>15034</v>
       </c>
       <c r="C6" s="7">
-        <v>197</v>
+        <v>14454</v>
       </c>
       <c r="D6" s="9">
+        <v>579</v>
+      </c>
+      <c r="E6" s="11">
+        <v>24298</v>
+      </c>
+      <c r="F6" s="13">
+        <v>26865</v>
+      </c>
+      <c r="G6" s="15">
+        <v>-2566</v>
+      </c>
+      <c r="H6" s="17">
+        <v>9164</v>
+      </c>
+      <c r="I6" s="19">
+        <v>7135</v>
+      </c>
+      <c r="J6" s="21">
+        <v>2028</v>
+      </c>
+      <c r="K6" s="23">
+        <v>3383</v>
+      </c>
+      <c r="L6" s="25">
+        <v>3013</v>
+      </c>
+      <c r="M6" s="27">
+        <v>370</v>
+      </c>
+      <c r="N6" s="29">
+        <v>34</v>
+      </c>
+      <c r="O6" s="31">
+        <v>239</v>
+      </c>
+      <c r="P6" s="33">
+        <v>-204</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>1116</v>
+      </c>
+      <c r="R6" s="37">
+        <v>642</v>
+      </c>
+      <c r="S6" s="39">
+        <v>473</v>
+      </c>
+      <c r="T6" s="41">
+        <v>0</v>
+      </c>
+      <c r="U6" s="43">
+        <v>0</v>
+      </c>
+      <c r="V6" s="45">
+        <v>0</v>
+      </c>
+      <c r="W6" s="47">
+        <v>1</v>
+      </c>
+      <c r="X6" s="49">
         <v>7</v>
       </c>
-      <c r="E6" s="11">
-        <v>330</v>
-      </c>
-      <c r="F6" s="13">
-        <v>364</v>
-      </c>
-      <c r="G6" s="15">
-        <v>-34</v>
-      </c>
-      <c r="H6" s="17">
-        <v>124</v>
-      </c>
-      <c r="I6" s="19">
-        <v>97</v>
-      </c>
-      <c r="J6" s="21">
-        <v>27</v>
-      </c>
-      <c r="K6" s="23">
-        <v>46</v>
-      </c>
-      <c r="L6" s="25">
-        <v>41</v>
-      </c>
-      <c r="M6" s="27">
-        <v>5</v>
-      </c>
-      <c r="N6" s="29">
-        <v>0</v>
-      </c>
-      <c r="O6" s="31">
-        <v>3</v>
-      </c>
-      <c r="P6" s="33">
-        <v>-3</v>
-      </c>
-      <c r="Q6" s="35">
-        <v>15</v>
-      </c>
-      <c r="R6" s="37">
-        <v>9</v>
-      </c>
-      <c r="S6" s="39">
-        <v>6</v>
-      </c>
-      <c r="T6" s="41">
-        <v>0</v>
-      </c>
-      <c r="U6" s="43">
-        <v>0</v>
-      </c>
-      <c r="V6" s="45">
-        <v>0</v>
-      </c>
-      <c r="W6" s="47">
-        <v>0</v>
-      </c>
-      <c r="X6" s="49">
-        <v>0</v>
-      </c>
       <c r="Y6" s="51">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="Z6" s="53">
-        <v>25</v>
+        <v>1814</v>
       </c>
       <c r="AA6" s="55">
-        <v>37</v>
+        <v>2761</v>
       </c>
       <c r="AB6" s="57">
-        <v>-13</v>
+        <v>-947</v>
       </c>
       <c r="AC6" s="59">
-        <v>38</v>
+        <v>2815</v>
       </c>
       <c r="AD6" s="61">
-        <v>6</v>
+        <v>473</v>
       </c>
       <c r="AE6" s="63">
-        <v>32</v>
+        <v>2342</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -2094,16 +2094,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>6</v>
+        <v>435</v>
       </c>
       <c r="AJ6" s="73">
-        <v>6</v>
+        <v>476</v>
       </c>
       <c r="AK6" s="75">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="AL6" s="77">
-        <v>664</v>
+        <v>48931</v>
       </c>
     </row>
     <row r="7">
@@ -2111,94 +2111,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>434</v>
+        <v>33202</v>
       </c>
       <c r="C7" s="7">
-        <v>393</v>
+        <v>29686</v>
       </c>
       <c r="D7" s="9">
-        <v>42</v>
+        <v>3517</v>
       </c>
       <c r="E7" s="11">
-        <v>717</v>
+        <v>54344</v>
       </c>
       <c r="F7" s="13">
-        <v>684</v>
+        <v>52373</v>
       </c>
       <c r="G7" s="15">
-        <v>33</v>
+        <v>1971</v>
       </c>
       <c r="H7" s="17">
-        <v>115</v>
+        <v>8802</v>
       </c>
       <c r="I7" s="19">
-        <v>212</v>
+        <v>16016</v>
       </c>
       <c r="J7" s="21">
-        <v>-97</v>
+        <v>-7214</v>
       </c>
       <c r="K7" s="23">
-        <v>52</v>
+        <v>3984</v>
       </c>
       <c r="L7" s="25">
-        <v>64</v>
+        <v>4818</v>
       </c>
       <c r="M7" s="27">
-        <v>-12</v>
+        <v>-833</v>
       </c>
       <c r="N7" s="29">
-        <v>5</v>
+        <v>379</v>
       </c>
       <c r="O7" s="31">
-        <v>5</v>
+        <v>338</v>
       </c>
       <c r="P7" s="33">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="35">
-        <v>26</v>
+        <v>1980</v>
       </c>
       <c r="R7" s="37">
+        <v>1070</v>
+      </c>
+      <c r="S7" s="39">
+        <v>910</v>
+      </c>
+      <c r="T7" s="41">
         <v>15</v>
       </c>
-      <c r="S7" s="39">
-        <v>11</v>
-      </c>
-      <c r="T7" s="41">
-        <v>0</v>
-      </c>
       <c r="U7" s="43">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="V7" s="45">
-        <v>-1</v>
+        <v>-40</v>
       </c>
       <c r="W7" s="47">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="X7" s="49">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y7" s="51">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z7" s="53">
-        <v>19</v>
+        <v>1499</v>
       </c>
       <c r="AA7" s="55">
-        <v>77</v>
+        <v>5803</v>
       </c>
       <c r="AB7" s="57">
-        <v>-57</v>
+        <v>-4304</v>
       </c>
       <c r="AC7" s="59">
-        <v>12</v>
+        <v>898</v>
       </c>
       <c r="AD7" s="61">
-        <v>51</v>
+        <v>3909</v>
       </c>
       <c r="AE7" s="63">
-        <v>-40</v>
+        <v>-3011</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>37</v>
+        <v>2788</v>
       </c>
       <c r="AJ7" s="73">
-        <v>14</v>
+        <v>1061</v>
       </c>
       <c r="AK7" s="75">
-        <v>23</v>
+        <v>1727</v>
       </c>
       <c r="AL7" s="77">
-        <v>1303</v>
+        <v>99136</v>
       </c>
     </row>
     <row r="8">
@@ -2227,58 +2227,58 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>598</v>
+        <v>46242</v>
       </c>
       <c r="C8" s="7">
-        <v>813</v>
+        <v>62385</v>
       </c>
       <c r="D8" s="9">
-        <v>-215</v>
+        <v>-16143</v>
       </c>
       <c r="E8" s="11">
-        <v>892</v>
+        <v>67860</v>
       </c>
       <c r="F8" s="13">
-        <v>724</v>
+        <v>55542</v>
       </c>
       <c r="G8" s="15">
-        <v>168</v>
+        <v>12319</v>
       </c>
       <c r="H8" s="17">
-        <v>114</v>
+        <v>8904</v>
       </c>
       <c r="I8" s="19">
-        <v>122</v>
+        <v>9272</v>
       </c>
       <c r="J8" s="21">
-        <v>-7</v>
+        <v>-368</v>
       </c>
       <c r="K8" s="23">
-        <v>65</v>
+        <v>4980</v>
       </c>
       <c r="L8" s="25">
-        <v>66</v>
+        <v>5086</v>
       </c>
       <c r="M8" s="27">
-        <v>-1</v>
+        <v>-106</v>
       </c>
       <c r="N8" s="29">
-        <v>9</v>
+        <v>680</v>
       </c>
       <c r="O8" s="31">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="P8" s="33">
-        <v>7</v>
+        <v>569</v>
       </c>
       <c r="Q8" s="35">
-        <v>9</v>
+        <v>703</v>
       </c>
       <c r="R8" s="37">
-        <v>9</v>
+        <v>665</v>
       </c>
       <c r="S8" s="39">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="T8" s="41">
         <v>0</v>
@@ -2290,31 +2290,31 @@
         <v>0</v>
       </c>
       <c r="W8" s="47">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X8" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="51">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="53">
-        <v>28</v>
+        <v>2270</v>
       </c>
       <c r="AA8" s="55">
-        <v>39</v>
+        <v>2960</v>
       </c>
       <c r="AB8" s="57">
-        <v>-11</v>
+        <v>-690</v>
       </c>
       <c r="AC8" s="59">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="AD8" s="61">
-        <v>6</v>
+        <v>448</v>
       </c>
       <c r="AE8" s="63">
-        <v>-3</v>
+        <v>-198</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>66</v>
+        <v>5119</v>
       </c>
       <c r="AJ8" s="73">
-        <v>11</v>
+        <v>926</v>
       </c>
       <c r="AK8" s="75">
-        <v>55</v>
+        <v>4192</v>
       </c>
       <c r="AL8" s="77">
-        <v>1670</v>
+        <v>128125</v>
       </c>
     </row>
     <row r="9">
@@ -2343,58 +2343,58 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>416</v>
+        <v>34763</v>
       </c>
       <c r="C9" s="7">
-        <v>353</v>
+        <v>29318</v>
       </c>
       <c r="D9" s="9">
-        <v>62</v>
+        <v>5445</v>
       </c>
       <c r="E9" s="11">
-        <v>359</v>
+        <v>29709</v>
       </c>
       <c r="F9" s="13">
-        <v>383</v>
+        <v>31990</v>
       </c>
       <c r="G9" s="15">
-        <v>-25</v>
+        <v>-2281</v>
       </c>
       <c r="H9" s="17">
-        <v>64</v>
+        <v>5334</v>
       </c>
       <c r="I9" s="19">
-        <v>134</v>
+        <v>11109</v>
       </c>
       <c r="J9" s="21">
-        <v>-70</v>
+        <v>-5775</v>
       </c>
       <c r="K9" s="23">
-        <v>40</v>
+        <v>3317</v>
       </c>
       <c r="L9" s="25">
-        <v>68</v>
+        <v>5675</v>
       </c>
       <c r="M9" s="27">
-        <v>-28</v>
+        <v>-2358</v>
       </c>
       <c r="N9" s="29">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="O9" s="31">
-        <v>4</v>
+        <v>312</v>
       </c>
       <c r="P9" s="33">
-        <v>-2</v>
+        <v>-159</v>
       </c>
       <c r="Q9" s="35">
-        <v>5</v>
+        <v>412</v>
       </c>
       <c r="R9" s="37">
-        <v>15</v>
+        <v>1262</v>
       </c>
       <c r="S9" s="39">
-        <v>-10</v>
+        <v>-850</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
@@ -2415,22 +2415,22 @@
         <v>0</v>
       </c>
       <c r="Z9" s="53">
-        <v>17</v>
+        <v>1407</v>
       </c>
       <c r="AA9" s="55">
-        <v>35</v>
+        <v>2868</v>
       </c>
       <c r="AB9" s="57">
-        <v>-18</v>
+        <v>-1461</v>
       </c>
       <c r="AC9" s="59">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="AD9" s="61">
-        <v>12</v>
+        <v>992</v>
       </c>
       <c r="AE9" s="63">
-        <v>-11</v>
+        <v>-946</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>37</v>
+        <v>3050</v>
       </c>
       <c r="AJ9" s="73">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="AK9" s="75">
-        <v>32</v>
+        <v>2610</v>
       </c>
       <c r="AL9" s="77">
-        <v>876</v>
+        <v>72857</v>
       </c>
     </row>
     <row r="10">
@@ -2459,58 +2459,58 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>715</v>
+        <v>56851</v>
       </c>
       <c r="C10" s="7">
-        <v>493</v>
+        <v>39285</v>
       </c>
       <c r="D10" s="9">
-        <v>222</v>
+        <v>17566</v>
       </c>
       <c r="E10" s="11">
-        <v>460</v>
+        <v>36337</v>
       </c>
       <c r="F10" s="13">
-        <v>685</v>
+        <v>54488</v>
       </c>
       <c r="G10" s="15">
-        <v>-225</v>
+        <v>-18151</v>
       </c>
       <c r="H10" s="17">
-        <v>135</v>
+        <v>10998</v>
       </c>
       <c r="I10" s="19">
-        <v>106</v>
+        <v>8324</v>
       </c>
       <c r="J10" s="21">
-        <v>29</v>
+        <v>2674</v>
       </c>
       <c r="K10" s="23">
-        <v>53</v>
+        <v>4216</v>
       </c>
       <c r="L10" s="25">
-        <v>51</v>
+        <v>4016</v>
       </c>
       <c r="M10" s="27">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N10" s="29">
-        <v>6</v>
+        <v>514</v>
       </c>
       <c r="O10" s="31">
-        <v>12</v>
+        <v>950</v>
       </c>
       <c r="P10" s="33">
-        <v>-6</v>
+        <v>-436</v>
       </c>
       <c r="Q10" s="35">
-        <v>24</v>
+        <v>1988</v>
       </c>
       <c r="R10" s="37">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="S10" s="39">
-        <v>12</v>
+        <v>998</v>
       </c>
       <c r="T10" s="41">
         <v>0</v>
@@ -2522,31 +2522,31 @@
         <v>0</v>
       </c>
       <c r="W10" s="47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X10" s="49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y10" s="51">
         <v>0</v>
       </c>
       <c r="Z10" s="53">
-        <v>21</v>
+        <v>1744</v>
       </c>
       <c r="AA10" s="55">
-        <v>25</v>
+        <v>1941</v>
       </c>
       <c r="AB10" s="57">
-        <v>-3</v>
+        <v>-196</v>
       </c>
       <c r="AC10" s="59">
-        <v>30</v>
+        <v>2529</v>
       </c>
       <c r="AD10" s="61">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="AE10" s="63">
-        <v>25</v>
+        <v>2109</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="AJ10" s="73">
-        <v>30</v>
+        <v>2389</v>
       </c>
       <c r="AK10" s="75">
-        <v>-26</v>
+        <v>-2089</v>
       </c>
       <c r="AL10" s="77">
-        <v>1314</v>
+        <v>104486</v>
       </c>
     </row>
     <row r="11">
@@ -2575,94 +2575,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>631</v>
+        <v>52853</v>
       </c>
       <c r="C11" s="7">
-        <v>1041</v>
+        <v>86879</v>
       </c>
       <c r="D11" s="9">
-        <v>-410</v>
+        <v>-34025</v>
       </c>
       <c r="E11" s="11">
-        <v>1090</v>
+        <v>90132</v>
       </c>
       <c r="F11" s="13">
-        <v>687</v>
+        <v>56786</v>
       </c>
       <c r="G11" s="15">
-        <v>403</v>
+        <v>33347</v>
       </c>
       <c r="H11" s="17">
-        <v>135</v>
+        <v>11254</v>
       </c>
       <c r="I11" s="19">
-        <v>150</v>
+        <v>12474</v>
       </c>
       <c r="J11" s="21">
-        <v>-16</v>
+        <v>-1220</v>
       </c>
       <c r="K11" s="23">
-        <v>61</v>
+        <v>5044</v>
       </c>
       <c r="L11" s="25">
-        <v>50</v>
+        <v>4132</v>
       </c>
       <c r="M11" s="27">
-        <v>11</v>
+        <v>912</v>
       </c>
       <c r="N11" s="29">
+        <v>237</v>
+      </c>
+      <c r="O11" s="31">
+        <v>2017</v>
+      </c>
+      <c r="P11" s="33">
+        <v>-1780</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>1482</v>
+      </c>
+      <c r="R11" s="37">
+        <v>3543</v>
+      </c>
+      <c r="S11" s="39">
+        <v>-2061</v>
+      </c>
+      <c r="T11" s="41">
+        <v>0</v>
+      </c>
+      <c r="U11" s="43">
+        <v>0</v>
+      </c>
+      <c r="V11" s="45">
+        <v>0</v>
+      </c>
+      <c r="W11" s="47">
+        <v>482</v>
+      </c>
+      <c r="X11" s="49">
         <v>3</v>
       </c>
-      <c r="O11" s="31">
-        <v>24</v>
-      </c>
-      <c r="P11" s="33">
-        <v>-22</v>
-      </c>
-      <c r="Q11" s="35">
-        <v>18</v>
-      </c>
-      <c r="R11" s="37">
-        <v>42</v>
-      </c>
-      <c r="S11" s="39">
-        <v>-24</v>
-      </c>
-      <c r="T11" s="41">
-        <v>0</v>
-      </c>
-      <c r="U11" s="43">
-        <v>0</v>
-      </c>
-      <c r="V11" s="45">
-        <v>0</v>
-      </c>
-      <c r="W11" s="47">
-        <v>6</v>
-      </c>
-      <c r="X11" s="49">
-        <v>0</v>
-      </c>
       <c r="Y11" s="51">
-        <v>6</v>
+        <v>479</v>
       </c>
       <c r="Z11" s="53">
-        <v>40</v>
+        <v>3412</v>
       </c>
       <c r="AA11" s="55">
-        <v>24</v>
+        <v>1941</v>
       </c>
       <c r="AB11" s="57">
-        <v>16</v>
+        <v>1471</v>
       </c>
       <c r="AC11" s="59">
-        <v>7</v>
+        <v>596</v>
       </c>
       <c r="AD11" s="61">
-        <v>10</v>
+        <v>837</v>
       </c>
       <c r="AE11" s="63">
-        <v>-2</v>
+        <v>-240</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>38</v>
+        <v>3125</v>
       </c>
       <c r="AJ11" s="73">
-        <v>15</v>
+        <v>1226</v>
       </c>
       <c r="AK11" s="75">
-        <v>23</v>
+        <v>1899</v>
       </c>
       <c r="AL11" s="77">
-        <v>1893</v>
+        <v>157365</v>
       </c>
     </row>
     <row r="12">
@@ -2691,58 +2691,58 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>1948</v>
+        <v>178000</v>
       </c>
       <c r="C12" s="7">
-        <v>2152</v>
+        <v>196830</v>
       </c>
       <c r="D12" s="9">
-        <v>-204</v>
+        <v>-18829</v>
       </c>
       <c r="E12" s="11">
-        <v>910</v>
+        <v>85371</v>
       </c>
       <c r="F12" s="13">
-        <v>815</v>
+        <v>78301</v>
       </c>
       <c r="G12" s="15">
-        <v>94</v>
+        <v>7070</v>
       </c>
       <c r="H12" s="17">
-        <v>277</v>
+        <v>27117</v>
       </c>
       <c r="I12" s="19">
-        <v>173</v>
+        <v>15958</v>
       </c>
       <c r="J12" s="21">
-        <v>103</v>
+        <v>11160</v>
       </c>
       <c r="K12" s="23">
-        <v>80</v>
+        <v>7480</v>
       </c>
       <c r="L12" s="25">
-        <v>59</v>
+        <v>5471</v>
       </c>
       <c r="M12" s="27">
-        <v>20</v>
+        <v>2009</v>
       </c>
       <c r="N12" s="29">
-        <v>12</v>
+        <v>1152</v>
       </c>
       <c r="O12" s="31">
-        <v>7</v>
+        <v>622</v>
       </c>
       <c r="P12" s="33">
-        <v>6</v>
+        <v>530</v>
       </c>
       <c r="Q12" s="35">
-        <v>17</v>
+        <v>1658</v>
       </c>
       <c r="R12" s="37">
-        <v>40</v>
+        <v>3605</v>
       </c>
       <c r="S12" s="39">
-        <v>-23</v>
+        <v>-1947</v>
       </c>
       <c r="T12" s="41">
         <v>0</v>
@@ -2757,28 +2757,28 @@
         <v>0</v>
       </c>
       <c r="X12" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="51">
         <v>0</v>
       </c>
       <c r="Z12" s="53">
-        <v>160</v>
+        <v>16107</v>
       </c>
       <c r="AA12" s="55">
-        <v>58</v>
+        <v>5392</v>
       </c>
       <c r="AB12" s="57">
-        <v>102</v>
+        <v>10714</v>
       </c>
       <c r="AC12" s="59">
-        <v>8</v>
+        <v>720</v>
       </c>
       <c r="AD12" s="61">
-        <v>9</v>
+        <v>867</v>
       </c>
       <c r="AE12" s="63">
-        <v>-2</v>
+        <v>-146</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2790,16 +2790,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>12</v>
+        <v>1173</v>
       </c>
       <c r="AJ12" s="73">
-        <v>6</v>
+        <v>574</v>
       </c>
       <c r="AK12" s="75">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="AL12" s="77">
-        <v>3147</v>
+        <v>291662</v>
       </c>
     </row>
     <row r="13">
@@ -2807,58 +2807,58 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>761</v>
+        <v>65557</v>
       </c>
       <c r="C13" s="7">
-        <v>719</v>
+        <v>62174</v>
       </c>
       <c r="D13" s="9">
-        <v>42</v>
+        <v>3383</v>
       </c>
       <c r="E13" s="11">
-        <v>498</v>
+        <v>42966</v>
       </c>
       <c r="F13" s="13">
-        <v>508</v>
+        <v>43705</v>
       </c>
       <c r="G13" s="15">
-        <v>-10</v>
+        <v>-739</v>
       </c>
       <c r="H13" s="17">
-        <v>113</v>
+        <v>9775</v>
       </c>
       <c r="I13" s="19">
-        <v>146</v>
+        <v>12542</v>
       </c>
       <c r="J13" s="21">
-        <v>-33</v>
+        <v>-2767</v>
       </c>
       <c r="K13" s="23">
-        <v>66</v>
+        <v>5837</v>
       </c>
       <c r="L13" s="25">
-        <v>51</v>
+        <v>4383</v>
       </c>
       <c r="M13" s="27">
-        <v>16</v>
+        <v>1455</v>
       </c>
       <c r="N13" s="29">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="O13" s="31">
-        <v>9</v>
+        <v>804</v>
       </c>
       <c r="P13" s="33">
-        <v>-7</v>
+        <v>-560</v>
       </c>
       <c r="Q13" s="35">
-        <v>8</v>
+        <v>675</v>
       </c>
       <c r="R13" s="37">
-        <v>27</v>
+        <v>2301</v>
       </c>
       <c r="S13" s="39">
-        <v>-19</v>
+        <v>-1626</v>
       </c>
       <c r="T13" s="41">
         <v>0</v>
@@ -2870,31 +2870,31 @@
         <v>0</v>
       </c>
       <c r="W13" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="49">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y13" s="51">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="Z13" s="53">
-        <v>20</v>
+        <v>1723</v>
       </c>
       <c r="AA13" s="55">
-        <v>42</v>
+        <v>3691</v>
       </c>
       <c r="AB13" s="57">
-        <v>-22</v>
+        <v>-1968</v>
       </c>
       <c r="AC13" s="59">
-        <v>16</v>
+        <v>1296</v>
       </c>
       <c r="AD13" s="61">
-        <v>16</v>
+        <v>1341</v>
       </c>
       <c r="AE13" s="63">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2906,16 +2906,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>7</v>
+        <v>582</v>
       </c>
       <c r="AJ13" s="73">
-        <v>5</v>
+        <v>459</v>
       </c>
       <c r="AK13" s="75">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="AL13" s="77">
-        <v>1378</v>
+        <v>118881</v>
       </c>
     </row>
     <row r="14">
@@ -2923,94 +2923,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>586</v>
+        <v>60382</v>
       </c>
       <c r="C14" s="7">
-        <v>805</v>
+        <v>82015</v>
       </c>
       <c r="D14" s="9">
-        <v>-219</v>
+        <v>-21633</v>
       </c>
       <c r="E14" s="11">
-        <v>736</v>
+        <v>75673</v>
       </c>
       <c r="F14" s="13">
-        <v>936</v>
+        <v>97087</v>
       </c>
       <c r="G14" s="15">
-        <v>-200</v>
+        <v>-21413</v>
       </c>
       <c r="H14" s="17">
-        <v>676</v>
+        <v>69565</v>
       </c>
       <c r="I14" s="19">
-        <v>254</v>
+        <v>26054</v>
       </c>
       <c r="J14" s="21">
-        <v>423</v>
+        <v>43511</v>
       </c>
       <c r="K14" s="23">
-        <v>419</v>
+        <v>42925</v>
       </c>
       <c r="L14" s="25">
-        <v>106</v>
+        <v>10836</v>
       </c>
       <c r="M14" s="27">
-        <v>313</v>
+        <v>32090</v>
       </c>
       <c r="N14" s="29">
-        <v>19</v>
+        <v>1952</v>
       </c>
       <c r="O14" s="31">
-        <v>15</v>
+        <v>1579</v>
       </c>
       <c r="P14" s="33">
+        <v>373</v>
+      </c>
+      <c r="Q14" s="35">
+        <v>8319</v>
+      </c>
+      <c r="R14" s="37">
+        <v>3841</v>
+      </c>
+      <c r="S14" s="39">
+        <v>4478</v>
+      </c>
+      <c r="T14" s="41">
+        <v>0</v>
+      </c>
+      <c r="U14" s="43">
+        <v>0</v>
+      </c>
+      <c r="V14" s="45">
+        <v>0</v>
+      </c>
+      <c r="W14" s="47">
         <v>3</v>
       </c>
-      <c r="Q14" s="35">
-        <v>79</v>
-      </c>
-      <c r="R14" s="37">
-        <v>37</v>
-      </c>
-      <c r="S14" s="39">
-        <v>42</v>
-      </c>
-      <c r="T14" s="41">
-        <v>0</v>
-      </c>
-      <c r="U14" s="43">
-        <v>0</v>
-      </c>
-      <c r="V14" s="45">
-        <v>0</v>
-      </c>
-      <c r="W14" s="47">
-        <v>0</v>
-      </c>
       <c r="X14" s="49">
-        <v>3</v>
+        <v>285</v>
       </c>
       <c r="Y14" s="51">
-        <v>-3</v>
+        <v>-282</v>
       </c>
       <c r="Z14" s="53">
-        <v>81</v>
+        <v>8310</v>
       </c>
       <c r="AA14" s="55">
-        <v>71</v>
+        <v>7261</v>
       </c>
       <c r="AB14" s="57">
-        <v>11</v>
+        <v>1050</v>
       </c>
       <c r="AC14" s="59">
-        <v>78</v>
+        <v>8056</v>
       </c>
       <c r="AD14" s="61">
-        <v>22</v>
+        <v>2253</v>
       </c>
       <c r="AE14" s="63">
-        <v>57</v>
+        <v>5803</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -3022,16 +3022,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>22</v>
+        <v>2297</v>
       </c>
       <c r="AJ14" s="73">
-        <v>26</v>
+        <v>2762</v>
       </c>
       <c r="AK14" s="75">
-        <v>-4</v>
+        <v>-465</v>
       </c>
       <c r="AL14" s="77">
-        <v>2021</v>
+        <v>207918</v>
       </c>
     </row>
     <row r="15">
@@ -3039,58 +3039,58 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>516</v>
+        <v>52906</v>
       </c>
       <c r="C15" s="7">
-        <v>458</v>
+        <v>46487</v>
       </c>
       <c r="D15" s="9">
-        <v>58</v>
+        <v>6419</v>
       </c>
       <c r="E15" s="11">
-        <v>593</v>
+        <v>60419</v>
       </c>
       <c r="F15" s="13">
-        <v>498</v>
+        <v>51193</v>
       </c>
       <c r="G15" s="15">
-        <v>95</v>
+        <v>9226</v>
       </c>
       <c r="H15" s="17">
-        <v>55</v>
+        <v>5658</v>
       </c>
       <c r="I15" s="19">
-        <v>212</v>
+        <v>21758</v>
       </c>
       <c r="J15" s="21">
-        <v>-157</v>
+        <v>-16100</v>
       </c>
       <c r="K15" s="23">
-        <v>32</v>
+        <v>3315</v>
       </c>
       <c r="L15" s="25">
-        <v>47</v>
+        <v>4715</v>
       </c>
       <c r="M15" s="27">
-        <v>-15</v>
+        <v>-1400</v>
       </c>
       <c r="N15" s="29">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="O15" s="31">
-        <v>18</v>
+        <v>1792</v>
       </c>
       <c r="P15" s="33">
-        <v>-17</v>
+        <v>-1664</v>
       </c>
       <c r="Q15" s="35">
-        <v>3</v>
+        <v>317</v>
       </c>
       <c r="R15" s="37">
-        <v>27</v>
+        <v>2789</v>
       </c>
       <c r="S15" s="39">
-        <v>-24</v>
+        <v>-2472</v>
       </c>
       <c r="T15" s="41">
         <v>0</v>
@@ -3105,28 +3105,28 @@
         <v>0</v>
       </c>
       <c r="X15" s="49">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="Y15" s="51">
-        <v>-1</v>
+        <v>-70</v>
       </c>
       <c r="Z15" s="53">
-        <v>13</v>
+        <v>1340</v>
       </c>
       <c r="AA15" s="55">
-        <v>110</v>
+        <v>11412</v>
       </c>
       <c r="AB15" s="57">
-        <v>-97</v>
+        <v>-10073</v>
       </c>
       <c r="AC15" s="59">
-        <v>5</v>
+        <v>559</v>
       </c>
       <c r="AD15" s="61">
-        <v>10</v>
+        <v>979</v>
       </c>
       <c r="AE15" s="63">
-        <v>-4</v>
+        <v>-421</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3138,16 +3138,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>10</v>
+        <v>1046</v>
       </c>
       <c r="AJ15" s="73">
-        <v>6</v>
+        <v>592</v>
       </c>
       <c r="AK15" s="75">
-        <v>4</v>
+        <v>454</v>
       </c>
       <c r="AL15" s="77">
-        <v>1175</v>
+        <v>120029</v>
       </c>
     </row>
     <row r="16">
@@ -3155,58 +3155,58 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>726</v>
+        <v>73807</v>
       </c>
       <c r="C16" s="7">
-        <v>585</v>
+        <v>59502</v>
       </c>
       <c r="D16" s="9">
-        <v>140</v>
+        <v>14304</v>
       </c>
       <c r="E16" s="11">
-        <v>596</v>
+        <v>60874</v>
       </c>
       <c r="F16" s="13">
-        <v>683</v>
+        <v>69669</v>
       </c>
       <c r="G16" s="15">
-        <v>-87</v>
+        <v>-8795</v>
       </c>
       <c r="H16" s="17">
-        <v>156</v>
+        <v>15964</v>
       </c>
       <c r="I16" s="19">
-        <v>195</v>
+        <v>20040</v>
       </c>
       <c r="J16" s="21">
-        <v>-39</v>
+        <v>-4076</v>
       </c>
       <c r="K16" s="23">
-        <v>49</v>
+        <v>4954</v>
       </c>
       <c r="L16" s="25">
-        <v>61</v>
+        <v>6199</v>
       </c>
       <c r="M16" s="27">
-        <v>-12</v>
+        <v>-1245</v>
       </c>
       <c r="N16" s="29">
-        <v>9</v>
+        <v>896</v>
       </c>
       <c r="O16" s="31">
-        <v>6</v>
+        <v>609</v>
       </c>
       <c r="P16" s="33">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="35">
-        <v>24</v>
+        <v>2456</v>
       </c>
       <c r="R16" s="37">
-        <v>29</v>
+        <v>3041</v>
       </c>
       <c r="S16" s="39">
-        <v>-6</v>
+        <v>-584</v>
       </c>
       <c r="T16" s="41">
         <v>0</v>
@@ -3221,28 +3221,28 @@
         <v>0</v>
       </c>
       <c r="X16" s="49">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y16" s="51">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="Z16" s="53">
-        <v>67</v>
+        <v>7004</v>
       </c>
       <c r="AA16" s="55">
-        <v>92</v>
+        <v>9487</v>
       </c>
       <c r="AB16" s="57">
-        <v>-25</v>
+        <v>-2483</v>
       </c>
       <c r="AC16" s="59">
-        <v>6</v>
+        <v>653</v>
       </c>
       <c r="AD16" s="61">
-        <v>7</v>
+        <v>684</v>
       </c>
       <c r="AE16" s="63">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3254,16 +3254,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>6</v>
+        <v>576</v>
       </c>
       <c r="AJ16" s="73">
-        <v>20</v>
+        <v>2010</v>
       </c>
       <c r="AK16" s="75">
-        <v>-14</v>
+        <v>-1434</v>
       </c>
       <c r="AL16" s="77">
-        <v>1483</v>
+        <v>151221</v>
       </c>
     </row>
     <row r="17">
@@ -3271,58 +3271,58 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>572</v>
+        <v>57634</v>
       </c>
       <c r="C17" s="7">
-        <v>560</v>
+        <v>57264</v>
       </c>
       <c r="D17" s="9">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="E17" s="11">
-        <v>763</v>
+        <v>78743</v>
       </c>
       <c r="F17" s="13">
-        <v>699</v>
+        <v>71142</v>
       </c>
       <c r="G17" s="15">
-        <v>64</v>
+        <v>7601</v>
       </c>
       <c r="H17" s="17">
-        <v>154</v>
+        <v>16252</v>
       </c>
       <c r="I17" s="19">
-        <v>233</v>
+        <v>24614</v>
       </c>
       <c r="J17" s="21">
-        <v>-80</v>
+        <v>-8363</v>
       </c>
       <c r="K17" s="23">
-        <v>80</v>
+        <v>8232</v>
       </c>
       <c r="L17" s="25">
-        <v>67</v>
+        <v>7299</v>
       </c>
       <c r="M17" s="27">
-        <v>12</v>
+        <v>933</v>
       </c>
       <c r="N17" s="29">
-        <v>15</v>
+        <v>1603</v>
       </c>
       <c r="O17" s="31">
-        <v>23</v>
+        <v>2403</v>
       </c>
       <c r="P17" s="33">
-        <v>-8</v>
+        <v>-801</v>
       </c>
       <c r="Q17" s="35">
-        <v>16</v>
+        <v>1858</v>
       </c>
       <c r="R17" s="37">
-        <v>23</v>
+        <v>2454</v>
       </c>
       <c r="S17" s="39">
-        <v>-7</v>
+        <v>-596</v>
       </c>
       <c r="T17" s="41">
         <v>0</v>
@@ -3334,31 +3334,31 @@
         <v>0</v>
       </c>
       <c r="W17" s="47">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="X17" s="49">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="Y17" s="51">
-        <v>-1</v>
+        <v>-103</v>
       </c>
       <c r="Z17" s="53">
-        <v>36</v>
+        <v>3794</v>
       </c>
       <c r="AA17" s="55">
-        <v>111</v>
+        <v>11546</v>
       </c>
       <c r="AB17" s="57">
-        <v>-75</v>
+        <v>-7752</v>
       </c>
       <c r="AC17" s="59">
-        <v>6</v>
+        <v>651</v>
       </c>
       <c r="AD17" s="61">
-        <v>6</v>
+        <v>695</v>
       </c>
       <c r="AE17" s="63">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3370,16 +3370,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>12</v>
+        <v>1194</v>
       </c>
       <c r="AJ17" s="73">
-        <v>8</v>
+        <v>803</v>
       </c>
       <c r="AK17" s="75">
-        <v>4</v>
+        <v>391</v>
       </c>
       <c r="AL17" s="77">
-        <v>1501</v>
+        <v>153823</v>
       </c>
     </row>
     <row r="18">
@@ -3387,58 +3387,58 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>542</v>
+        <v>67934</v>
       </c>
       <c r="C18" s="7">
-        <v>523</v>
+        <v>65460</v>
       </c>
       <c r="D18" s="9">
-        <v>19</v>
+        <v>2474</v>
       </c>
       <c r="E18" s="11">
-        <v>326</v>
+        <v>40147</v>
       </c>
       <c r="F18" s="13">
-        <v>474</v>
+        <v>59081</v>
       </c>
       <c r="G18" s="15">
-        <v>-148</v>
+        <v>-18934</v>
       </c>
       <c r="H18" s="17">
-        <v>312</v>
+        <v>38972</v>
       </c>
       <c r="I18" s="19">
-        <v>187</v>
+        <v>23098</v>
       </c>
       <c r="J18" s="21">
-        <v>125</v>
+        <v>15874</v>
       </c>
       <c r="K18" s="23">
-        <v>218</v>
+        <v>27188</v>
       </c>
       <c r="L18" s="25">
-        <v>51</v>
+        <v>6293</v>
       </c>
       <c r="M18" s="27">
-        <v>167</v>
+        <v>20894</v>
       </c>
       <c r="N18" s="29">
-        <v>12</v>
+        <v>1462</v>
       </c>
       <c r="O18" s="31">
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="P18" s="33">
-        <v>8</v>
+        <v>1004</v>
       </c>
       <c r="Q18" s="35">
-        <v>39</v>
+        <v>4918</v>
       </c>
       <c r="R18" s="37">
-        <v>18</v>
+        <v>2212</v>
       </c>
       <c r="S18" s="39">
-        <v>21</v>
+        <v>2707</v>
       </c>
       <c r="T18" s="41">
         <v>0</v>
@@ -3450,31 +3450,31 @@
         <v>0</v>
       </c>
       <c r="W18" s="47">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="X18" s="49">
-        <v>4</v>
+        <v>415</v>
       </c>
       <c r="Y18" s="51">
-        <v>-2</v>
+        <v>-198</v>
       </c>
       <c r="Z18" s="53">
-        <v>33</v>
+        <v>4102</v>
       </c>
       <c r="AA18" s="55">
-        <v>100</v>
+        <v>12376</v>
       </c>
       <c r="AB18" s="57">
-        <v>-67</v>
+        <v>-8274</v>
       </c>
       <c r="AC18" s="59">
-        <v>9</v>
+        <v>1084</v>
       </c>
       <c r="AD18" s="61">
-        <v>11</v>
+        <v>1343</v>
       </c>
       <c r="AE18" s="63">
-        <v>-3</v>
+        <v>-259</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>8</v>
+        <v>1067</v>
       </c>
       <c r="AJ18" s="73">
-        <v>4</v>
+        <v>481</v>
       </c>
       <c r="AK18" s="75">
-        <v>5</v>
+        <v>585</v>
       </c>
       <c r="AL18" s="77">
-        <v>1188</v>
+        <v>148120</v>
       </c>
     </row>
     <row r="19">
@@ -3503,58 +3503,58 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>391</v>
+        <v>51170</v>
       </c>
       <c r="C19" s="7">
-        <v>373</v>
+        <v>48732</v>
       </c>
       <c r="D19" s="9">
-        <v>19</v>
+        <v>2437</v>
       </c>
       <c r="E19" s="11">
-        <v>499</v>
+        <v>65012</v>
       </c>
       <c r="F19" s="13">
-        <v>650</v>
+        <v>84718</v>
       </c>
       <c r="G19" s="15">
-        <v>-150</v>
+        <v>-19706</v>
       </c>
       <c r="H19" s="17">
-        <v>296</v>
+        <v>38663</v>
       </c>
       <c r="I19" s="19">
-        <v>158</v>
+        <v>20529</v>
       </c>
       <c r="J19" s="21">
-        <v>138</v>
+        <v>18134</v>
       </c>
       <c r="K19" s="23">
-        <v>236</v>
+        <v>30793</v>
       </c>
       <c r="L19" s="25">
-        <v>75</v>
+        <v>9740</v>
       </c>
       <c r="M19" s="27">
-        <v>162</v>
+        <v>21052</v>
       </c>
       <c r="N19" s="29">
-        <v>6</v>
+        <v>811</v>
       </c>
       <c r="O19" s="31">
-        <v>8</v>
+        <v>1001</v>
       </c>
       <c r="P19" s="33">
-        <v>-2</v>
+        <v>-190</v>
       </c>
       <c r="Q19" s="35">
-        <v>3</v>
+        <v>420</v>
       </c>
       <c r="R19" s="37">
-        <v>14</v>
+        <v>1819</v>
       </c>
       <c r="S19" s="39">
-        <v>-11</v>
+        <v>-1399</v>
       </c>
       <c r="T19" s="41">
         <v>0</v>
@@ -3569,28 +3569,28 @@
         <v>0</v>
       </c>
       <c r="X19" s="49">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Y19" s="51">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="Z19" s="53">
-        <v>19</v>
+        <v>2437</v>
       </c>
       <c r="AA19" s="55">
-        <v>48</v>
+        <v>6293</v>
       </c>
       <c r="AB19" s="57">
-        <v>-30</v>
+        <v>-3856</v>
       </c>
       <c r="AC19" s="59">
-        <v>32</v>
+        <v>4202</v>
       </c>
       <c r="AD19" s="61">
-        <v>13</v>
+        <v>1639</v>
       </c>
       <c r="AE19" s="63">
-        <v>19</v>
+        <v>2563</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3602,16 +3602,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>3</v>
+        <v>376</v>
       </c>
       <c r="AJ19" s="73">
-        <v>9</v>
+        <v>1242</v>
       </c>
       <c r="AK19" s="75">
-        <v>-6</v>
+        <v>-866</v>
       </c>
       <c r="AL19" s="77">
-        <v>1189</v>
+        <v>155221</v>
       </c>
     </row>
     <row r="20">
@@ -3619,58 +3619,58 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>632</v>
+        <v>78022</v>
       </c>
       <c r="C20" s="7">
-        <v>538</v>
+        <v>65935</v>
       </c>
       <c r="D20" s="9">
-        <v>94</v>
+        <v>12087</v>
       </c>
       <c r="E20" s="11">
-        <v>659</v>
+        <v>80297</v>
       </c>
       <c r="F20" s="13">
-        <v>767</v>
+        <v>94944</v>
       </c>
       <c r="G20" s="15">
-        <v>-108</v>
+        <v>-14648</v>
       </c>
       <c r="H20" s="17">
-        <v>183</v>
+        <v>23008</v>
       </c>
       <c r="I20" s="19">
-        <v>179</v>
+        <v>21592</v>
       </c>
       <c r="J20" s="21">
-        <v>5</v>
+        <v>1416</v>
       </c>
       <c r="K20" s="23">
-        <v>121</v>
+        <v>15190</v>
       </c>
       <c r="L20" s="25">
-        <v>64</v>
+        <v>7765</v>
       </c>
       <c r="M20" s="27">
-        <v>57</v>
+        <v>7425</v>
       </c>
       <c r="N20" s="29">
-        <v>9</v>
+        <v>1163</v>
       </c>
       <c r="O20" s="31">
-        <v>18</v>
+        <v>2110</v>
       </c>
       <c r="P20" s="33">
-        <v>-8</v>
+        <v>-948</v>
       </c>
       <c r="Q20" s="35">
-        <v>6</v>
+        <v>736</v>
       </c>
       <c r="R20" s="37">
-        <v>10</v>
+        <v>1209</v>
       </c>
       <c r="S20" s="39">
-        <v>-4</v>
+        <v>-472</v>
       </c>
       <c r="T20" s="41">
         <v>0</v>
@@ -3685,28 +3685,28 @@
         <v>0</v>
       </c>
       <c r="X20" s="49">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y20" s="51">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="Z20" s="53">
-        <v>33</v>
+        <v>4131</v>
       </c>
       <c r="AA20" s="55">
-        <v>81</v>
+        <v>9726</v>
       </c>
       <c r="AB20" s="57">
-        <v>-48</v>
+        <v>-5595</v>
       </c>
       <c r="AC20" s="59">
-        <v>14</v>
+        <v>1788</v>
       </c>
       <c r="AD20" s="61">
-        <v>6</v>
+        <v>755</v>
       </c>
       <c r="AE20" s="63">
-        <v>8</v>
+        <v>1033</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>23</v>
+        <v>2861</v>
       </c>
       <c r="AJ20" s="73">
-        <v>13</v>
+        <v>1715</v>
       </c>
       <c r="AK20" s="75">
-        <v>9</v>
+        <v>1146</v>
       </c>
       <c r="AL20" s="77">
-        <v>1497</v>
+        <v>184187</v>
       </c>
     </row>
     <row r="21">
@@ -3735,58 +3735,58 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>556</v>
+        <v>70450</v>
       </c>
       <c r="C21" s="7">
-        <v>410</v>
+        <v>51746</v>
       </c>
       <c r="D21" s="9">
-        <v>146</v>
+        <v>18704</v>
       </c>
       <c r="E21" s="11">
-        <v>615</v>
+        <v>77323</v>
       </c>
       <c r="F21" s="13">
-        <v>664</v>
+        <v>83835</v>
       </c>
       <c r="G21" s="15">
-        <v>-49</v>
+        <v>-6512</v>
       </c>
       <c r="H21" s="17">
-        <v>107</v>
+        <v>13648</v>
       </c>
       <c r="I21" s="19">
-        <v>215</v>
+        <v>27316</v>
       </c>
       <c r="J21" s="21">
-        <v>-108</v>
+        <v>-13668</v>
       </c>
       <c r="K21" s="23">
-        <v>48</v>
+        <v>6107</v>
       </c>
       <c r="L21" s="25">
-        <v>83</v>
+        <v>10627</v>
       </c>
       <c r="M21" s="27">
-        <v>-35</v>
+        <v>-4520</v>
       </c>
       <c r="N21" s="29">
-        <v>5</v>
+        <v>672</v>
       </c>
       <c r="O21" s="31">
-        <v>11</v>
+        <v>1341</v>
       </c>
       <c r="P21" s="33">
-        <v>-5</v>
+        <v>-669</v>
       </c>
       <c r="Q21" s="35">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="R21" s="37">
-        <v>8</v>
+        <v>1051</v>
       </c>
       <c r="S21" s="39">
-        <v>-3</v>
+        <v>-351</v>
       </c>
       <c r="T21" s="41">
         <v>0</v>
@@ -3798,31 +3798,31 @@
         <v>0</v>
       </c>
       <c r="W21" s="47">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X21" s="49">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="Y21" s="51">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="Z21" s="53">
-        <v>44</v>
+        <v>5630</v>
       </c>
       <c r="AA21" s="55">
-        <v>99</v>
+        <v>12621</v>
       </c>
       <c r="AB21" s="57">
-        <v>-55</v>
+        <v>-6991</v>
       </c>
       <c r="AC21" s="59">
-        <v>4</v>
+        <v>511</v>
       </c>
       <c r="AD21" s="61">
-        <v>13</v>
+        <v>1615</v>
       </c>
       <c r="AE21" s="63">
-        <v>-9</v>
+        <v>-1104</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3834,16 +3834,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>14</v>
+        <v>1804</v>
       </c>
       <c r="AJ21" s="73">
-        <v>3</v>
+        <v>328</v>
       </c>
       <c r="AK21" s="75">
-        <v>11</v>
+        <v>1476</v>
       </c>
       <c r="AL21" s="77">
-        <v>1292</v>
+        <v>163225</v>
       </c>
     </row>
     <row r="22">
@@ -3851,94 +3851,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>717</v>
+        <v>100634</v>
       </c>
       <c r="C22" s="7">
-        <v>527</v>
+        <v>72871</v>
       </c>
       <c r="D22" s="9">
-        <v>190</v>
+        <v>27763</v>
       </c>
       <c r="E22" s="11">
-        <v>1059</v>
+        <v>146936</v>
       </c>
       <c r="F22" s="13">
-        <v>1203</v>
+        <v>168114</v>
       </c>
       <c r="G22" s="15">
-        <v>-143</v>
+        <v>-21178</v>
       </c>
       <c r="H22" s="17">
-        <v>140</v>
+        <v>19537</v>
       </c>
       <c r="I22" s="19">
-        <v>192</v>
+        <v>26638</v>
       </c>
       <c r="J22" s="21">
-        <v>-51</v>
+        <v>-7101</v>
       </c>
       <c r="K22" s="23">
-        <v>80</v>
+        <v>11068</v>
       </c>
       <c r="L22" s="25">
-        <v>74</v>
+        <v>10483</v>
       </c>
       <c r="M22" s="27">
-        <v>6</v>
+        <v>585</v>
       </c>
       <c r="N22" s="29">
+        <v>1398</v>
+      </c>
+      <c r="O22" s="31">
+        <v>2701</v>
+      </c>
+      <c r="P22" s="33">
+        <v>-1303</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>510</v>
+      </c>
+      <c r="R22" s="37">
+        <v>3208</v>
+      </c>
+      <c r="S22" s="39">
+        <v>-2698</v>
+      </c>
+      <c r="T22" s="41">
+        <v>435</v>
+      </c>
+      <c r="U22" s="43">
+        <v>442</v>
+      </c>
+      <c r="V22" s="45">
+        <v>-7</v>
+      </c>
+      <c r="W22" s="47">
         <v>10</v>
       </c>
-      <c r="O22" s="31">
-        <v>19</v>
-      </c>
-      <c r="P22" s="33">
-        <v>-9</v>
-      </c>
-      <c r="Q22" s="35">
-        <v>4</v>
-      </c>
-      <c r="R22" s="37">
-        <v>24</v>
-      </c>
-      <c r="S22" s="39">
-        <v>-20</v>
-      </c>
-      <c r="T22" s="41">
-        <v>3</v>
-      </c>
-      <c r="U22" s="43">
-        <v>3</v>
-      </c>
-      <c r="V22" s="45">
-        <v>0</v>
-      </c>
-      <c r="W22" s="47">
-        <v>0</v>
-      </c>
       <c r="X22" s="49">
-        <v>3</v>
+        <v>366</v>
       </c>
       <c r="Y22" s="51">
-        <v>-3</v>
+        <v>-356</v>
       </c>
       <c r="Z22" s="53">
-        <v>42</v>
+        <v>5866</v>
       </c>
       <c r="AA22" s="55">
-        <v>60</v>
+        <v>8244</v>
       </c>
       <c r="AB22" s="57">
-        <v>-19</v>
+        <v>-2377</v>
       </c>
       <c r="AC22" s="59">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="AD22" s="61">
-        <v>9</v>
+        <v>1195</v>
       </c>
       <c r="AE22" s="63">
-        <v>-7</v>
+        <v>-945</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3950,16 +3950,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>17</v>
+        <v>2351</v>
       </c>
       <c r="AJ22" s="73">
-        <v>13</v>
+        <v>1835</v>
       </c>
       <c r="AK22" s="75">
-        <v>4</v>
+        <v>516</v>
       </c>
       <c r="AL22" s="77">
-        <v>1934</v>
+        <v>269458</v>
       </c>
     </row>
     <row r="23">
@@ -3967,94 +3967,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>895</v>
+        <v>134638</v>
       </c>
       <c r="C23" s="7">
-        <v>799</v>
+        <v>120994</v>
       </c>
       <c r="D23" s="9">
-        <v>96</v>
+        <v>13643</v>
       </c>
       <c r="E23" s="11">
-        <v>1881</v>
+        <v>287043</v>
       </c>
       <c r="F23" s="13">
-        <v>2042</v>
+        <v>310889</v>
       </c>
       <c r="G23" s="15">
-        <v>-161</v>
+        <v>-23845</v>
       </c>
       <c r="H23" s="17">
-        <v>285</v>
+        <v>43241</v>
       </c>
       <c r="I23" s="19">
-        <v>197</v>
+        <v>29406</v>
       </c>
       <c r="J23" s="21">
-        <v>88</v>
+        <v>13835</v>
       </c>
       <c r="K23" s="23">
-        <v>101</v>
+        <v>15143</v>
       </c>
       <c r="L23" s="25">
-        <v>88</v>
+        <v>13169</v>
       </c>
       <c r="M23" s="27">
-        <v>13</v>
+        <v>1974</v>
       </c>
       <c r="N23" s="29">
-        <v>15</v>
+        <v>2300</v>
       </c>
       <c r="O23" s="31">
-        <v>18</v>
+        <v>2673</v>
       </c>
       <c r="P23" s="33">
-        <v>-3</v>
+        <v>-373</v>
       </c>
       <c r="Q23" s="35">
-        <v>21</v>
+        <v>3078</v>
       </c>
       <c r="R23" s="37">
-        <v>30</v>
+        <v>4337</v>
       </c>
       <c r="S23" s="39">
-        <v>-9</v>
+        <v>-1259</v>
       </c>
       <c r="T23" s="41">
         <v>0</v>
       </c>
       <c r="U23" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W23" s="47">
-        <v>2</v>
+        <v>387</v>
       </c>
       <c r="X23" s="49">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="Y23" s="51">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="Z23" s="53">
-        <v>84</v>
+        <v>12781</v>
       </c>
       <c r="AA23" s="55">
-        <v>55</v>
+        <v>8182</v>
       </c>
       <c r="AB23" s="57">
-        <v>29</v>
+        <v>4598</v>
       </c>
       <c r="AC23" s="59">
-        <v>63</v>
+        <v>9553</v>
       </c>
       <c r="AD23" s="61">
-        <v>5</v>
+        <v>793</v>
       </c>
       <c r="AE23" s="63">
-        <v>57</v>
+        <v>8759</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -4066,16 +4066,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>20</v>
+        <v>2914</v>
       </c>
       <c r="AJ23" s="73">
-        <v>43</v>
+        <v>6547</v>
       </c>
       <c r="AK23" s="75">
-        <v>-24</v>
+        <v>-3633</v>
       </c>
       <c r="AL23" s="77">
-        <v>3081</v>
+        <v>467836</v>
       </c>
     </row>
     <row r="24">
@@ -4083,94 +4083,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>971</v>
+        <v>148914</v>
       </c>
       <c r="C24" s="7">
-        <v>997</v>
+        <v>156058</v>
       </c>
       <c r="D24" s="9">
-        <v>-26</v>
+        <v>-7144</v>
       </c>
       <c r="E24" s="11">
-        <v>2716</v>
+        <v>424447</v>
       </c>
       <c r="F24" s="13">
-        <v>2529</v>
+        <v>392937</v>
       </c>
       <c r="G24" s="15">
-        <v>188</v>
+        <v>31510</v>
       </c>
       <c r="H24" s="17">
-        <v>202</v>
+        <v>32415</v>
       </c>
       <c r="I24" s="19">
-        <v>371</v>
+        <v>58075</v>
       </c>
       <c r="J24" s="21">
-        <v>-169</v>
+        <v>-25659</v>
       </c>
       <c r="K24" s="23">
-        <v>92</v>
+        <v>14892</v>
       </c>
       <c r="L24" s="25">
-        <v>105</v>
+        <v>16545</v>
       </c>
       <c r="M24" s="27">
-        <v>-14</v>
+        <v>-1653</v>
       </c>
       <c r="N24" s="29">
-        <v>18</v>
+        <v>2702</v>
       </c>
       <c r="O24" s="31">
-        <v>28</v>
+        <v>4450</v>
       </c>
       <c r="P24" s="33">
-        <v>-10</v>
+        <v>-1747</v>
       </c>
       <c r="Q24" s="35">
-        <v>23</v>
+        <v>3863</v>
       </c>
       <c r="R24" s="37">
-        <v>90</v>
+        <v>13780</v>
       </c>
       <c r="S24" s="39">
-        <v>-68</v>
+        <v>-9917</v>
       </c>
       <c r="T24" s="41">
         <v>0</v>
       </c>
       <c r="U24" s="43">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="V24" s="45">
-        <v>-1</v>
+        <v>-163</v>
       </c>
       <c r="W24" s="47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X24" s="49">
-        <v>2</v>
+        <v>269</v>
       </c>
       <c r="Y24" s="51">
-        <v>-2</v>
+        <v>-261</v>
       </c>
       <c r="Z24" s="53">
-        <v>65</v>
+        <v>10224</v>
       </c>
       <c r="AA24" s="55">
-        <v>134</v>
+        <v>21187</v>
       </c>
       <c r="AB24" s="57">
-        <v>-69</v>
+        <v>-10963</v>
       </c>
       <c r="AC24" s="59">
-        <v>5</v>
+        <v>725</v>
       </c>
       <c r="AD24" s="61">
-        <v>11</v>
+        <v>1680</v>
       </c>
       <c r="AE24" s="63">
-        <v>-6</v>
+        <v>-955</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>33</v>
+        <v>5275</v>
       </c>
       <c r="AJ24" s="73">
-        <v>26</v>
+        <v>3982</v>
       </c>
       <c r="AK24" s="75">
-        <v>7</v>
+        <v>1293</v>
       </c>
       <c r="AL24" s="77">
-        <v>3923</v>
+        <v>611051</v>
       </c>
     </row>
     <row r="25">
@@ -4199,94 +4199,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>1201</v>
+        <v>337418</v>
       </c>
       <c r="C25" s="7">
-        <v>1417</v>
+        <v>374019</v>
       </c>
       <c r="D25" s="9">
-        <v>-217</v>
+        <v>-36600</v>
       </c>
       <c r="E25" s="11">
-        <v>4421</v>
+        <v>1235883</v>
       </c>
       <c r="F25" s="13">
-        <v>4085</v>
+        <v>1171136</v>
       </c>
       <c r="G25" s="15">
-        <v>336</v>
+        <v>64747</v>
       </c>
       <c r="H25" s="17">
-        <v>288</v>
+        <v>81945</v>
       </c>
       <c r="I25" s="19">
-        <v>414</v>
+        <v>110353</v>
       </c>
       <c r="J25" s="21">
-        <v>-126</v>
+        <v>-28408</v>
       </c>
       <c r="K25" s="23">
-        <v>98</v>
+        <v>26748</v>
       </c>
       <c r="L25" s="25">
-        <v>97</v>
+        <v>25854</v>
       </c>
       <c r="M25" s="27">
-        <v>1</v>
+        <v>894</v>
       </c>
       <c r="N25" s="29">
-        <v>21</v>
+        <v>5701</v>
       </c>
       <c r="O25" s="31">
-        <v>27</v>
+        <v>7358</v>
       </c>
       <c r="P25" s="33">
-        <v>-6</v>
+        <v>-1657</v>
       </c>
       <c r="Q25" s="35">
-        <v>55</v>
+        <v>16806</v>
       </c>
       <c r="R25" s="37">
-        <v>98</v>
+        <v>25977</v>
       </c>
       <c r="S25" s="39">
-        <v>-43</v>
+        <v>-9171</v>
       </c>
       <c r="T25" s="41">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="U25" s="43">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="V25" s="45">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="W25" s="47">
-        <v>2</v>
+        <v>733</v>
       </c>
       <c r="X25" s="49">
-        <v>3</v>
+        <v>899</v>
       </c>
       <c r="Y25" s="51">
-        <v>-1</v>
+        <v>-166</v>
       </c>
       <c r="Z25" s="53">
-        <v>79</v>
+        <v>21602</v>
       </c>
       <c r="AA25" s="55">
-        <v>133</v>
+        <v>33817</v>
       </c>
       <c r="AB25" s="57">
-        <v>-54</v>
+        <v>-12215</v>
       </c>
       <c r="AC25" s="59">
-        <v>33</v>
+        <v>10279</v>
       </c>
       <c r="AD25" s="61">
-        <v>55</v>
+        <v>16414</v>
       </c>
       <c r="AE25" s="63">
-        <v>-23</v>
+        <v>-6135</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4298,16 +4298,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>64</v>
+        <v>17833</v>
       </c>
       <c r="AJ25" s="73">
-        <v>58</v>
+        <v>17572</v>
       </c>
       <c r="AK25" s="75">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="AL25" s="77">
-        <v>5974</v>
+        <v>1673079</v>
       </c>
     </row>
     <row r="26">
@@ -4315,94 +4315,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>1215</v>
+        <v>358084</v>
       </c>
       <c r="C26" s="7">
-        <v>1238</v>
+        <v>358399</v>
       </c>
       <c r="D26" s="9">
-        <v>-23</v>
+        <v>-315</v>
       </c>
       <c r="E26" s="11">
-        <v>3680</v>
+        <v>1083401</v>
       </c>
       <c r="F26" s="13">
-        <v>3993</v>
+        <v>1179872</v>
       </c>
       <c r="G26" s="15">
-        <v>-313</v>
+        <v>-96471</v>
       </c>
       <c r="H26" s="17">
-        <v>434</v>
+        <v>128125</v>
       </c>
       <c r="I26" s="19">
-        <v>253</v>
+        <v>72795</v>
       </c>
       <c r="J26" s="21">
-        <v>181</v>
+        <v>55330</v>
       </c>
       <c r="K26" s="23">
-        <v>64</v>
+        <v>18790</v>
       </c>
       <c r="L26" s="25">
-        <v>74</v>
+        <v>21432</v>
       </c>
       <c r="M26" s="27">
-        <v>-10</v>
+        <v>-2642</v>
       </c>
       <c r="N26" s="29">
-        <v>31</v>
+        <v>9300</v>
       </c>
       <c r="O26" s="31">
-        <v>25</v>
+        <v>7182</v>
       </c>
       <c r="P26" s="33">
-        <v>6</v>
+        <v>2118</v>
       </c>
       <c r="Q26" s="35">
-        <v>43</v>
+        <v>12801</v>
       </c>
       <c r="R26" s="37">
-        <v>46</v>
+        <v>13045</v>
       </c>
       <c r="S26" s="39">
-        <v>-3</v>
+        <v>-244</v>
       </c>
       <c r="T26" s="41">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="U26" s="43">
-        <v>2</v>
+        <v>524</v>
       </c>
       <c r="V26" s="45">
-        <v>-2</v>
+        <v>-448</v>
       </c>
       <c r="W26" s="47">
-        <v>9</v>
+        <v>2682</v>
       </c>
       <c r="X26" s="49">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="Y26" s="51">
-        <v>7</v>
+        <v>2287</v>
       </c>
       <c r="Z26" s="53">
-        <v>225</v>
+        <v>66370</v>
       </c>
       <c r="AA26" s="55">
-        <v>73</v>
+        <v>20885</v>
       </c>
       <c r="AB26" s="57">
-        <v>152</v>
+        <v>45485</v>
       </c>
       <c r="AC26" s="59">
-        <v>62</v>
+        <v>18106</v>
       </c>
       <c r="AD26" s="61">
-        <v>32</v>
+        <v>9333</v>
       </c>
       <c r="AE26" s="63">
-        <v>30</v>
+        <v>8773</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4414,16 +4414,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>205</v>
+        <v>55840</v>
       </c>
       <c r="AJ26" s="73">
-        <v>49</v>
+        <v>14384</v>
       </c>
       <c r="AK26" s="75">
-        <v>155</v>
+        <v>41456</v>
       </c>
       <c r="AL26" s="77">
-        <v>5534</v>
+        <v>1625450</v>
       </c>
     </row>
     <row r="27">
@@ -4431,94 +4431,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>1976</v>
+        <v>569309</v>
       </c>
       <c r="C27" s="7">
-        <v>1996</v>
+        <v>575400</v>
       </c>
       <c r="D27" s="9">
-        <v>-20</v>
+        <v>-6091</v>
       </c>
       <c r="E27" s="11">
-        <v>8678</v>
+        <v>2550257</v>
       </c>
       <c r="F27" s="13">
-        <v>8995</v>
+        <v>2640926</v>
       </c>
       <c r="G27" s="15">
-        <v>-317</v>
+        <v>-90669</v>
       </c>
       <c r="H27" s="17">
-        <v>683</v>
+        <v>195911</v>
       </c>
       <c r="I27" s="19">
-        <v>326</v>
+        <v>92696</v>
       </c>
       <c r="J27" s="21">
-        <v>358</v>
+        <v>103215</v>
       </c>
       <c r="K27" s="23">
-        <v>134</v>
+        <v>38037</v>
       </c>
       <c r="L27" s="25">
-        <v>101</v>
+        <v>28902</v>
       </c>
       <c r="M27" s="27">
-        <v>33</v>
+        <v>9135</v>
       </c>
       <c r="N27" s="29">
-        <v>72</v>
+        <v>20778</v>
       </c>
       <c r="O27" s="31">
-        <v>22</v>
+        <v>6159</v>
       </c>
       <c r="P27" s="33">
-        <v>50</v>
+        <v>14619</v>
       </c>
       <c r="Q27" s="35">
-        <v>161</v>
+        <v>46969</v>
       </c>
       <c r="R27" s="37">
-        <v>52</v>
+        <v>14904</v>
       </c>
       <c r="S27" s="39">
-        <v>109</v>
+        <v>32065</v>
       </c>
       <c r="T27" s="41">
-        <v>2</v>
+        <v>665</v>
       </c>
       <c r="U27" s="43">
         <v>0</v>
       </c>
       <c r="V27" s="45">
-        <v>2</v>
+        <v>665</v>
       </c>
       <c r="W27" s="47">
-        <v>7</v>
+        <v>1888</v>
       </c>
       <c r="X27" s="49">
-        <v>3</v>
+        <v>711</v>
       </c>
       <c r="Y27" s="51">
-        <v>4</v>
+        <v>1177</v>
       </c>
       <c r="Z27" s="53">
-        <v>235</v>
+        <v>67134</v>
       </c>
       <c r="AA27" s="55">
-        <v>75</v>
+        <v>21162</v>
       </c>
       <c r="AB27" s="57">
-        <v>160</v>
+        <v>45972</v>
       </c>
       <c r="AC27" s="59">
-        <v>72</v>
+        <v>20440</v>
       </c>
       <c r="AD27" s="61">
-        <v>73</v>
+        <v>20859</v>
       </c>
       <c r="AE27" s="63">
-        <v>0</v>
+        <v>-419</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4530,16 +4530,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>69</v>
+        <v>19795</v>
       </c>
       <c r="AJ27" s="73">
-        <v>90</v>
+        <v>26250</v>
       </c>
       <c r="AK27" s="75">
-        <v>-21</v>
+        <v>-6455</v>
       </c>
       <c r="AL27" s="77">
-        <v>11406</v>
+        <v>3335273</v>
       </c>
     </row>
     <row r="28">
@@ -4547,58 +4547,58 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>207</v>
+        <v>52199</v>
       </c>
       <c r="C28" s="7">
-        <v>295</v>
+        <v>73739</v>
       </c>
       <c r="D28" s="9">
-        <v>-88</v>
+        <v>-21540</v>
       </c>
       <c r="E28" s="11">
-        <v>830</v>
+        <v>208158</v>
       </c>
       <c r="F28" s="13">
-        <v>732</v>
+        <v>184142</v>
       </c>
       <c r="G28" s="15">
-        <v>98</v>
+        <v>24015</v>
       </c>
       <c r="H28" s="17">
-        <v>86</v>
+        <v>21642</v>
       </c>
       <c r="I28" s="19">
-        <v>95</v>
+        <v>23805</v>
       </c>
       <c r="J28" s="21">
-        <v>-8</v>
+        <v>-2163</v>
       </c>
       <c r="K28" s="23">
-        <v>43</v>
+        <v>10769</v>
       </c>
       <c r="L28" s="25">
-        <v>37</v>
+        <v>9217</v>
       </c>
       <c r="M28" s="27">
-        <v>6</v>
+        <v>1552</v>
       </c>
       <c r="N28" s="29">
-        <v>7</v>
+        <v>1793</v>
       </c>
       <c r="O28" s="31">
-        <v>13</v>
+        <v>3383</v>
       </c>
       <c r="P28" s="33">
-        <v>-6</v>
+        <v>-1590</v>
       </c>
       <c r="Q28" s="35">
-        <v>5</v>
+        <v>1282</v>
       </c>
       <c r="R28" s="37">
-        <v>8</v>
+        <v>2109</v>
       </c>
       <c r="S28" s="39">
-        <v>-3</v>
+        <v>-827</v>
       </c>
       <c r="T28" s="41">
         <v>0</v>
@@ -4610,31 +4610,31 @@
         <v>0</v>
       </c>
       <c r="W28" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X28" s="49">
         <v>0</v>
       </c>
       <c r="Y28" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z28" s="53">
-        <v>30</v>
+        <v>7413</v>
       </c>
       <c r="AA28" s="55">
-        <v>29</v>
+        <v>7379</v>
       </c>
       <c r="AB28" s="57">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC28" s="59">
-        <v>2</v>
+        <v>383</v>
       </c>
       <c r="AD28" s="61">
-        <v>7</v>
+        <v>1717</v>
       </c>
       <c r="AE28" s="63">
-        <v>-5</v>
+        <v>-1334</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4646,16 +4646,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>16</v>
+        <v>3971</v>
       </c>
       <c r="AJ28" s="73">
-        <v>17</v>
+        <v>4283</v>
       </c>
       <c r="AK28" s="75">
-        <v>-1</v>
+        <v>-312</v>
       </c>
       <c r="AL28" s="77">
-        <v>1139</v>
+        <v>285970</v>
       </c>
     </row>
     <row r="29">
@@ -4663,94 +4663,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>441</v>
+        <v>116335</v>
       </c>
       <c r="C29" s="7">
-        <v>500</v>
+        <v>131576</v>
       </c>
       <c r="D29" s="9">
-        <v>-60</v>
+        <v>-15241</v>
       </c>
       <c r="E29" s="11">
-        <v>1138</v>
+        <v>298863</v>
       </c>
       <c r="F29" s="13">
-        <v>1158</v>
+        <v>304900</v>
       </c>
       <c r="G29" s="15">
-        <v>-20</v>
+        <v>-6038</v>
       </c>
       <c r="H29" s="17">
-        <v>191</v>
+        <v>50512</v>
       </c>
       <c r="I29" s="19">
-        <v>121</v>
+        <v>31738</v>
       </c>
       <c r="J29" s="21">
-        <v>70</v>
+        <v>18774</v>
       </c>
       <c r="K29" s="23">
-        <v>47</v>
+        <v>12304</v>
       </c>
       <c r="L29" s="25">
-        <v>56</v>
+        <v>14573</v>
       </c>
       <c r="M29" s="27">
-        <v>-9</v>
+        <v>-2269</v>
       </c>
       <c r="N29" s="29">
+        <v>4316</v>
+      </c>
+      <c r="O29" s="31">
+        <v>1016</v>
+      </c>
+      <c r="P29" s="33">
+        <v>3300</v>
+      </c>
+      <c r="Q29" s="35">
+        <v>5782</v>
+      </c>
+      <c r="R29" s="37">
+        <v>4440</v>
+      </c>
+      <c r="S29" s="39">
+        <v>1341</v>
+      </c>
+      <c r="T29" s="41">
+        <v>0</v>
+      </c>
+      <c r="U29" s="43">
+        <v>0</v>
+      </c>
+      <c r="V29" s="45">
+        <v>0</v>
+      </c>
+      <c r="W29" s="47">
         <v>16</v>
       </c>
-      <c r="O29" s="31">
-        <v>4</v>
-      </c>
-      <c r="P29" s="33">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="35">
-        <v>22</v>
-      </c>
-      <c r="R29" s="37">
-        <v>17</v>
-      </c>
-      <c r="S29" s="39">
-        <v>5</v>
-      </c>
-      <c r="T29" s="41">
-        <v>0</v>
-      </c>
-      <c r="U29" s="43">
-        <v>0</v>
-      </c>
-      <c r="V29" s="45">
-        <v>0</v>
-      </c>
-      <c r="W29" s="47">
-        <v>0</v>
-      </c>
       <c r="X29" s="49">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y29" s="51">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="Z29" s="53">
-        <v>86</v>
+        <v>22717</v>
       </c>
       <c r="AA29" s="55">
-        <v>26</v>
+        <v>6867</v>
       </c>
       <c r="AB29" s="57">
-        <v>60</v>
+        <v>15850</v>
       </c>
       <c r="AC29" s="59">
-        <v>20</v>
+        <v>5377</v>
       </c>
       <c r="AD29" s="61">
-        <v>18</v>
+        <v>4821</v>
       </c>
       <c r="AE29" s="63">
-        <v>1</v>
+        <v>556</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4762,16 +4762,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>22</v>
+        <v>5853</v>
       </c>
       <c r="AJ29" s="73">
-        <v>13</v>
+        <v>3349</v>
       </c>
       <c r="AK29" s="75">
-        <v>9</v>
+        <v>2504</v>
       </c>
       <c r="AL29" s="77">
-        <v>1792</v>
+        <v>471563</v>
       </c>
     </row>
     <row r="30">
@@ -4779,58 +4779,58 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>463</v>
+        <v>117874</v>
       </c>
       <c r="C30" s="7">
-        <v>517</v>
+        <v>131878</v>
       </c>
       <c r="D30" s="9">
-        <v>-54</v>
+        <v>-14004</v>
       </c>
       <c r="E30" s="11">
-        <v>1299</v>
+        <v>331997</v>
       </c>
       <c r="F30" s="13">
-        <v>1210</v>
+        <v>309883</v>
       </c>
       <c r="G30" s="15">
-        <v>88</v>
+        <v>22114</v>
       </c>
       <c r="H30" s="17">
-        <v>140</v>
+        <v>36044</v>
       </c>
       <c r="I30" s="19">
-        <v>146</v>
+        <v>36924</v>
       </c>
       <c r="J30" s="21">
-        <v>-6</v>
+        <v>-880</v>
       </c>
       <c r="K30" s="23">
-        <v>74</v>
+        <v>18869</v>
       </c>
       <c r="L30" s="25">
-        <v>50</v>
+        <v>12638</v>
       </c>
       <c r="M30" s="27">
-        <v>24</v>
+        <v>6230</v>
       </c>
       <c r="N30" s="29">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="O30" s="31">
-        <v>15</v>
+        <v>3735</v>
       </c>
       <c r="P30" s="33">
-        <v>-13</v>
+        <v>-3235</v>
       </c>
       <c r="Q30" s="35">
-        <v>9</v>
+        <v>2301</v>
       </c>
       <c r="R30" s="37">
-        <v>18</v>
+        <v>4431</v>
       </c>
       <c r="S30" s="39">
-        <v>-9</v>
+        <v>-2130</v>
       </c>
       <c r="T30" s="41">
         <v>0</v>
@@ -4842,31 +4842,31 @@
         <v>0</v>
       </c>
       <c r="W30" s="47">
-        <v>7</v>
+        <v>2006</v>
       </c>
       <c r="X30" s="49">
-        <v>2</v>
+        <v>388</v>
       </c>
       <c r="Y30" s="51">
-        <v>6</v>
+        <v>1618</v>
       </c>
       <c r="Z30" s="53">
-        <v>26</v>
+        <v>6510</v>
       </c>
       <c r="AA30" s="55">
-        <v>32</v>
+        <v>8104</v>
       </c>
       <c r="AB30" s="57">
-        <v>-6</v>
+        <v>-1594</v>
       </c>
       <c r="AC30" s="59">
-        <v>22</v>
+        <v>5859</v>
       </c>
       <c r="AD30" s="61">
-        <v>30</v>
+        <v>7628</v>
       </c>
       <c r="AE30" s="63">
-        <v>-8</v>
+        <v>-1770</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4878,16 +4878,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>11</v>
+        <v>2823</v>
       </c>
       <c r="AJ30" s="73">
-        <v>40</v>
+        <v>10053</v>
       </c>
       <c r="AK30" s="75">
-        <v>-29</v>
+        <v>-7230</v>
       </c>
       <c r="AL30" s="77">
-        <v>1913</v>
+        <v>488738</v>
       </c>
     </row>
     <row r="31">
@@ -4895,94 +4895,94 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>567</v>
+        <v>152518</v>
       </c>
       <c r="C31" s="7">
-        <v>685</v>
+        <v>184520</v>
       </c>
       <c r="D31" s="9">
-        <v>-118</v>
+        <v>-32002</v>
       </c>
       <c r="E31" s="11">
-        <v>2474</v>
+        <v>667546</v>
       </c>
       <c r="F31" s="13">
-        <v>2491</v>
+        <v>673086</v>
       </c>
       <c r="G31" s="15">
-        <v>-16</v>
+        <v>-5541</v>
       </c>
       <c r="H31" s="17">
-        <v>238</v>
+        <v>65304</v>
       </c>
       <c r="I31" s="19">
-        <v>109</v>
+        <v>29271</v>
       </c>
       <c r="J31" s="21">
-        <v>128</v>
+        <v>36034</v>
       </c>
       <c r="K31" s="23">
-        <v>41</v>
+        <v>11106</v>
       </c>
       <c r="L31" s="25">
-        <v>59</v>
+        <v>15787</v>
       </c>
       <c r="M31" s="27">
-        <v>-18</v>
+        <v>-4681</v>
       </c>
       <c r="N31" s="29">
-        <v>14</v>
+        <v>3897</v>
       </c>
       <c r="O31" s="31">
-        <v>6</v>
+        <v>1601</v>
       </c>
       <c r="P31" s="33">
-        <v>8</v>
+        <v>2296</v>
       </c>
       <c r="Q31" s="35">
-        <v>8</v>
+        <v>2187</v>
       </c>
       <c r="R31" s="37">
-        <v>11</v>
+        <v>2829</v>
       </c>
       <c r="S31" s="39">
-        <v>-3</v>
+        <v>-642</v>
       </c>
       <c r="T31" s="41">
         <v>0</v>
       </c>
       <c r="U31" s="43">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="V31" s="45">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="W31" s="47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X31" s="49">
         <v>0</v>
       </c>
       <c r="Y31" s="51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z31" s="53">
-        <v>171</v>
+        <v>46854</v>
       </c>
       <c r="AA31" s="55">
-        <v>28</v>
+        <v>7607</v>
       </c>
       <c r="AB31" s="57">
-        <v>142</v>
+        <v>39247</v>
       </c>
       <c r="AC31" s="59">
-        <v>4</v>
+        <v>1211</v>
       </c>
       <c r="AD31" s="61">
-        <v>5</v>
+        <v>1408</v>
       </c>
       <c r="AE31" s="63">
-        <v>-1</v>
+        <v>-198</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4994,16 +4994,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>34</v>
+        <v>9295</v>
       </c>
       <c r="AJ31" s="73">
-        <v>29</v>
+        <v>7786</v>
       </c>
       <c r="AK31" s="75">
-        <v>6</v>
+        <v>1509</v>
       </c>
       <c r="AL31" s="77">
-        <v>3314</v>
+        <v>894662</v>
       </c>
     </row>
     <row r="32">
@@ -5011,94 +5011,94 @@
         <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>1244</v>
+        <v>366924</v>
       </c>
       <c r="C32" s="7">
-        <v>1491</v>
+        <v>445169</v>
       </c>
       <c r="D32" s="9">
-        <v>-247</v>
+        <v>-78245</v>
       </c>
       <c r="E32" s="11">
-        <v>6092</v>
+        <v>1816276</v>
       </c>
       <c r="F32" s="13">
-        <v>5426</v>
+        <v>1611613</v>
       </c>
       <c r="G32" s="15">
-        <v>666</v>
+        <v>204664</v>
       </c>
       <c r="H32" s="17">
-        <v>217</v>
+        <v>64831</v>
       </c>
       <c r="I32" s="19">
-        <v>655</v>
+        <v>196265</v>
       </c>
       <c r="J32" s="21">
-        <v>-438</v>
+        <v>-131434</v>
       </c>
       <c r="K32" s="23">
-        <v>112</v>
+        <v>33278</v>
       </c>
       <c r="L32" s="25">
-        <v>122</v>
+        <v>36587</v>
       </c>
       <c r="M32" s="27">
-        <v>-11</v>
+        <v>-3310</v>
       </c>
       <c r="N32" s="29">
-        <v>8</v>
+        <v>2389</v>
       </c>
       <c r="O32" s="31">
-        <v>51</v>
+        <v>15332</v>
       </c>
       <c r="P32" s="33">
-        <v>-43</v>
+        <v>-12944</v>
       </c>
       <c r="Q32" s="35">
-        <v>31</v>
+        <v>9498</v>
       </c>
       <c r="R32" s="37">
-        <v>107</v>
+        <v>32688</v>
       </c>
       <c r="S32" s="39">
-        <v>-75</v>
+        <v>-23190</v>
       </c>
       <c r="T32" s="41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U32" s="43">
-        <v>2</v>
+        <v>794</v>
       </c>
       <c r="V32" s="45">
-        <v>-2</v>
+        <v>-784</v>
       </c>
       <c r="W32" s="47">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X32" s="49">
-        <v>1</v>
+        <v>414</v>
       </c>
       <c r="Y32" s="51">
-        <v>-1</v>
+        <v>-389</v>
       </c>
       <c r="Z32" s="53">
-        <v>48</v>
+        <v>14355</v>
       </c>
       <c r="AA32" s="55">
-        <v>341</v>
+        <v>100713</v>
       </c>
       <c r="AB32" s="57">
-        <v>-293</v>
+        <v>-86359</v>
       </c>
       <c r="AC32" s="59">
-        <v>18</v>
+        <v>5277</v>
       </c>
       <c r="AD32" s="61">
-        <v>31</v>
+        <v>9735</v>
       </c>
       <c r="AE32" s="63">
-        <v>-13</v>
+        <v>-4458</v>
       </c>
       <c r="AF32" s="65">
         <v>0</v>
@@ -5110,16 +5110,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="71">
-        <v>66</v>
+        <v>20063</v>
       </c>
       <c r="AJ32" s="73">
-        <v>48</v>
+        <v>15049</v>
       </c>
       <c r="AK32" s="75">
-        <v>19</v>
+        <v>5014</v>
       </c>
       <c r="AL32" s="77">
-        <v>7620</v>
+        <v>2268094</v>
       </c>
     </row>
     <row r="33">
@@ -5127,94 +5127,94 @@
         <v>45</v>
       </c>
       <c r="B33" s="5">
-        <v>1080</v>
+        <v>440811</v>
       </c>
       <c r="C33" s="7">
-        <v>985</v>
+        <v>397403</v>
       </c>
       <c r="D33" s="9">
-        <v>95</v>
+        <v>43408</v>
       </c>
       <c r="E33" s="11">
-        <v>4448</v>
+        <v>1812644</v>
       </c>
       <c r="F33" s="13">
-        <v>4190</v>
+        <v>1722381</v>
       </c>
       <c r="G33" s="15">
-        <v>259</v>
+        <v>90263</v>
       </c>
       <c r="H33" s="17">
-        <v>352</v>
+        <v>147789</v>
       </c>
       <c r="I33" s="19">
-        <v>709</v>
+        <v>282071</v>
       </c>
       <c r="J33" s="21">
-        <v>-357</v>
+        <v>-134283</v>
       </c>
       <c r="K33" s="23">
-        <v>145</v>
+        <v>60340</v>
       </c>
       <c r="L33" s="25">
-        <v>148</v>
+        <v>59947</v>
       </c>
       <c r="M33" s="27">
-        <v>-3</v>
+        <v>393</v>
       </c>
       <c r="N33" s="29">
-        <v>54</v>
+        <v>23143</v>
       </c>
       <c r="O33" s="31">
-        <v>69</v>
+        <v>27040</v>
       </c>
       <c r="P33" s="33">
-        <v>-15</v>
+        <v>-3898</v>
       </c>
       <c r="Q33" s="35">
-        <v>49</v>
+        <v>20731</v>
       </c>
       <c r="R33" s="37">
-        <v>91</v>
+        <v>35827</v>
       </c>
       <c r="S33" s="39">
-        <v>-41</v>
+        <v>-15096</v>
       </c>
       <c r="T33" s="41">
-        <v>4</v>
+        <v>1867</v>
       </c>
       <c r="U33" s="43">
-        <v>1</v>
+        <v>438</v>
       </c>
       <c r="V33" s="45">
-        <v>3</v>
+        <v>1429</v>
       </c>
       <c r="W33" s="47">
-        <v>3</v>
+        <v>1084</v>
       </c>
       <c r="X33" s="49">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="Y33" s="51">
-        <v>2</v>
+        <v>872</v>
       </c>
       <c r="Z33" s="53">
-        <v>69</v>
+        <v>28637</v>
       </c>
       <c r="AA33" s="55">
-        <v>342</v>
+        <v>135570</v>
       </c>
       <c r="AB33" s="57">
-        <v>-273</v>
+        <v>-106933</v>
       </c>
       <c r="AC33" s="59">
-        <v>28</v>
+        <v>11986</v>
       </c>
       <c r="AD33" s="61">
-        <v>58</v>
+        <v>23037</v>
       </c>
       <c r="AE33" s="63">
-        <v>-29</v>
+        <v>-11051</v>
       </c>
       <c r="AF33" s="65">
         <v>0</v>
@@ -5226,16 +5226,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="71">
-        <v>58</v>
+        <v>23321</v>
       </c>
       <c r="AJ33" s="73">
-        <v>55</v>
+        <v>22709</v>
       </c>
       <c r="AK33" s="75">
-        <v>3</v>
+        <v>612</v>
       </c>
       <c r="AL33" s="77">
-        <v>5938</v>
+        <v>2424565</v>
       </c>
     </row>
     <row r="34">
@@ -5243,94 +5243,94 @@
         <v>46</v>
       </c>
       <c r="B34" s="5">
-        <v>1531</v>
+        <v>621471</v>
       </c>
       <c r="C34" s="7">
-        <v>1113</v>
+        <v>451828</v>
       </c>
       <c r="D34" s="9">
-        <v>418</v>
+        <v>169643</v>
       </c>
       <c r="E34" s="11">
-        <v>5629</v>
+        <v>2259901</v>
       </c>
       <c r="F34" s="13">
-        <v>5994</v>
+        <v>2414769</v>
       </c>
       <c r="G34" s="15">
-        <v>-364</v>
+        <v>-154868</v>
       </c>
       <c r="H34" s="17">
-        <v>552</v>
+        <v>221658</v>
       </c>
       <c r="I34" s="19">
-        <v>618</v>
+        <v>241172</v>
       </c>
       <c r="J34" s="21">
-        <v>-66</v>
+        <v>-19514</v>
       </c>
       <c r="K34" s="23">
-        <v>209</v>
+        <v>83520</v>
       </c>
       <c r="L34" s="25">
-        <v>196</v>
+        <v>77190</v>
       </c>
       <c r="M34" s="27">
-        <v>13</v>
+        <v>6330</v>
       </c>
       <c r="N34" s="29">
-        <v>37</v>
+        <v>14957</v>
       </c>
       <c r="O34" s="31">
-        <v>29</v>
+        <v>11123</v>
       </c>
       <c r="P34" s="33">
-        <v>8</v>
+        <v>3834</v>
       </c>
       <c r="Q34" s="35">
-        <v>77</v>
+        <v>31284</v>
       </c>
       <c r="R34" s="37">
-        <v>72</v>
+        <v>27932</v>
       </c>
       <c r="S34" s="39">
-        <v>5</v>
+        <v>3352</v>
       </c>
       <c r="T34" s="41">
-        <v>2</v>
+        <v>981</v>
       </c>
       <c r="U34" s="43">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="V34" s="45">
-        <v>1</v>
+        <v>560</v>
       </c>
       <c r="W34" s="47">
-        <v>1</v>
+        <v>489</v>
       </c>
       <c r="X34" s="49">
-        <v>1</v>
+        <v>481</v>
       </c>
       <c r="Y34" s="51">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z34" s="53">
-        <v>148</v>
+        <v>58732</v>
       </c>
       <c r="AA34" s="55">
-        <v>261</v>
+        <v>101224</v>
       </c>
       <c r="AB34" s="57">
-        <v>-113</v>
+        <v>-42491</v>
       </c>
       <c r="AC34" s="59">
-        <v>76</v>
+        <v>31694</v>
       </c>
       <c r="AD34" s="61">
-        <v>57</v>
+        <v>22800</v>
       </c>
       <c r="AE34" s="63">
-        <v>19</v>
+        <v>8894</v>
       </c>
       <c r="AF34" s="65">
         <v>0</v>
@@ -5342,16 +5342,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="71">
-        <v>74</v>
+        <v>28984</v>
       </c>
       <c r="AJ34" s="73">
-        <v>61</v>
+        <v>24244</v>
       </c>
       <c r="AK34" s="75">
-        <v>13</v>
+        <v>4739</v>
       </c>
       <c r="AL34" s="77">
-        <v>7786</v>
+        <v>3132014</v>
       </c>
     </row>
     <row r="35">
@@ -5359,94 +5359,94 @@
         <v>47</v>
       </c>
       <c r="B35" s="5">
-        <v>849</v>
+        <v>329758</v>
       </c>
       <c r="C35" s="7">
-        <v>828</v>
+        <v>324472</v>
       </c>
       <c r="D35" s="9">
-        <v>22</v>
+        <v>5286</v>
       </c>
       <c r="E35" s="11">
-        <v>4990</v>
+        <v>1953198</v>
       </c>
       <c r="F35" s="13">
-        <v>4928</v>
+        <v>1924635</v>
       </c>
       <c r="G35" s="15">
-        <v>62</v>
+        <v>28563</v>
       </c>
       <c r="H35" s="17">
-        <v>334</v>
+        <v>129774</v>
       </c>
       <c r="I35" s="19">
-        <v>413</v>
+        <v>161412</v>
       </c>
       <c r="J35" s="21">
-        <v>-79</v>
+        <v>-31637</v>
       </c>
       <c r="K35" s="23">
-        <v>109</v>
+        <v>42140</v>
       </c>
       <c r="L35" s="25">
-        <v>106</v>
+        <v>41174</v>
       </c>
       <c r="M35" s="27">
-        <v>3</v>
+        <v>967</v>
       </c>
       <c r="N35" s="29">
-        <v>20</v>
+        <v>7834</v>
       </c>
       <c r="O35" s="31">
-        <v>32</v>
+        <v>12477</v>
       </c>
       <c r="P35" s="33">
-        <v>-12</v>
+        <v>-4643</v>
       </c>
       <c r="Q35" s="35">
-        <v>30</v>
+        <v>11745</v>
       </c>
       <c r="R35" s="37">
-        <v>88</v>
+        <v>34412</v>
       </c>
       <c r="S35" s="39">
-        <v>-58</v>
+        <v>-22667</v>
       </c>
       <c r="T35" s="41">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="U35" s="43">
-        <v>1</v>
+        <v>468</v>
       </c>
       <c r="V35" s="45">
-        <v>-1</v>
+        <v>-369</v>
       </c>
       <c r="W35" s="47">
-        <v>1</v>
+        <v>296</v>
       </c>
       <c r="X35" s="49">
-        <v>7</v>
+        <v>2598</v>
       </c>
       <c r="Y35" s="51">
-        <v>-6</v>
+        <v>-2302</v>
       </c>
       <c r="Z35" s="53">
-        <v>139</v>
+        <v>53760</v>
       </c>
       <c r="AA35" s="55">
-        <v>140</v>
+        <v>54739</v>
       </c>
       <c r="AB35" s="57">
-        <v>-1</v>
+        <v>-979</v>
       </c>
       <c r="AC35" s="59">
-        <v>36</v>
+        <v>13899</v>
       </c>
       <c r="AD35" s="61">
-        <v>40</v>
+        <v>15545</v>
       </c>
       <c r="AE35" s="63">
-        <v>-4</v>
+        <v>-1645</v>
       </c>
       <c r="AF35" s="65">
         <v>0</v>
@@ -5458,16 +5458,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="71">
-        <v>50</v>
+        <v>19404</v>
       </c>
       <c r="AJ35" s="73">
-        <v>55</v>
+        <v>21616</v>
       </c>
       <c r="AK35" s="75">
-        <v>-5</v>
+        <v>-2212</v>
       </c>
       <c r="AL35" s="77">
-        <v>6224</v>
+        <v>2432134</v>
       </c>
     </row>
     <row r="36">
@@ -5475,94 +5475,94 @@
         <v>48</v>
       </c>
       <c r="B36" s="5">
-        <v>2357</v>
+        <v>989632</v>
       </c>
       <c r="C36" s="7">
-        <v>1770</v>
+        <v>746216</v>
       </c>
       <c r="D36" s="9">
-        <v>588</v>
+        <v>243416</v>
       </c>
       <c r="E36" s="11">
-        <v>11439</v>
+        <v>4765938</v>
       </c>
       <c r="F36" s="13">
-        <v>11840</v>
+        <v>4928393</v>
       </c>
       <c r="G36" s="15">
-        <v>-401</v>
+        <v>-162455</v>
       </c>
       <c r="H36" s="17">
-        <v>613</v>
+        <v>251251</v>
       </c>
       <c r="I36" s="19">
-        <v>806</v>
+        <v>335072</v>
       </c>
       <c r="J36" s="21">
-        <v>-193</v>
+        <v>-83821</v>
       </c>
       <c r="K36" s="23">
-        <v>156</v>
+        <v>65412</v>
       </c>
       <c r="L36" s="25">
-        <v>157</v>
+        <v>65848</v>
       </c>
       <c r="M36" s="27">
-        <v>-1</v>
+        <v>-436</v>
       </c>
       <c r="N36" s="29">
-        <v>34</v>
+        <v>13610</v>
       </c>
       <c r="O36" s="31">
-        <v>55</v>
+        <v>23319</v>
       </c>
       <c r="P36" s="33">
-        <v>-21</v>
+        <v>-9709</v>
       </c>
       <c r="Q36" s="35">
-        <v>140</v>
+        <v>57101</v>
       </c>
       <c r="R36" s="37">
-        <v>149</v>
+        <v>61770</v>
       </c>
       <c r="S36" s="39">
-        <v>-9</v>
+        <v>-4668</v>
       </c>
       <c r="T36" s="41">
-        <v>5</v>
+        <v>2093</v>
       </c>
       <c r="U36" s="43">
-        <v>4</v>
+        <v>1610</v>
       </c>
       <c r="V36" s="45">
-        <v>1</v>
+        <v>483</v>
       </c>
       <c r="W36" s="47">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="X36" s="49">
-        <v>4</v>
+        <v>1738</v>
       </c>
       <c r="Y36" s="51">
-        <v>-4</v>
+        <v>-1613</v>
       </c>
       <c r="Z36" s="53">
-        <v>189</v>
+        <v>76135</v>
       </c>
       <c r="AA36" s="55">
-        <v>274</v>
+        <v>114063</v>
       </c>
       <c r="AB36" s="57">
-        <v>-85</v>
+        <v>-37928</v>
       </c>
       <c r="AC36" s="59">
-        <v>88</v>
+        <v>36774</v>
       </c>
       <c r="AD36" s="61">
-        <v>163</v>
+        <v>66725</v>
       </c>
       <c r="AE36" s="63">
-        <v>-74</v>
+        <v>-29950</v>
       </c>
       <c r="AF36" s="65">
         <v>0</v>
@@ -5574,16 +5574,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="71">
-        <v>79</v>
+        <v>33175</v>
       </c>
       <c r="AJ36" s="73">
-        <v>73</v>
+        <v>30315</v>
       </c>
       <c r="AK36" s="75">
-        <v>6</v>
+        <v>2860</v>
       </c>
       <c r="AL36" s="77">
-        <v>14489</v>
+        <v>6039996</v>
       </c>
     </row>
     <row r="37">
@@ -5591,94 +5591,94 @@
         <v>49</v>
       </c>
       <c r="B37" s="5">
-        <v>890</v>
+        <v>298786</v>
       </c>
       <c r="C37" s="7">
-        <v>806</v>
+        <v>271035</v>
       </c>
       <c r="D37" s="9">
-        <v>84</v>
+        <v>27751</v>
       </c>
       <c r="E37" s="11">
-        <v>5899</v>
+        <v>1998251</v>
       </c>
       <c r="F37" s="13">
-        <v>6310</v>
+        <v>2139632</v>
       </c>
       <c r="G37" s="15">
-        <v>-411</v>
+        <v>-141380</v>
       </c>
       <c r="H37" s="17">
-        <v>720</v>
+        <v>243643</v>
       </c>
       <c r="I37" s="19">
-        <v>393</v>
+        <v>129746</v>
       </c>
       <c r="J37" s="21">
-        <v>328</v>
+        <v>113897</v>
       </c>
       <c r="K37" s="23">
-        <v>105</v>
+        <v>35326</v>
       </c>
       <c r="L37" s="25">
-        <v>99</v>
+        <v>33333</v>
       </c>
       <c r="M37" s="27">
-        <v>6</v>
+        <v>1993</v>
       </c>
       <c r="N37" s="29">
-        <v>47</v>
+        <v>16044</v>
       </c>
       <c r="O37" s="31">
-        <v>29</v>
+        <v>9678</v>
       </c>
       <c r="P37" s="33">
-        <v>18</v>
+        <v>6367</v>
       </c>
       <c r="Q37" s="35">
-        <v>141</v>
+        <v>47884</v>
       </c>
       <c r="R37" s="37">
-        <v>60</v>
+        <v>19599</v>
       </c>
       <c r="S37" s="39">
-        <v>81</v>
+        <v>28285</v>
       </c>
       <c r="T37" s="41">
-        <v>4</v>
+        <v>1326</v>
       </c>
       <c r="U37" s="43">
-        <v>3</v>
+        <v>968</v>
       </c>
       <c r="V37" s="45">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="W37" s="47">
-        <v>2</v>
+        <v>666</v>
       </c>
       <c r="X37" s="49">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="Y37" s="51">
-        <v>2</v>
+        <v>558</v>
       </c>
       <c r="Z37" s="53">
-        <v>240</v>
+        <v>81053</v>
       </c>
       <c r="AA37" s="55">
-        <v>72</v>
+        <v>24087</v>
       </c>
       <c r="AB37" s="57">
-        <v>167</v>
+        <v>56966</v>
       </c>
       <c r="AC37" s="59">
-        <v>181</v>
+        <v>61343</v>
       </c>
       <c r="AD37" s="61">
-        <v>128</v>
+        <v>41973</v>
       </c>
       <c r="AE37" s="63">
-        <v>53</v>
+        <v>19370</v>
       </c>
       <c r="AF37" s="65">
         <v>0</v>
@@ -5690,16 +5690,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="71">
-        <v>29</v>
+        <v>9711</v>
       </c>
       <c r="AJ37" s="73">
-        <v>30</v>
+        <v>9979</v>
       </c>
       <c r="AK37" s="75">
-        <v>-1</v>
+        <v>-268</v>
       </c>
       <c r="AL37" s="77">
-        <v>7538</v>
+        <v>2550390</v>
       </c>
     </row>
     <row r="38">
@@ -5707,94 +5707,94 @@
         <v>50</v>
       </c>
       <c r="B38" s="5">
-        <v>1434</v>
+        <v>471565</v>
       </c>
       <c r="C38" s="7">
-        <v>1427</v>
+        <v>478017</v>
       </c>
       <c r="D38" s="9">
-        <v>7</v>
+        <v>-6452</v>
       </c>
       <c r="E38" s="11">
-        <v>10638</v>
+        <v>3631161</v>
       </c>
       <c r="F38" s="13">
-        <v>10406</v>
+        <v>3546927</v>
       </c>
       <c r="G38" s="15">
-        <v>232</v>
+        <v>84233</v>
       </c>
       <c r="H38" s="17">
-        <v>647</v>
+        <v>223017</v>
       </c>
       <c r="I38" s="19">
-        <v>880</v>
+        <v>299230</v>
       </c>
       <c r="J38" s="21">
-        <v>-233</v>
+        <v>-76214</v>
       </c>
       <c r="K38" s="23">
-        <v>271</v>
+        <v>91836</v>
       </c>
       <c r="L38" s="25">
+        <v>118791</v>
+      </c>
+      <c r="M38" s="27">
+        <v>-26956</v>
+      </c>
+      <c r="N38" s="29">
+        <v>16288</v>
+      </c>
+      <c r="O38" s="31">
+        <v>17424</v>
+      </c>
+      <c r="P38" s="33">
+        <v>-1136</v>
+      </c>
+      <c r="Q38" s="35">
+        <v>35209</v>
+      </c>
+      <c r="R38" s="37">
+        <v>56491</v>
+      </c>
+      <c r="S38" s="39">
+        <v>-21282</v>
+      </c>
+      <c r="T38" s="41">
+        <v>452</v>
+      </c>
+      <c r="U38" s="43">
+        <v>1808</v>
+      </c>
+      <c r="V38" s="45">
+        <v>-1356</v>
+      </c>
+      <c r="W38" s="47">
         <v>348</v>
       </c>
-      <c r="M38" s="27">
-        <v>-76</v>
-      </c>
-      <c r="N38" s="29">
-        <v>47</v>
-      </c>
-      <c r="O38" s="31">
-        <v>52</v>
-      </c>
-      <c r="P38" s="33">
-        <v>-5</v>
-      </c>
-      <c r="Q38" s="35">
-        <v>101</v>
-      </c>
-      <c r="R38" s="37">
-        <v>168</v>
-      </c>
-      <c r="S38" s="39">
-        <v>-67</v>
-      </c>
-      <c r="T38" s="41">
-        <v>1</v>
-      </c>
-      <c r="U38" s="43">
-        <v>5</v>
-      </c>
-      <c r="V38" s="45">
-        <v>-4</v>
-      </c>
-      <c r="W38" s="47">
-        <v>1</v>
-      </c>
       <c r="X38" s="49">
-        <v>2</v>
+        <v>510</v>
       </c>
       <c r="Y38" s="51">
-        <v>0</v>
+        <v>-162</v>
       </c>
       <c r="Z38" s="53">
-        <v>137</v>
+        <v>48301</v>
       </c>
       <c r="AA38" s="55">
-        <v>185</v>
+        <v>61672</v>
       </c>
       <c r="AB38" s="57">
-        <v>-47</v>
+        <v>-13371</v>
       </c>
       <c r="AC38" s="59">
-        <v>89</v>
+        <v>30584</v>
       </c>
       <c r="AD38" s="61">
-        <v>122</v>
+        <v>42535</v>
       </c>
       <c r="AE38" s="63">
-        <v>-33</v>
+        <v>-11951</v>
       </c>
       <c r="AF38" s="65">
         <v>0</v>
@@ -5806,16 +5806,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="71">
-        <v>78</v>
+        <v>27031</v>
       </c>
       <c r="AJ38" s="73">
-        <v>84</v>
+        <v>28599</v>
       </c>
       <c r="AK38" s="75">
-        <v>-6</v>
+        <v>-1568</v>
       </c>
       <c r="AL38" s="77">
-        <v>12797</v>
+        <v>4352774</v>
       </c>
     </row>
     <row r="39">
@@ -5823,94 +5823,94 @@
         <v>51</v>
       </c>
       <c r="B39" s="5">
-        <v>807</v>
+        <v>315406</v>
       </c>
       <c r="C39" s="7">
-        <v>693</v>
+        <v>273122</v>
       </c>
       <c r="D39" s="9">
-        <v>114</v>
+        <v>42283</v>
       </c>
       <c r="E39" s="11">
-        <v>12569</v>
+        <v>4744692</v>
       </c>
       <c r="F39" s="13">
-        <v>12868</v>
+        <v>4839479</v>
       </c>
       <c r="G39" s="15">
-        <v>-299</v>
+        <v>-94787</v>
       </c>
       <c r="H39" s="17">
-        <v>1023</v>
+        <v>384460</v>
       </c>
       <c r="I39" s="19">
-        <v>863</v>
+        <v>338062</v>
       </c>
       <c r="J39" s="21">
-        <v>160</v>
+        <v>46398</v>
       </c>
       <c r="K39" s="23">
-        <v>513</v>
+        <v>185918</v>
       </c>
       <c r="L39" s="25">
-        <v>379</v>
+        <v>146214</v>
       </c>
       <c r="M39" s="27">
-        <v>134</v>
+        <v>39704</v>
       </c>
       <c r="N39" s="29">
-        <v>36</v>
+        <v>14417</v>
       </c>
       <c r="O39" s="31">
-        <v>18</v>
+        <v>7083</v>
       </c>
       <c r="P39" s="33">
-        <v>18</v>
+        <v>7334</v>
       </c>
       <c r="Q39" s="35">
-        <v>104</v>
+        <v>38769</v>
       </c>
       <c r="R39" s="37">
-        <v>102</v>
+        <v>39831</v>
       </c>
       <c r="S39" s="39">
-        <v>2</v>
+        <v>-1063</v>
       </c>
       <c r="T39" s="41">
-        <v>3</v>
+        <v>1475</v>
       </c>
       <c r="U39" s="43">
-        <v>2</v>
+        <v>679</v>
       </c>
       <c r="V39" s="45">
-        <v>2</v>
+        <v>796</v>
       </c>
       <c r="W39" s="47">
-        <v>8</v>
+        <v>3223</v>
       </c>
       <c r="X39" s="49">
-        <v>2</v>
+        <v>787</v>
       </c>
       <c r="Y39" s="51">
-        <v>6</v>
+        <v>2436</v>
       </c>
       <c r="Z39" s="53">
-        <v>163</v>
+        <v>65541</v>
       </c>
       <c r="AA39" s="55">
-        <v>73</v>
+        <v>29037</v>
       </c>
       <c r="AB39" s="57">
-        <v>90</v>
+        <v>36504</v>
       </c>
       <c r="AC39" s="59">
-        <v>195</v>
+        <v>75118</v>
       </c>
       <c r="AD39" s="61">
-        <v>287</v>
+        <v>114431</v>
       </c>
       <c r="AE39" s="63">
-        <v>-92</v>
+        <v>-39313</v>
       </c>
       <c r="AF39" s="65">
         <v>0</v>
@@ -5922,16 +5922,16 @@
         <v>0</v>
       </c>
       <c r="AI39" s="71">
-        <v>124</v>
+        <v>45470</v>
       </c>
       <c r="AJ39" s="73">
-        <v>99</v>
+        <v>39364</v>
       </c>
       <c r="AK39" s="75">
-        <v>25</v>
+        <v>6106</v>
       </c>
       <c r="AL39" s="77">
-        <v>14524</v>
+        <v>5490028</v>
       </c>
     </row>
     <row r="40">
@@ -5939,94 +5939,94 @@
         <v>52</v>
       </c>
       <c r="B40" s="5">
-        <v>2367</v>
+        <v>438451</v>
       </c>
       <c r="C40" s="7">
-        <v>2208</v>
+        <v>431351</v>
       </c>
       <c r="D40" s="9">
-        <v>159</v>
+        <v>7100</v>
       </c>
       <c r="E40" s="11">
-        <v>33951</v>
+        <v>7576034</v>
       </c>
       <c r="F40" s="13">
-        <v>33876</v>
+        <v>7481968</v>
       </c>
       <c r="G40" s="15">
-        <v>74</v>
+        <v>94066</v>
       </c>
       <c r="H40" s="17">
-        <v>1605</v>
+        <v>287578</v>
       </c>
       <c r="I40" s="19">
-        <v>1809</v>
+        <v>385676</v>
       </c>
       <c r="J40" s="21">
-        <v>-204</v>
+        <v>-98098</v>
       </c>
       <c r="K40" s="23">
-        <v>638</v>
+        <v>122980</v>
       </c>
       <c r="L40" s="25">
-        <v>639</v>
+        <v>144947</v>
       </c>
       <c r="M40" s="27">
-        <v>-1</v>
+        <v>-21966</v>
       </c>
       <c r="N40" s="29">
-        <v>89</v>
+        <v>15344</v>
       </c>
       <c r="O40" s="31">
-        <v>98</v>
+        <v>17393</v>
       </c>
       <c r="P40" s="33">
-        <v>-8</v>
+        <v>-2049</v>
       </c>
       <c r="Q40" s="35">
-        <v>239</v>
+        <v>40550</v>
       </c>
       <c r="R40" s="37">
-        <v>267</v>
+        <v>55141</v>
       </c>
       <c r="S40" s="39">
-        <v>-28</v>
+        <v>-14591</v>
       </c>
       <c r="T40" s="41">
-        <v>24</v>
+        <v>4111</v>
       </c>
       <c r="U40" s="43">
-        <v>24</v>
+        <v>4768</v>
       </c>
       <c r="V40" s="45">
-        <v>0</v>
+        <v>-657</v>
       </c>
       <c r="W40" s="47">
-        <v>3</v>
+        <v>664</v>
       </c>
       <c r="X40" s="49">
-        <v>10</v>
+        <v>1491</v>
       </c>
       <c r="Y40" s="51">
-        <v>-7</v>
+        <v>-828</v>
       </c>
       <c r="Z40" s="53">
-        <v>362</v>
+        <v>61145</v>
       </c>
       <c r="AA40" s="55">
-        <v>496</v>
+        <v>103744</v>
       </c>
       <c r="AB40" s="57">
-        <v>-135</v>
+        <v>-42599</v>
       </c>
       <c r="AC40" s="59">
-        <v>250</v>
+        <v>42783</v>
       </c>
       <c r="AD40" s="61">
-        <v>275</v>
+        <v>58191</v>
       </c>
       <c r="AE40" s="63">
-        <v>-25</v>
+        <v>-15407</v>
       </c>
       <c r="AF40" s="65">
         <v>0</v>
@@ -6038,16 +6038,16 @@
         <v>0</v>
       </c>
       <c r="AI40" s="71">
-        <v>207</v>
+        <v>41353</v>
       </c>
       <c r="AJ40" s="73">
-        <v>237</v>
+        <v>44421</v>
       </c>
       <c r="AK40" s="75">
-        <v>-30</v>
+        <v>-3068</v>
       </c>
       <c r="AL40" s="77">
-        <v>38130</v>
+        <v>8343416</v>
       </c>
     </row>
     <row r="41">
@@ -6055,94 +6055,94 @@
         <v>53</v>
       </c>
       <c r="B41" s="5">
-        <v>1136</v>
+        <v>123126</v>
       </c>
       <c r="C41" s="7">
-        <v>1015</v>
+        <v>110559</v>
       </c>
       <c r="D41" s="9">
-        <v>121</v>
+        <v>12567</v>
       </c>
       <c r="E41" s="11">
-        <v>20442</v>
+        <v>2281183</v>
       </c>
       <c r="F41" s="13">
-        <v>20732</v>
+        <v>2312456</v>
       </c>
       <c r="G41" s="15">
-        <v>-290</v>
+        <v>-31273</v>
       </c>
       <c r="H41" s="17">
-        <v>859</v>
+        <v>96412</v>
       </c>
       <c r="I41" s="19">
-        <v>682</v>
+        <v>76399</v>
       </c>
       <c r="J41" s="21">
-        <v>177</v>
+        <v>20013</v>
       </c>
       <c r="K41" s="23">
-        <v>225</v>
+        <v>24791</v>
       </c>
       <c r="L41" s="25">
-        <v>222</v>
+        <v>24972</v>
       </c>
       <c r="M41" s="27">
-        <v>4</v>
+        <v>-181</v>
       </c>
       <c r="N41" s="29">
-        <v>63</v>
+        <v>6852</v>
       </c>
       <c r="O41" s="31">
-        <v>32</v>
+        <v>3199</v>
       </c>
       <c r="P41" s="33">
-        <v>32</v>
+        <v>3653</v>
       </c>
       <c r="Q41" s="35">
-        <v>165</v>
+        <v>18192</v>
       </c>
       <c r="R41" s="37">
-        <v>114</v>
+        <v>12660</v>
       </c>
       <c r="S41" s="39">
-        <v>52</v>
+        <v>5532</v>
       </c>
       <c r="T41" s="41">
-        <v>7</v>
+        <v>681</v>
       </c>
       <c r="U41" s="43">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="V41" s="45">
-        <v>3</v>
+        <v>262</v>
       </c>
       <c r="W41" s="47">
         <v>0</v>
       </c>
       <c r="X41" s="49">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="Y41" s="51">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="Z41" s="53">
-        <v>233</v>
+        <v>26324</v>
       </c>
       <c r="AA41" s="55">
-        <v>169</v>
+        <v>17599</v>
       </c>
       <c r="AB41" s="57">
-        <v>64</v>
+        <v>8725</v>
       </c>
       <c r="AC41" s="59">
-        <v>165</v>
+        <v>19571</v>
       </c>
       <c r="AD41" s="61">
-        <v>141</v>
+        <v>17488</v>
       </c>
       <c r="AE41" s="63">
-        <v>24</v>
+        <v>2082</v>
       </c>
       <c r="AF41" s="65">
         <v>0</v>
@@ -6154,16 +6154,16 @@
         <v>0</v>
       </c>
       <c r="AI41" s="71">
-        <v>126</v>
+        <v>13201</v>
       </c>
       <c r="AJ41" s="73">
-        <v>134</v>
+        <v>14507</v>
       </c>
       <c r="AK41" s="75">
-        <v>-8</v>
+        <v>-1306</v>
       </c>
       <c r="AL41" s="77">
-        <v>22563</v>
+        <v>2513921</v>
       </c>
     </row>
     <row r="42">
@@ -6171,94 +6171,94 @@
         <v>54</v>
       </c>
       <c r="B42" s="5">
-        <v>620</v>
+        <v>56313</v>
       </c>
       <c r="C42" s="7">
-        <v>759</v>
+        <v>69664</v>
       </c>
       <c r="D42" s="9">
-        <v>-139</v>
+        <v>-13351</v>
       </c>
       <c r="E42" s="11">
-        <v>17251</v>
+        <v>1667559</v>
       </c>
       <c r="F42" s="13">
-        <v>16762</v>
+        <v>1615972</v>
       </c>
       <c r="G42" s="15">
-        <v>490</v>
+        <v>51586</v>
       </c>
       <c r="H42" s="17">
-        <v>494</v>
+        <v>43939</v>
       </c>
       <c r="I42" s="19">
-        <v>582</v>
+        <v>55424</v>
       </c>
       <c r="J42" s="21">
-        <v>-88</v>
+        <v>-11485</v>
       </c>
       <c r="K42" s="23">
-        <v>66</v>
+        <v>5872</v>
       </c>
       <c r="L42" s="25">
-        <v>89</v>
+        <v>8002</v>
       </c>
       <c r="M42" s="27">
-        <v>-23</v>
+        <v>-2129</v>
       </c>
       <c r="N42" s="29">
-        <v>34</v>
+        <v>2942</v>
       </c>
       <c r="O42" s="31">
-        <v>56</v>
+        <v>5269</v>
       </c>
       <c r="P42" s="33">
-        <v>-22</v>
+        <v>-2327</v>
       </c>
       <c r="Q42" s="35">
-        <v>96</v>
+        <v>8843</v>
       </c>
       <c r="R42" s="37">
-        <v>108</v>
+        <v>10259</v>
       </c>
       <c r="S42" s="39">
-        <v>-12</v>
+        <v>-1416</v>
       </c>
       <c r="T42" s="41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U42" s="43">
-        <v>8</v>
+        <v>735</v>
       </c>
       <c r="V42" s="45">
-        <v>-7</v>
+        <v>-715</v>
       </c>
       <c r="W42" s="47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X42" s="49">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="Y42" s="51">
-        <v>-1</v>
+        <v>-95</v>
       </c>
       <c r="Z42" s="53">
-        <v>289</v>
+        <v>25432</v>
       </c>
       <c r="AA42" s="55">
-        <v>308</v>
+        <v>29749</v>
       </c>
       <c r="AB42" s="57">
-        <v>-19</v>
+        <v>-4317</v>
       </c>
       <c r="AC42" s="59">
-        <v>9</v>
+        <v>821</v>
       </c>
       <c r="AD42" s="61">
-        <v>13</v>
+        <v>1306</v>
       </c>
       <c r="AE42" s="63">
-        <v>-4</v>
+        <v>-485</v>
       </c>
       <c r="AF42" s="65">
         <v>0</v>
@@ -6270,16 +6270,16 @@
         <v>0</v>
       </c>
       <c r="AI42" s="71">
-        <v>107</v>
+        <v>10008</v>
       </c>
       <c r="AJ42" s="73">
-        <v>370</v>
+        <v>36759</v>
       </c>
       <c r="AK42" s="75">
-        <v>-263</v>
+        <v>-26751</v>
       </c>
       <c r="AL42" s="77">
-        <v>18472</v>
+        <v>1777819</v>
       </c>
     </row>
     <row r="43">
@@ -6287,94 +6287,94 @@
         <v>55</v>
       </c>
       <c r="B43" s="5">
-        <v>720</v>
+        <v>57798</v>
       </c>
       <c r="C43" s="7">
-        <v>663</v>
+        <v>53850</v>
       </c>
       <c r="D43" s="9">
-        <v>56</v>
+        <v>3949</v>
       </c>
       <c r="E43" s="11">
-        <v>9363</v>
+        <v>765699</v>
       </c>
       <c r="F43" s="13">
-        <v>9171</v>
+        <v>749712</v>
       </c>
       <c r="G43" s="15">
-        <v>192</v>
+        <v>15987</v>
       </c>
       <c r="H43" s="17">
-        <v>351</v>
+        <v>28377</v>
       </c>
       <c r="I43" s="19">
-        <v>585</v>
+        <v>47170</v>
       </c>
       <c r="J43" s="21">
-        <v>-234</v>
+        <v>-18793</v>
       </c>
       <c r="K43" s="23">
-        <v>70</v>
+        <v>5653</v>
       </c>
       <c r="L43" s="25">
-        <v>111</v>
+        <v>9000</v>
       </c>
       <c r="M43" s="27">
-        <v>-41</v>
+        <v>-3347</v>
       </c>
       <c r="N43" s="29">
-        <v>23</v>
+        <v>1904</v>
       </c>
       <c r="O43" s="31">
-        <v>16</v>
+        <v>1250</v>
       </c>
       <c r="P43" s="33">
-        <v>8</v>
+        <v>654</v>
       </c>
       <c r="Q43" s="35">
-        <v>47</v>
+        <v>3814</v>
       </c>
       <c r="R43" s="37">
-        <v>228</v>
+        <v>18190</v>
       </c>
       <c r="S43" s="39">
-        <v>-181</v>
+        <v>-14376</v>
       </c>
       <c r="T43" s="41">
-        <v>11</v>
+        <v>928</v>
       </c>
       <c r="U43" s="43">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="V43" s="45">
-        <v>5</v>
+        <v>457</v>
       </c>
       <c r="W43" s="47">
-        <v>4</v>
+        <v>358</v>
       </c>
       <c r="X43" s="49">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Y43" s="51">
-        <v>4</v>
+        <v>309</v>
       </c>
       <c r="Z43" s="53">
-        <v>178</v>
+        <v>14322</v>
       </c>
       <c r="AA43" s="55">
-        <v>182</v>
+        <v>14768</v>
       </c>
       <c r="AB43" s="57">
-        <v>-4</v>
+        <v>-446</v>
       </c>
       <c r="AC43" s="59">
-        <v>17</v>
+        <v>1398</v>
       </c>
       <c r="AD43" s="61">
-        <v>42</v>
+        <v>3443</v>
       </c>
       <c r="AE43" s="63">
-        <v>-25</v>
+        <v>-2044</v>
       </c>
       <c r="AF43" s="65">
         <v>0</v>
@@ -6386,16 +6386,16 @@
         <v>0</v>
       </c>
       <c r="AI43" s="71">
-        <v>74</v>
+        <v>6110</v>
       </c>
       <c r="AJ43" s="73">
-        <v>88</v>
+        <v>7253</v>
       </c>
       <c r="AK43" s="75">
-        <v>-14</v>
+        <v>-1143</v>
       </c>
       <c r="AL43" s="77">
-        <v>10508</v>
+        <v>857984</v>
       </c>
     </row>
     <row r="44">
@@ -6403,94 +6403,94 @@
         <v>56</v>
       </c>
       <c r="B44" s="5">
-        <v>880</v>
+        <v>59522</v>
       </c>
       <c r="C44" s="7">
-        <v>885</v>
+        <v>59949</v>
       </c>
       <c r="D44" s="9">
-        <v>-5</v>
+        <v>-426</v>
       </c>
       <c r="E44" s="11">
-        <v>13889</v>
+        <v>996198</v>
       </c>
       <c r="F44" s="13">
-        <v>13951</v>
+        <v>998814</v>
       </c>
       <c r="G44" s="15">
-        <v>-62</v>
+        <v>-2616</v>
       </c>
       <c r="H44" s="17">
-        <v>915</v>
+        <v>60891</v>
       </c>
       <c r="I44" s="19">
-        <v>805</v>
+        <v>54469</v>
       </c>
       <c r="J44" s="21">
-        <v>111</v>
+        <v>6422</v>
       </c>
       <c r="K44" s="23">
-        <v>157</v>
+        <v>10279</v>
       </c>
       <c r="L44" s="25">
-        <v>155</v>
+        <v>10130</v>
       </c>
       <c r="M44" s="27">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="N44" s="29">
-        <v>46</v>
+        <v>3208</v>
       </c>
       <c r="O44" s="31">
-        <v>65</v>
+        <v>4297</v>
       </c>
       <c r="P44" s="33">
-        <v>-20</v>
+        <v>-1088</v>
       </c>
       <c r="Q44" s="35">
-        <v>189</v>
+        <v>12608</v>
       </c>
       <c r="R44" s="37">
-        <v>189</v>
+        <v>12855</v>
       </c>
       <c r="S44" s="39">
-        <v>0</v>
+        <v>-248</v>
       </c>
       <c r="T44" s="41">
-        <v>6</v>
+        <v>391</v>
       </c>
       <c r="U44" s="43">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="V44" s="45">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="W44" s="47">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="X44" s="49">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="Y44" s="51">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="Z44" s="53">
-        <v>312</v>
+        <v>20486</v>
       </c>
       <c r="AA44" s="55">
-        <v>230</v>
+        <v>15956</v>
       </c>
       <c r="AB44" s="57">
-        <v>82</v>
+        <v>4530</v>
       </c>
       <c r="AC44" s="59">
-        <v>202</v>
+        <v>13700</v>
       </c>
       <c r="AD44" s="61">
-        <v>159</v>
+        <v>10872</v>
       </c>
       <c r="AE44" s="63">
-        <v>43</v>
+        <v>2828</v>
       </c>
       <c r="AF44" s="65">
         <v>0</v>
@@ -6502,16 +6502,16 @@
         <v>0</v>
       </c>
       <c r="AI44" s="71">
-        <v>36</v>
+        <v>2551</v>
       </c>
       <c r="AJ44" s="73">
-        <v>80</v>
+        <v>5931</v>
       </c>
       <c r="AK44" s="75">
-        <v>-44</v>
+        <v>-3380</v>
       </c>
       <c r="AL44" s="77">
-        <v>15720</v>
+        <v>1119163</v>
       </c>
     </row>
     <row r="45">
@@ -6519,94 +6519,94 @@
         <v>57</v>
       </c>
       <c r="B45" s="5">
-        <v>923</v>
+        <v>61216</v>
       </c>
       <c r="C45" s="7">
-        <v>412</v>
+        <v>26834</v>
       </c>
       <c r="D45" s="9">
-        <v>511</v>
+        <v>34382</v>
       </c>
       <c r="E45" s="11">
-        <v>3649</v>
+        <v>243563</v>
       </c>
       <c r="F45" s="13">
-        <v>4001</v>
+        <v>267720</v>
       </c>
       <c r="G45" s="15">
-        <v>-352</v>
+        <v>-24157</v>
       </c>
       <c r="H45" s="17">
-        <v>456</v>
+        <v>29858</v>
       </c>
       <c r="I45" s="19">
-        <v>599</v>
+        <v>38915</v>
       </c>
       <c r="J45" s="21">
-        <v>-143</v>
+        <v>-9057</v>
       </c>
       <c r="K45" s="23">
-        <v>91</v>
+        <v>5814</v>
       </c>
       <c r="L45" s="25">
-        <v>156</v>
+        <v>9836</v>
       </c>
       <c r="M45" s="27">
-        <v>-66</v>
+        <v>-4022</v>
       </c>
       <c r="N45" s="29">
-        <v>8</v>
+        <v>530</v>
       </c>
       <c r="O45" s="31">
-        <v>35</v>
+        <v>2367</v>
       </c>
       <c r="P45" s="33">
-        <v>-27</v>
+        <v>-1836</v>
       </c>
       <c r="Q45" s="35">
-        <v>106</v>
+        <v>6789</v>
       </c>
       <c r="R45" s="37">
-        <v>135</v>
+        <v>8721</v>
       </c>
       <c r="S45" s="39">
-        <v>-29</v>
+        <v>-1932</v>
       </c>
       <c r="T45" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U45" s="43">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="V45" s="45">
-        <v>-2</v>
+        <v>-107</v>
       </c>
       <c r="W45" s="47">
-        <v>7</v>
+        <v>461</v>
       </c>
       <c r="X45" s="49">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="Y45" s="51">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="Z45" s="53">
-        <v>212</v>
+        <v>14227</v>
       </c>
       <c r="AA45" s="55">
-        <v>144</v>
+        <v>9549</v>
       </c>
       <c r="AB45" s="57">
-        <v>68</v>
+        <v>4678</v>
       </c>
       <c r="AC45" s="59">
-        <v>32</v>
+        <v>2034</v>
       </c>
       <c r="AD45" s="61">
-        <v>124</v>
+        <v>8139</v>
       </c>
       <c r="AE45" s="63">
-        <v>-92</v>
+        <v>-6104</v>
       </c>
       <c r="AF45" s="65">
         <v>0</v>
@@ -6618,16 +6618,16 @@
         <v>0</v>
       </c>
       <c r="AI45" s="71">
-        <v>20</v>
+        <v>1357</v>
       </c>
       <c r="AJ45" s="73">
-        <v>37</v>
+        <v>2525</v>
       </c>
       <c r="AK45" s="75">
-        <v>-17</v>
+        <v>-1168</v>
       </c>
       <c r="AL45" s="77">
-        <v>5049</v>
+        <v>335994</v>
       </c>
     </row>
     <row r="46">
@@ -6635,94 +6635,94 @@
         <v>58</v>
       </c>
       <c r="B46" s="5">
-        <v>696</v>
+        <v>45476</v>
       </c>
       <c r="C46" s="7">
-        <v>649</v>
+        <v>42849</v>
       </c>
       <c r="D46" s="9">
-        <v>47</v>
+        <v>2627</v>
       </c>
       <c r="E46" s="11">
-        <v>4094</v>
+        <v>272371</v>
       </c>
       <c r="F46" s="13">
-        <v>4358</v>
+        <v>289564</v>
       </c>
       <c r="G46" s="15">
-        <v>-264</v>
+        <v>-17193</v>
       </c>
       <c r="H46" s="17">
-        <v>620</v>
+        <v>40843</v>
       </c>
       <c r="I46" s="19">
-        <v>397</v>
+        <v>25904</v>
       </c>
       <c r="J46" s="21">
-        <v>222</v>
+        <v>14939</v>
       </c>
       <c r="K46" s="23">
-        <v>176</v>
+        <v>11602</v>
       </c>
       <c r="L46" s="25">
-        <v>206</v>
+        <v>13450</v>
       </c>
       <c r="M46" s="27">
-        <v>-30</v>
+        <v>-1848</v>
       </c>
       <c r="N46" s="29">
-        <v>22</v>
+        <v>1464</v>
       </c>
       <c r="O46" s="31">
-        <v>7</v>
+        <v>449</v>
       </c>
       <c r="P46" s="33">
-        <v>15</v>
+        <v>1016</v>
       </c>
       <c r="Q46" s="35">
-        <v>100</v>
+        <v>6589</v>
       </c>
       <c r="R46" s="37">
-        <v>50</v>
+        <v>3255</v>
       </c>
       <c r="S46" s="39">
-        <v>51</v>
+        <v>3334</v>
       </c>
       <c r="T46" s="41">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="U46" s="43">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="V46" s="45">
-        <v>-3</v>
+        <v>-198</v>
       </c>
       <c r="W46" s="47">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="X46" s="49">
-        <v>6</v>
+        <v>388</v>
       </c>
       <c r="Y46" s="51">
-        <v>-1</v>
+        <v>-95</v>
       </c>
       <c r="Z46" s="53">
-        <v>205</v>
+        <v>13452</v>
       </c>
       <c r="AA46" s="55">
-        <v>50</v>
+        <v>3254</v>
       </c>
       <c r="AB46" s="57">
-        <v>156</v>
+        <v>10198</v>
       </c>
       <c r="AC46" s="59">
-        <v>111</v>
+        <v>7381</v>
       </c>
       <c r="AD46" s="61">
-        <v>76</v>
+        <v>4848</v>
       </c>
       <c r="AE46" s="63">
-        <v>35</v>
+        <v>2532</v>
       </c>
       <c r="AF46" s="65">
         <v>0</v>
@@ -6734,16 +6734,16 @@
         <v>0</v>
       </c>
       <c r="AI46" s="71">
-        <v>30</v>
+        <v>1989</v>
       </c>
       <c r="AJ46" s="73">
-        <v>35</v>
+        <v>2363</v>
       </c>
       <c r="AK46" s="75">
-        <v>-5</v>
+        <v>-373</v>
       </c>
       <c r="AL46" s="77">
-        <v>5440</v>
+        <v>360680</v>
       </c>
     </row>
     <row r="47">
@@ -6751,94 +6751,94 @@
         <v>59</v>
       </c>
       <c r="B47" s="5">
-        <v>648</v>
+        <v>40952</v>
       </c>
       <c r="C47" s="7">
-        <v>1011</v>
+        <v>64332</v>
       </c>
       <c r="D47" s="9">
-        <v>-363</v>
+        <v>-23380</v>
       </c>
       <c r="E47" s="11">
-        <v>6687</v>
+        <v>433475</v>
       </c>
       <c r="F47" s="13">
-        <v>6722</v>
+        <v>435402</v>
       </c>
       <c r="G47" s="15">
-        <v>-35</v>
+        <v>-1927</v>
       </c>
       <c r="H47" s="17">
-        <v>534</v>
+        <v>33762</v>
       </c>
       <c r="I47" s="19">
-        <v>162</v>
+        <v>10133</v>
       </c>
       <c r="J47" s="21">
-        <v>371</v>
+        <v>23629</v>
       </c>
       <c r="K47" s="23">
-        <v>222</v>
+        <v>14249</v>
       </c>
       <c r="L47" s="25">
-        <v>48</v>
+        <v>2963</v>
       </c>
       <c r="M47" s="27">
-        <v>174</v>
+        <v>11286</v>
       </c>
       <c r="N47" s="29">
-        <v>9</v>
+        <v>584</v>
       </c>
       <c r="O47" s="31">
-        <v>25</v>
+        <v>1538</v>
       </c>
       <c r="P47" s="33">
-        <v>-15</v>
+        <v>-954</v>
       </c>
       <c r="Q47" s="35">
-        <v>64</v>
+        <v>4009</v>
       </c>
       <c r="R47" s="37">
-        <v>32</v>
+        <v>2024</v>
       </c>
       <c r="S47" s="39">
-        <v>32</v>
+        <v>1985</v>
       </c>
       <c r="T47" s="41">
-        <v>5</v>
+        <v>342</v>
       </c>
       <c r="U47" s="43">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V47" s="45">
-        <v>5</v>
+        <v>315</v>
       </c>
       <c r="W47" s="47">
-        <v>5</v>
+        <v>302</v>
       </c>
       <c r="X47" s="49">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="Y47" s="51">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="Z47" s="53">
-        <v>78</v>
+        <v>4881</v>
       </c>
       <c r="AA47" s="55">
-        <v>47</v>
+        <v>2953</v>
       </c>
       <c r="AB47" s="57">
-        <v>31</v>
+        <v>1928</v>
       </c>
       <c r="AC47" s="59">
-        <v>149</v>
+        <v>9395</v>
       </c>
       <c r="AD47" s="61">
-        <v>9</v>
+        <v>565</v>
       </c>
       <c r="AE47" s="63">
-        <v>140</v>
+        <v>8830</v>
       </c>
       <c r="AF47" s="65">
         <v>0</v>
@@ -6850,16 +6850,16 @@
         <v>0</v>
       </c>
       <c r="AI47" s="71">
-        <v>60</v>
+        <v>3793</v>
       </c>
       <c r="AJ47" s="73">
-        <v>33</v>
+        <v>2115</v>
       </c>
       <c r="AK47" s="75">
-        <v>26</v>
+        <v>1678</v>
       </c>
       <c r="AL47" s="77">
-        <v>7928</v>
+        <v>511982</v>
       </c>
     </row>
     <row r="48">
@@ -6867,94 +6867,94 @@
         <v>60</v>
       </c>
       <c r="B48" s="5">
-        <v>585</v>
+        <v>37767</v>
       </c>
       <c r="C48" s="7">
-        <v>780</v>
+        <v>52181</v>
       </c>
       <c r="D48" s="9">
-        <v>-195</v>
+        <v>-14414</v>
       </c>
       <c r="E48" s="11">
-        <v>9794</v>
+        <v>728629</v>
       </c>
       <c r="F48" s="13">
-        <v>8831</v>
+        <v>651068</v>
       </c>
       <c r="G48" s="15">
-        <v>963</v>
+        <v>77561</v>
       </c>
       <c r="H48" s="17">
-        <v>373</v>
+        <v>20892</v>
       </c>
       <c r="I48" s="19">
-        <v>1123</v>
+        <v>82639</v>
       </c>
       <c r="J48" s="21">
-        <v>-750</v>
+        <v>-61747</v>
       </c>
       <c r="K48" s="23">
-        <v>89</v>
+        <v>5279</v>
       </c>
       <c r="L48" s="25">
-        <v>164</v>
+        <v>11228</v>
       </c>
       <c r="M48" s="27">
-        <v>-75</v>
+        <v>-5949</v>
       </c>
       <c r="N48" s="29">
-        <v>12</v>
+        <v>643</v>
       </c>
       <c r="O48" s="31">
-        <v>36</v>
+        <v>2537</v>
       </c>
       <c r="P48" s="33">
-        <v>-24</v>
+        <v>-1894</v>
       </c>
       <c r="Q48" s="35">
-        <v>91</v>
+        <v>4996</v>
       </c>
       <c r="R48" s="37">
-        <v>214</v>
+        <v>16219</v>
       </c>
       <c r="S48" s="39">
-        <v>-123</v>
+        <v>-11223</v>
       </c>
       <c r="T48" s="41">
         <v>0</v>
       </c>
       <c r="U48" s="43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V48" s="45">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="W48" s="47">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="X48" s="49">
-        <v>6</v>
+        <v>418</v>
       </c>
       <c r="Y48" s="51">
-        <v>-4</v>
+        <v>-312</v>
       </c>
       <c r="Z48" s="53">
-        <v>119</v>
+        <v>6509</v>
       </c>
       <c r="AA48" s="55">
-        <v>542</v>
+        <v>40343</v>
       </c>
       <c r="AB48" s="57">
-        <v>-423</v>
+        <v>-33834</v>
       </c>
       <c r="AC48" s="59">
-        <v>59</v>
+        <v>3359</v>
       </c>
       <c r="AD48" s="61">
-        <v>161</v>
+        <v>11889</v>
       </c>
       <c r="AE48" s="63">
-        <v>-101</v>
+        <v>-8530</v>
       </c>
       <c r="AF48" s="65">
         <v>0</v>
@@ -6966,16 +6966,16 @@
         <v>0</v>
       </c>
       <c r="AI48" s="71">
-        <v>17</v>
+        <v>1242</v>
       </c>
       <c r="AJ48" s="73">
-        <v>35</v>
+        <v>2642</v>
       </c>
       <c r="AK48" s="75">
-        <v>-18</v>
+        <v>-1400</v>
       </c>
       <c r="AL48" s="77">
-        <v>10769</v>
+        <v>788530</v>
       </c>
     </row>
     <row r="49">
@@ -6983,115 +6983,115 @@
         <v>61</v>
       </c>
       <c r="B49" s="5">
-        <v>113</v>
+        <v>5250</v>
       </c>
       <c r="C49" s="7">
-        <v>123</v>
+        <v>5776</v>
       </c>
       <c r="D49" s="9">
+        <v>-526</v>
+      </c>
+      <c r="E49" s="11">
+        <v>11044</v>
+      </c>
+      <c r="F49" s="13">
+        <v>12370</v>
+      </c>
+      <c r="G49" s="15">
+        <v>-1326</v>
+      </c>
+      <c r="H49" s="17">
+        <v>5547</v>
+      </c>
+      <c r="I49" s="19">
+        <v>3684</v>
+      </c>
+      <c r="J49" s="21">
+        <v>1863</v>
+      </c>
+      <c r="K49" s="23">
+        <v>1263</v>
+      </c>
+      <c r="L49" s="25">
+        <v>1202</v>
+      </c>
+      <c r="M49" s="27">
+        <v>61</v>
+      </c>
+      <c r="N49" s="29">
+        <v>359</v>
+      </c>
+      <c r="O49" s="31">
+        <v>403</v>
+      </c>
+      <c r="P49" s="33">
+        <v>-44</v>
+      </c>
+      <c r="Q49" s="35">
+        <v>1348</v>
+      </c>
+      <c r="R49" s="37">
+        <v>371</v>
+      </c>
+      <c r="S49" s="39">
+        <v>977</v>
+      </c>
+      <c r="T49" s="41">
+        <v>32</v>
+      </c>
+      <c r="U49" s="43">
+        <v>127</v>
+      </c>
+      <c r="V49" s="45">
+        <v>-95</v>
+      </c>
+      <c r="W49" s="47">
+        <v>4</v>
+      </c>
+      <c r="X49" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="51">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="53">
+        <v>1895</v>
+      </c>
+      <c r="AA49" s="55">
+        <v>1425</v>
+      </c>
+      <c r="AB49" s="57">
+        <v>470</v>
+      </c>
+      <c r="AC49" s="59">
+        <v>646</v>
+      </c>
+      <c r="AD49" s="61">
+        <v>155</v>
+      </c>
+      <c r="AE49" s="63">
+        <v>491</v>
+      </c>
+      <c r="AF49" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="71">
+        <v>28</v>
+      </c>
+      <c r="AJ49" s="73">
+        <v>39</v>
+      </c>
+      <c r="AK49" s="75">
         <v>-11</v>
       </c>
-      <c r="E49" s="11">
-        <v>237</v>
-      </c>
-      <c r="F49" s="13">
-        <v>265</v>
-      </c>
-      <c r="G49" s="15">
-        <v>-28</v>
-      </c>
-      <c r="H49" s="17">
-        <v>119</v>
-      </c>
-      <c r="I49" s="19">
-        <v>80</v>
-      </c>
-      <c r="J49" s="21">
-        <v>39</v>
-      </c>
-      <c r="K49" s="23">
-        <v>27</v>
-      </c>
-      <c r="L49" s="25">
-        <v>26</v>
-      </c>
-      <c r="M49" s="27">
-        <v>1</v>
-      </c>
-      <c r="N49" s="29">
-        <v>8</v>
-      </c>
-      <c r="O49" s="31">
-        <v>9</v>
-      </c>
-      <c r="P49" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q49" s="35">
-        <v>29</v>
-      </c>
-      <c r="R49" s="37">
-        <v>8</v>
-      </c>
-      <c r="S49" s="39">
-        <v>21</v>
-      </c>
-      <c r="T49" s="41">
-        <v>1</v>
-      </c>
-      <c r="U49" s="43">
-        <v>3</v>
-      </c>
-      <c r="V49" s="45">
-        <v>-2</v>
-      </c>
-      <c r="W49" s="47">
-        <v>0</v>
-      </c>
-      <c r="X49" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="53">
-        <v>41</v>
-      </c>
-      <c r="AA49" s="55">
-        <v>31</v>
-      </c>
-      <c r="AB49" s="57">
-        <v>10</v>
-      </c>
-      <c r="AC49" s="59">
-        <v>14</v>
-      </c>
-      <c r="AD49" s="61">
-        <v>3</v>
-      </c>
-      <c r="AE49" s="63">
-        <v>10</v>
-      </c>
-      <c r="AF49" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="71">
-        <v>1</v>
-      </c>
-      <c r="AJ49" s="73">
-        <v>1</v>
-      </c>
-      <c r="AK49" s="75">
-        <v>0</v>
-      </c>
       <c r="AL49" s="77">
-        <v>468</v>
+        <v>21868</v>
       </c>
     </row>
     <row r="50">
@@ -7099,95 +7099,95 @@
         <v>62</v>
       </c>
       <c r="B50" s="5">
-        <v>141</v>
+        <v>6427</v>
       </c>
       <c r="C50" s="7">
-        <v>125</v>
+        <v>5821</v>
       </c>
       <c r="D50" s="9">
-        <v>15</v>
+        <v>606</v>
       </c>
       <c r="E50" s="11">
-        <v>330</v>
+        <v>15216</v>
       </c>
       <c r="F50" s="13">
-        <v>329</v>
+        <v>15179</v>
       </c>
       <c r="G50" s="15">
+        <v>36</v>
+      </c>
+      <c r="H50" s="17">
+        <v>4627</v>
+      </c>
+      <c r="I50" s="19">
+        <v>5303</v>
+      </c>
+      <c r="J50" s="21">
+        <v>-676</v>
+      </c>
+      <c r="K50" s="23">
+        <v>1437</v>
+      </c>
+      <c r="L50" s="25">
+        <v>1268</v>
+      </c>
+      <c r="M50" s="27">
+        <v>169</v>
+      </c>
+      <c r="N50" s="29">
+        <v>108</v>
+      </c>
+      <c r="O50" s="31">
+        <v>221</v>
+      </c>
+      <c r="P50" s="33">
+        <v>-113</v>
+      </c>
+      <c r="Q50" s="35">
+        <v>286</v>
+      </c>
+      <c r="R50" s="37">
+        <v>1765</v>
+      </c>
+      <c r="S50" s="39">
+        <v>-1479</v>
+      </c>
+      <c r="T50" s="41">
+        <v>56</v>
+      </c>
+      <c r="U50" s="43">
+        <v>55</v>
+      </c>
+      <c r="V50" s="45">
         <v>1</v>
       </c>
-      <c r="H50" s="17">
-        <v>100</v>
-      </c>
-      <c r="I50" s="19">
-        <v>117</v>
-      </c>
-      <c r="J50" s="21">
-        <v>-17</v>
-      </c>
-      <c r="K50" s="23">
-        <v>31</v>
-      </c>
-      <c r="L50" s="25">
+      <c r="W50" s="47">
+        <v>0</v>
+      </c>
+      <c r="X50" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="53">
+        <v>2543</v>
+      </c>
+      <c r="AA50" s="55">
+        <v>1825</v>
+      </c>
+      <c r="AB50" s="57">
+        <v>718</v>
+      </c>
+      <c r="AC50" s="59">
+        <v>197</v>
+      </c>
+      <c r="AD50" s="61">
+        <v>169</v>
+      </c>
+      <c r="AE50" s="63">
         <v>28</v>
       </c>
-      <c r="M50" s="27">
-        <v>3</v>
-      </c>
-      <c r="N50" s="29">
-        <v>2</v>
-      </c>
-      <c r="O50" s="31">
-        <v>5</v>
-      </c>
-      <c r="P50" s="33">
-        <v>-2</v>
-      </c>
-      <c r="Q50" s="35">
-        <v>6</v>
-      </c>
-      <c r="R50" s="37">
-        <v>39</v>
-      </c>
-      <c r="S50" s="39">
-        <v>-33</v>
-      </c>
-      <c r="T50" s="41">
-        <v>1</v>
-      </c>
-      <c r="U50" s="43">
-        <v>1</v>
-      </c>
-      <c r="V50" s="45">
-        <v>0</v>
-      </c>
-      <c r="W50" s="47">
-        <v>0</v>
-      </c>
-      <c r="X50" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="53">
-        <v>55</v>
-      </c>
-      <c r="AA50" s="55">
-        <v>40</v>
-      </c>
-      <c r="AB50" s="57">
-        <v>15</v>
-      </c>
-      <c r="AC50" s="59">
-        <v>4</v>
-      </c>
-      <c r="AD50" s="61">
-        <v>4</v>
-      </c>
-      <c r="AE50" s="63">
-        <v>1</v>
-      </c>
       <c r="AF50" s="65">
         <v>0</v>
       </c>
@@ -7198,16 +7198,16 @@
         <v>0</v>
       </c>
       <c r="AI50" s="71">
-        <v>8</v>
+        <v>349</v>
       </c>
       <c r="AJ50" s="73">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="AK50" s="75">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="AL50" s="77">
-        <v>578</v>
+        <v>26619</v>
       </c>
     </row>
     <row r="51">
@@ -7215,94 +7215,94 @@
         <v>63</v>
       </c>
       <c r="B51" s="5">
-        <v>332</v>
+        <v>14219</v>
       </c>
       <c r="C51" s="7">
-        <v>194</v>
+        <v>8315</v>
       </c>
       <c r="D51" s="9">
-        <v>138</v>
+        <v>5904</v>
       </c>
       <c r="E51" s="11">
-        <v>505</v>
+        <v>21635</v>
       </c>
       <c r="F51" s="13">
-        <v>448</v>
+        <v>19157</v>
       </c>
       <c r="G51" s="15">
-        <v>57</v>
+        <v>2478</v>
       </c>
       <c r="H51" s="17">
-        <v>106</v>
+        <v>4541</v>
       </c>
       <c r="I51" s="19">
-        <v>301</v>
+        <v>12909</v>
       </c>
       <c r="J51" s="21">
-        <v>-195</v>
+        <v>-8368</v>
       </c>
       <c r="K51" s="23">
-        <v>25</v>
+        <v>1060</v>
       </c>
       <c r="L51" s="25">
-        <v>45</v>
+        <v>1917</v>
       </c>
       <c r="M51" s="27">
-        <v>-20</v>
+        <v>-857</v>
       </c>
       <c r="N51" s="29">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="O51" s="31">
-        <v>27</v>
+        <v>1154</v>
       </c>
       <c r="P51" s="33">
-        <v>-20</v>
+        <v>-863</v>
       </c>
       <c r="Q51" s="35">
-        <v>28</v>
+        <v>1191</v>
       </c>
       <c r="R51" s="37">
-        <v>114</v>
+        <v>4884</v>
       </c>
       <c r="S51" s="39">
-        <v>-86</v>
+        <v>-3693</v>
       </c>
       <c r="T51" s="41">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U51" s="43">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="V51" s="45">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="W51" s="47">
         <v>0</v>
       </c>
       <c r="X51" s="49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y51" s="51">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="Z51" s="53">
-        <v>46</v>
+        <v>1959</v>
       </c>
       <c r="AA51" s="55">
-        <v>90</v>
+        <v>3904</v>
       </c>
       <c r="AB51" s="57">
-        <v>-44</v>
+        <v>-1945</v>
       </c>
       <c r="AC51" s="59">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="AD51" s="61">
-        <v>24</v>
+        <v>1014</v>
       </c>
       <c r="AE51" s="63">
-        <v>-23</v>
+        <v>-985</v>
       </c>
       <c r="AF51" s="65">
         <v>0</v>
@@ -7314,16 +7314,16 @@
         <v>0</v>
       </c>
       <c r="AI51" s="71">
-        <v>12</v>
+        <v>512</v>
       </c>
       <c r="AJ51" s="73">
-        <v>12</v>
+        <v>526</v>
       </c>
       <c r="AK51" s="75">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AL51" s="77">
-        <v>956</v>
+        <v>40907</v>
       </c>
     </row>
     <row r="52">
@@ -7331,94 +7331,94 @@
         <v>64</v>
       </c>
       <c r="B52" s="5">
-        <v>218</v>
+        <v>10939</v>
       </c>
       <c r="C52" s="7">
-        <v>229</v>
+        <v>11692</v>
       </c>
       <c r="D52" s="9">
-        <v>-10</v>
+        <v>-753</v>
       </c>
       <c r="E52" s="11">
-        <v>618</v>
+        <v>31605</v>
       </c>
       <c r="F52" s="13">
-        <v>423</v>
+        <v>21609</v>
       </c>
       <c r="G52" s="15">
-        <v>195</v>
+        <v>9995</v>
       </c>
       <c r="H52" s="17">
-        <v>82</v>
+        <v>4201</v>
       </c>
       <c r="I52" s="19">
-        <v>269</v>
+        <v>13575</v>
       </c>
       <c r="J52" s="21">
-        <v>-187</v>
+        <v>-9373</v>
       </c>
       <c r="K52" s="23">
-        <v>21</v>
+        <v>1098</v>
       </c>
       <c r="L52" s="25">
-        <v>19</v>
+        <v>936</v>
       </c>
       <c r="M52" s="27">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="N52" s="29">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="O52" s="31">
-        <v>27</v>
+        <v>1401</v>
       </c>
       <c r="P52" s="33">
-        <v>-23</v>
+        <v>-1184</v>
       </c>
       <c r="Q52" s="35">
-        <v>21</v>
+        <v>1114</v>
       </c>
       <c r="R52" s="37">
-        <v>70</v>
+        <v>3421</v>
       </c>
       <c r="S52" s="39">
-        <v>-48</v>
+        <v>-2306</v>
       </c>
       <c r="T52" s="41">
         <v>0</v>
       </c>
       <c r="U52" s="43">
+        <v>38</v>
+      </c>
+      <c r="V52" s="45">
+        <v>-38</v>
+      </c>
+      <c r="W52" s="47">
         <v>1</v>
       </c>
-      <c r="V52" s="45">
-        <v>-1</v>
-      </c>
-      <c r="W52" s="47">
-        <v>0</v>
-      </c>
       <c r="X52" s="49">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="Y52" s="51">
-        <v>-1</v>
+        <v>-72</v>
       </c>
       <c r="Z52" s="53">
-        <v>32</v>
+        <v>1602</v>
       </c>
       <c r="AA52" s="55">
-        <v>118</v>
+        <v>6048</v>
       </c>
       <c r="AB52" s="57">
-        <v>-87</v>
+        <v>-4445</v>
       </c>
       <c r="AC52" s="59">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="AD52" s="61">
-        <v>33</v>
+        <v>1659</v>
       </c>
       <c r="AE52" s="63">
-        <v>-30</v>
+        <v>-1490</v>
       </c>
       <c r="AF52" s="65">
         <v>0</v>
@@ -7430,16 +7430,16 @@
         <v>0</v>
       </c>
       <c r="AI52" s="71">
-        <v>13</v>
+        <v>641</v>
       </c>
       <c r="AJ52" s="73">
-        <v>10</v>
+        <v>510</v>
       </c>
       <c r="AK52" s="75">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="AL52" s="77">
-        <v>931</v>
+        <v>47386</v>
       </c>
     </row>
     <row r="53">
@@ -7447,94 +7447,94 @@
         <v>65</v>
       </c>
       <c r="B53" s="5">
-        <v>108</v>
+        <v>6235</v>
       </c>
       <c r="C53" s="7">
-        <v>84</v>
+        <v>4852</v>
       </c>
       <c r="D53" s="9">
-        <v>24</v>
+        <v>1383</v>
       </c>
       <c r="E53" s="11">
-        <v>263</v>
+        <v>15158</v>
       </c>
       <c r="F53" s="13">
-        <v>221</v>
+        <v>12731</v>
       </c>
       <c r="G53" s="15">
-        <v>43</v>
+        <v>2427</v>
       </c>
       <c r="H53" s="17">
-        <v>95</v>
+        <v>5486</v>
       </c>
       <c r="I53" s="19">
-        <v>167</v>
+        <v>9575</v>
       </c>
       <c r="J53" s="21">
-        <v>-72</v>
+        <v>-4089</v>
       </c>
       <c r="K53" s="23">
-        <v>19</v>
+        <v>1119</v>
       </c>
       <c r="L53" s="25">
-        <v>29</v>
+        <v>1670</v>
       </c>
       <c r="M53" s="27">
-        <v>-10</v>
+        <v>-551</v>
       </c>
       <c r="N53" s="29">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="O53" s="31">
-        <v>30</v>
+        <v>1718</v>
       </c>
       <c r="P53" s="33">
-        <v>-24</v>
+        <v>-1358</v>
       </c>
       <c r="Q53" s="35">
-        <v>34</v>
+        <v>1980</v>
       </c>
       <c r="R53" s="37">
-        <v>23</v>
+        <v>1307</v>
       </c>
       <c r="S53" s="39">
-        <v>12</v>
+        <v>673</v>
       </c>
       <c r="T53" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U53" s="43">
         <v>0</v>
       </c>
       <c r="V53" s="45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W53" s="47">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="X53" s="49">
         <v>0</v>
       </c>
       <c r="Y53" s="51">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="Z53" s="53">
-        <v>29</v>
+        <v>1684</v>
       </c>
       <c r="AA53" s="55">
-        <v>81</v>
+        <v>4631</v>
       </c>
       <c r="AB53" s="57">
-        <v>-52</v>
+        <v>-2947</v>
       </c>
       <c r="AC53" s="59">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="AD53" s="61">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="AE53" s="63">
-        <v>-1</v>
+        <v>-32</v>
       </c>
       <c r="AF53" s="65">
         <v>0</v>
@@ -7546,16 +7546,16 @@
         <v>0</v>
       </c>
       <c r="AI53" s="71">
-        <v>10</v>
+        <v>555</v>
       </c>
       <c r="AJ53" s="73">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="AK53" s="75">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="AL53" s="77">
-        <v>476</v>
+        <v>27435</v>
       </c>
     </row>
     <row r="54">
@@ -7563,94 +7563,94 @@
         <v>66</v>
       </c>
       <c r="B54" s="5">
-        <v>142</v>
+        <v>8575</v>
       </c>
       <c r="C54" s="7">
-        <v>155</v>
+        <v>9433</v>
       </c>
       <c r="D54" s="9">
-        <v>-13</v>
+        <v>-858</v>
       </c>
       <c r="E54" s="11">
-        <v>338</v>
+        <v>20645</v>
       </c>
       <c r="F54" s="13">
-        <v>222</v>
+        <v>13588</v>
       </c>
       <c r="G54" s="15">
-        <v>115</v>
+        <v>7057</v>
       </c>
       <c r="H54" s="17">
-        <v>109</v>
+        <v>6777</v>
       </c>
       <c r="I54" s="19">
-        <v>216</v>
+        <v>13243</v>
       </c>
       <c r="J54" s="21">
-        <v>-106</v>
+        <v>-6466</v>
       </c>
       <c r="K54" s="23">
-        <v>24</v>
+        <v>1508</v>
       </c>
       <c r="L54" s="25">
-        <v>52</v>
+        <v>3230</v>
       </c>
       <c r="M54" s="27">
-        <v>-28</v>
+        <v>-1722</v>
       </c>
       <c r="N54" s="29">
-        <v>11</v>
+        <v>631</v>
       </c>
       <c r="O54" s="31">
-        <v>22</v>
+        <v>1400</v>
       </c>
       <c r="P54" s="33">
-        <v>-12</v>
+        <v>-769</v>
       </c>
       <c r="Q54" s="35">
-        <v>39</v>
+        <v>2471</v>
       </c>
       <c r="R54" s="37">
-        <v>51</v>
+        <v>3208</v>
       </c>
       <c r="S54" s="39">
-        <v>-12</v>
+        <v>-736</v>
       </c>
       <c r="T54" s="41">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="U54" s="43">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V54" s="45">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="W54" s="47">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="X54" s="49">
-        <v>7</v>
+        <v>434</v>
       </c>
       <c r="Y54" s="51">
-        <v>-5</v>
+        <v>-257</v>
       </c>
       <c r="Z54" s="53">
-        <v>25</v>
+        <v>1537</v>
       </c>
       <c r="AA54" s="55">
-        <v>70</v>
+        <v>4200</v>
       </c>
       <c r="AB54" s="57">
-        <v>-45</v>
+        <v>-2663</v>
       </c>
       <c r="AC54" s="59">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="AD54" s="61">
-        <v>12</v>
+        <v>748</v>
       </c>
       <c r="AE54" s="63">
-        <v>-7</v>
+        <v>-443</v>
       </c>
       <c r="AF54" s="65">
         <v>0</v>
@@ -7662,16 +7662,16 @@
         <v>0</v>
       </c>
       <c r="AI54" s="71">
-        <v>7</v>
+        <v>456</v>
       </c>
       <c r="AJ54" s="73">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="AK54" s="75">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="AL54" s="77">
-        <v>596</v>
+        <v>36454</v>
       </c>
     </row>
     <row r="55">
@@ -7679,58 +7679,58 @@
         <v>67</v>
       </c>
       <c r="B55" s="5">
-        <v>155</v>
+        <v>10885</v>
       </c>
       <c r="C55" s="7">
-        <v>82</v>
+        <v>5727</v>
       </c>
       <c r="D55" s="9">
-        <v>73</v>
+        <v>5158</v>
       </c>
       <c r="E55" s="11">
-        <v>355</v>
+        <v>24716</v>
       </c>
       <c r="F55" s="13">
-        <v>333</v>
+        <v>23393</v>
       </c>
       <c r="G55" s="15">
-        <v>21</v>
+        <v>1323</v>
       </c>
       <c r="H55" s="17">
-        <v>89</v>
+        <v>6258</v>
       </c>
       <c r="I55" s="19">
-        <v>180</v>
+        <v>12531</v>
       </c>
       <c r="J55" s="21">
-        <v>-91</v>
+        <v>-6273</v>
       </c>
       <c r="K55" s="23">
-        <v>36</v>
+        <v>2571</v>
       </c>
       <c r="L55" s="25">
-        <v>35</v>
+        <v>2431</v>
       </c>
       <c r="M55" s="27">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="N55" s="29">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="O55" s="31">
-        <v>28</v>
+        <v>1946</v>
       </c>
       <c r="P55" s="33">
-        <v>-24</v>
+        <v>-1673</v>
       </c>
       <c r="Q55" s="35">
-        <v>7</v>
+        <v>512</v>
       </c>
       <c r="R55" s="37">
-        <v>19</v>
+        <v>1327</v>
       </c>
       <c r="S55" s="39">
-        <v>-12</v>
+        <v>-814</v>
       </c>
       <c r="T55" s="41">
         <v>0</v>
@@ -7742,31 +7742,31 @@
         <v>0</v>
       </c>
       <c r="W55" s="47">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="X55" s="49">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="Y55" s="51">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="Z55" s="53">
-        <v>33</v>
+        <v>2279</v>
       </c>
       <c r="AA55" s="55">
-        <v>92</v>
+        <v>6412</v>
       </c>
       <c r="AB55" s="57">
-        <v>-60</v>
+        <v>-4133</v>
       </c>
       <c r="AC55" s="59">
-        <v>5</v>
+        <v>388</v>
       </c>
       <c r="AD55" s="61">
-        <v>5</v>
+        <v>378</v>
       </c>
       <c r="AE55" s="63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF55" s="65">
         <v>0</v>
@@ -7778,16 +7778,16 @@
         <v>0</v>
       </c>
       <c r="AI55" s="71">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="AJ55" s="73">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="AK55" s="75">
-        <v>-3</v>
+        <v>-209</v>
       </c>
       <c r="AL55" s="77">
-        <v>600</v>
+        <v>41935</v>
       </c>
     </row>
     <row r="56">
@@ -7795,94 +7795,94 @@
         <v>68</v>
       </c>
       <c r="B56" s="5">
-        <v>130</v>
+        <v>9348</v>
       </c>
       <c r="C56" s="7">
-        <v>131</v>
+        <v>9451</v>
       </c>
       <c r="D56" s="9">
-        <v>-2</v>
+        <v>-103</v>
       </c>
       <c r="E56" s="11">
-        <v>348</v>
+        <v>24976</v>
       </c>
       <c r="F56" s="13">
-        <v>358</v>
+        <v>25732</v>
       </c>
       <c r="G56" s="15">
-        <v>-10</v>
+        <v>-756</v>
       </c>
       <c r="H56" s="17">
-        <v>150</v>
+        <v>10805</v>
       </c>
       <c r="I56" s="19">
-        <v>143</v>
+        <v>10259</v>
       </c>
       <c r="J56" s="21">
-        <v>7</v>
+        <v>547</v>
       </c>
       <c r="K56" s="23">
-        <v>30</v>
+        <v>2190</v>
       </c>
       <c r="L56" s="25">
-        <v>30</v>
+        <v>2110</v>
       </c>
       <c r="M56" s="27">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N56" s="29">
-        <v>15</v>
+        <v>1110</v>
       </c>
       <c r="O56" s="31">
-        <v>29</v>
+        <v>2068</v>
       </c>
       <c r="P56" s="33">
-        <v>-14</v>
+        <v>-957</v>
       </c>
       <c r="Q56" s="35">
-        <v>33</v>
+        <v>2410</v>
       </c>
       <c r="R56" s="37">
-        <v>21</v>
+        <v>1544</v>
       </c>
       <c r="S56" s="39">
-        <v>12</v>
+        <v>866</v>
       </c>
       <c r="T56" s="41">
         <v>0</v>
       </c>
       <c r="U56" s="43">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="V56" s="45">
-        <v>-2</v>
+        <v>-120</v>
       </c>
       <c r="W56" s="47">
-        <v>5</v>
+        <v>318</v>
       </c>
       <c r="X56" s="49">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="Y56" s="51">
-        <v>4</v>
+        <v>277</v>
       </c>
       <c r="Z56" s="53">
-        <v>62</v>
+        <v>4449</v>
       </c>
       <c r="AA56" s="55">
-        <v>51</v>
+        <v>3640</v>
       </c>
       <c r="AB56" s="57">
-        <v>11</v>
+        <v>809</v>
       </c>
       <c r="AC56" s="59">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="AD56" s="61">
-        <v>10</v>
+        <v>736</v>
       </c>
       <c r="AE56" s="63">
-        <v>-5</v>
+        <v>-407</v>
       </c>
       <c r="AF56" s="65">
         <v>0</v>
@@ -7894,16 +7894,16 @@
         <v>0</v>
       </c>
       <c r="AI56" s="71">
-        <v>6</v>
+        <v>402</v>
       </c>
       <c r="AJ56" s="73">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="AK56" s="75">
-        <v>5</v>
+        <v>312</v>
       </c>
       <c r="AL56" s="77">
-        <v>633</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="57">
@@ -7911,94 +7911,94 @@
         <v>69</v>
       </c>
       <c r="B57" s="5">
-        <v>121</v>
+        <v>8683</v>
       </c>
       <c r="C57" s="7">
-        <v>128</v>
+        <v>9276</v>
       </c>
       <c r="D57" s="9">
-        <v>-7</v>
+        <v>-593</v>
       </c>
       <c r="E57" s="11">
-        <v>382</v>
+        <v>27492</v>
       </c>
       <c r="F57" s="13">
-        <v>495</v>
+        <v>35895</v>
       </c>
       <c r="G57" s="15">
-        <v>-113</v>
+        <v>-8403</v>
       </c>
       <c r="H57" s="17">
-        <v>308</v>
+        <v>22527</v>
       </c>
       <c r="I57" s="19">
-        <v>172</v>
+        <v>12287</v>
       </c>
       <c r="J57" s="21">
-        <v>137</v>
+        <v>10240</v>
       </c>
       <c r="K57" s="23">
-        <v>38</v>
+        <v>2777</v>
       </c>
       <c r="L57" s="25">
-        <v>40</v>
+        <v>2887</v>
       </c>
       <c r="M57" s="27">
-        <v>-2</v>
+        <v>-110</v>
       </c>
       <c r="N57" s="29">
-        <v>38</v>
+        <v>2806</v>
       </c>
       <c r="O57" s="31">
-        <v>9</v>
+        <v>651</v>
       </c>
       <c r="P57" s="33">
-        <v>29</v>
+        <v>2155</v>
       </c>
       <c r="Q57" s="35">
-        <v>71</v>
+        <v>5166</v>
       </c>
       <c r="R57" s="37">
-        <v>27</v>
+        <v>1928</v>
       </c>
       <c r="S57" s="39">
-        <v>44</v>
+        <v>3238</v>
       </c>
       <c r="T57" s="41">
         <v>0</v>
       </c>
       <c r="U57" s="43">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="V57" s="45">
-        <v>-1</v>
+        <v>-72</v>
       </c>
       <c r="W57" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X57" s="49">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="Y57" s="51">
-        <v>-3</v>
+        <v>-215</v>
       </c>
       <c r="Z57" s="53">
-        <v>142</v>
+        <v>10413</v>
       </c>
       <c r="AA57" s="55">
-        <v>76</v>
+        <v>5439</v>
       </c>
       <c r="AB57" s="57">
-        <v>66</v>
+        <v>4974</v>
       </c>
       <c r="AC57" s="59">
-        <v>18</v>
+        <v>1363</v>
       </c>
       <c r="AD57" s="61">
-        <v>15</v>
+        <v>1093</v>
       </c>
       <c r="AE57" s="63">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="AF57" s="65">
         <v>0</v>
@@ -8010,16 +8010,16 @@
         <v>0</v>
       </c>
       <c r="AI57" s="71">
-        <v>7</v>
+        <v>526</v>
       </c>
       <c r="AJ57" s="73">
-        <v>24</v>
+        <v>1769</v>
       </c>
       <c r="AK57" s="75">
-        <v>-17</v>
+        <v>-1244</v>
       </c>
       <c r="AL57" s="77">
-        <v>819</v>
+        <v>59227</v>
       </c>
     </row>
     <row r="58">
@@ -8027,94 +8027,94 @@
         <v>70</v>
       </c>
       <c r="B58" s="5">
-        <v>176</v>
+        <v>11777</v>
       </c>
       <c r="C58" s="7">
-        <v>135</v>
+        <v>9062</v>
       </c>
       <c r="D58" s="9">
-        <v>41</v>
+        <v>2714</v>
       </c>
       <c r="E58" s="11">
-        <v>483</v>
+        <v>32076</v>
       </c>
       <c r="F58" s="13">
-        <v>375</v>
+        <v>25094</v>
       </c>
       <c r="G58" s="15">
-        <v>108</v>
+        <v>6982</v>
       </c>
       <c r="H58" s="17">
-        <v>176</v>
+        <v>11861</v>
       </c>
       <c r="I58" s="19">
-        <v>319</v>
+        <v>21132</v>
       </c>
       <c r="J58" s="21">
-        <v>-143</v>
+        <v>-9271</v>
       </c>
       <c r="K58" s="23">
-        <v>26</v>
+        <v>1775</v>
       </c>
       <c r="L58" s="25">
-        <v>45</v>
+        <v>3021</v>
       </c>
       <c r="M58" s="27">
-        <v>-19</v>
+        <v>-1245</v>
       </c>
       <c r="N58" s="29">
-        <v>19</v>
+        <v>1263</v>
       </c>
       <c r="O58" s="31">
-        <v>42</v>
+        <v>2765</v>
       </c>
       <c r="P58" s="33">
-        <v>-23</v>
+        <v>-1502</v>
       </c>
       <c r="Q58" s="35">
-        <v>19</v>
+        <v>1263</v>
       </c>
       <c r="R58" s="37">
-        <v>58</v>
+        <v>3906</v>
       </c>
       <c r="S58" s="39">
-        <v>-40</v>
+        <v>-2643</v>
       </c>
       <c r="T58" s="41">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U58" s="43">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="V58" s="45">
-        <v>-1</v>
+        <v>-77</v>
       </c>
       <c r="W58" s="47">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="X58" s="49">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="Y58" s="51">
-        <v>-1</v>
+        <v>-71</v>
       </c>
       <c r="Z58" s="53">
-        <v>105</v>
+        <v>7118</v>
       </c>
       <c r="AA58" s="55">
-        <v>149</v>
+        <v>9787</v>
       </c>
       <c r="AB58" s="57">
-        <v>-43</v>
+        <v>-2669</v>
       </c>
       <c r="AC58" s="59">
-        <v>5</v>
+        <v>311</v>
       </c>
       <c r="AD58" s="61">
-        <v>21</v>
+        <v>1374</v>
       </c>
       <c r="AE58" s="63">
-        <v>-16</v>
+        <v>-1063</v>
       </c>
       <c r="AF58" s="65">
         <v>0</v>
@@ -8126,16 +8126,16 @@
         <v>0</v>
       </c>
       <c r="AI58" s="71">
-        <v>9</v>
+        <v>587</v>
       </c>
       <c r="AJ58" s="73">
-        <v>15</v>
+        <v>1012</v>
       </c>
       <c r="AK58" s="75">
-        <v>-7</v>
+        <v>-425</v>
       </c>
       <c r="AL58" s="77">
-        <v>844</v>
+        <v>56300</v>
       </c>
     </row>
     <row r="59">
@@ -8143,115 +8143,115 @@
         <v>71</v>
       </c>
       <c r="B59" s="5">
-        <v>176</v>
+        <v>12929</v>
       </c>
       <c r="C59" s="7">
-        <v>114</v>
+        <v>8283</v>
       </c>
       <c r="D59" s="9">
-        <v>62</v>
+        <v>4647</v>
       </c>
       <c r="E59" s="11">
-        <v>266</v>
+        <v>19367</v>
       </c>
       <c r="F59" s="13">
-        <v>257</v>
+        <v>18738</v>
       </c>
       <c r="G59" s="15">
-        <v>10</v>
+        <v>629</v>
       </c>
       <c r="H59" s="17">
-        <v>200</v>
+        <v>14624</v>
       </c>
       <c r="I59" s="19">
-        <v>271</v>
+        <v>19834</v>
       </c>
       <c r="J59" s="21">
-        <v>-71</v>
+        <v>-5209</v>
       </c>
       <c r="K59" s="23">
-        <v>56</v>
+        <v>4106</v>
       </c>
       <c r="L59" s="25">
-        <v>38</v>
+        <v>2801</v>
       </c>
       <c r="M59" s="27">
-        <v>18</v>
+        <v>1305</v>
       </c>
       <c r="N59" s="29">
-        <v>20</v>
+        <v>1413</v>
       </c>
       <c r="O59" s="31">
-        <v>81</v>
+        <v>5979</v>
       </c>
       <c r="P59" s="33">
-        <v>-62</v>
+        <v>-4566</v>
       </c>
       <c r="Q59" s="35">
-        <v>55</v>
+        <v>4034</v>
       </c>
       <c r="R59" s="37">
-        <v>49</v>
+        <v>3539</v>
       </c>
       <c r="S59" s="39">
-        <v>6</v>
+        <v>496</v>
       </c>
       <c r="T59" s="41">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="U59" s="43">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V59" s="45">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W59" s="47">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="X59" s="49">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="Y59" s="51">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="Z59" s="53">
-        <v>48</v>
+        <v>3490</v>
       </c>
       <c r="AA59" s="55">
-        <v>70</v>
+        <v>5054</v>
       </c>
       <c r="AB59" s="57">
-        <v>-22</v>
+        <v>-1563</v>
       </c>
       <c r="AC59" s="59">
-        <v>15</v>
+        <v>1072</v>
       </c>
       <c r="AD59" s="61">
-        <v>28</v>
+        <v>2093</v>
       </c>
       <c r="AE59" s="63">
-        <v>-13</v>
+        <v>-1021</v>
       </c>
       <c r="AF59" s="65">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="AG59" s="67">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="AH59" s="69">
         <v>0</v>
       </c>
       <c r="AI59" s="71">
-        <v>8</v>
+        <v>608</v>
       </c>
       <c r="AJ59" s="73">
-        <v>9</v>
+        <v>675</v>
       </c>
       <c r="AK59" s="75">
-        <v>-1</v>
+        <v>-67</v>
       </c>
       <c r="AL59" s="77">
-        <v>650</v>
+        <v>47529</v>
       </c>
     </row>
     <row r="60">
@@ -8259,115 +8259,115 @@
         <v>72</v>
       </c>
       <c r="B60" s="5">
-        <v>213</v>
+        <v>15246</v>
       </c>
       <c r="C60" s="7">
-        <v>303</v>
+        <v>21650</v>
       </c>
       <c r="D60" s="9">
-        <v>-90</v>
+        <v>-6404</v>
       </c>
       <c r="E60" s="11">
-        <v>500</v>
+        <v>35478</v>
       </c>
       <c r="F60" s="13">
-        <v>616</v>
+        <v>44688</v>
       </c>
       <c r="G60" s="15">
-        <v>-116</v>
+        <v>-9209</v>
       </c>
       <c r="H60" s="17">
-        <v>451</v>
+        <v>33104</v>
       </c>
       <c r="I60" s="19">
-        <v>241</v>
+        <v>17128</v>
       </c>
       <c r="J60" s="21">
-        <v>210</v>
+        <v>15976</v>
       </c>
       <c r="K60" s="23">
-        <v>54</v>
+        <v>3984</v>
       </c>
       <c r="L60" s="25">
-        <v>48</v>
+        <v>3330</v>
       </c>
       <c r="M60" s="27">
-        <v>6</v>
+        <v>654</v>
       </c>
       <c r="N60" s="29">
-        <v>86</v>
+        <v>6387</v>
       </c>
       <c r="O60" s="31">
-        <v>35</v>
+        <v>2412</v>
       </c>
       <c r="P60" s="33">
-        <v>51</v>
+        <v>3975</v>
       </c>
       <c r="Q60" s="35">
-        <v>86</v>
+        <v>6224</v>
       </c>
       <c r="R60" s="37">
-        <v>24</v>
+        <v>1804</v>
       </c>
       <c r="S60" s="39">
-        <v>62</v>
+        <v>4420</v>
       </c>
       <c r="T60" s="41">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="U60" s="43">
         <v>0</v>
       </c>
       <c r="V60" s="45">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="W60" s="47">
-        <v>8</v>
+        <v>590</v>
       </c>
       <c r="X60" s="49">
-        <v>7</v>
+        <v>503</v>
       </c>
       <c r="Y60" s="51">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="Z60" s="53">
-        <v>124</v>
+        <v>9101</v>
       </c>
       <c r="AA60" s="55">
-        <v>49</v>
+        <v>3479</v>
       </c>
       <c r="AB60" s="57">
-        <v>75</v>
+        <v>5622</v>
       </c>
       <c r="AC60" s="59">
-        <v>23</v>
+        <v>1718</v>
       </c>
       <c r="AD60" s="61">
-        <v>26</v>
+        <v>1939</v>
       </c>
       <c r="AE60" s="63">
-        <v>-3</v>
+        <v>-221</v>
       </c>
       <c r="AF60" s="65">
-        <v>66</v>
+        <v>4815</v>
       </c>
       <c r="AG60" s="67">
-        <v>52</v>
+        <v>3661</v>
       </c>
       <c r="AH60" s="69">
-        <v>15</v>
+        <v>1154</v>
       </c>
       <c r="AI60" s="71">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="AJ60" s="73">
-        <v>13</v>
+        <v>928</v>
       </c>
       <c r="AK60" s="75">
-        <v>-4</v>
+        <v>-363</v>
       </c>
       <c r="AL60" s="77">
-        <v>1172</v>
+        <v>84394</v>
       </c>
     </row>
     <row r="61">
@@ -8375,115 +8375,115 @@
         <v>73</v>
       </c>
       <c r="B61" s="5">
-        <v>359</v>
+        <v>24599</v>
       </c>
       <c r="C61" s="7">
-        <v>223</v>
+        <v>15749</v>
       </c>
       <c r="D61" s="9">
-        <v>135</v>
+        <v>8850</v>
       </c>
       <c r="E61" s="11">
-        <v>566</v>
+        <v>39710</v>
       </c>
       <c r="F61" s="13">
-        <v>575</v>
+        <v>39596</v>
       </c>
       <c r="G61" s="15">
-        <v>-9</v>
+        <v>114</v>
       </c>
       <c r="H61" s="17">
-        <v>190</v>
+        <v>13066</v>
       </c>
       <c r="I61" s="19">
-        <v>361</v>
+        <v>25406</v>
       </c>
       <c r="J61" s="21">
-        <v>-171</v>
+        <v>-12341</v>
       </c>
       <c r="K61" s="23">
-        <v>54</v>
+        <v>3729</v>
       </c>
       <c r="L61" s="25">
-        <v>138</v>
+        <v>9897</v>
       </c>
       <c r="M61" s="27">
-        <v>-84</v>
+        <v>-6168</v>
       </c>
       <c r="N61" s="29">
-        <v>36</v>
+        <v>2498</v>
       </c>
       <c r="O61" s="31">
-        <v>78</v>
+        <v>5580</v>
       </c>
       <c r="P61" s="33">
-        <v>-42</v>
+        <v>-3082</v>
       </c>
       <c r="Q61" s="35">
-        <v>31</v>
+        <v>2087</v>
       </c>
       <c r="R61" s="37">
-        <v>29</v>
+        <v>2028</v>
       </c>
       <c r="S61" s="39">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="T61" s="41">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U61" s="43">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="V61" s="45">
-        <v>-1</v>
+        <v>-31</v>
       </c>
       <c r="W61" s="47">
-        <v>5</v>
+        <v>313</v>
       </c>
       <c r="X61" s="49">
-        <v>4</v>
+        <v>279</v>
       </c>
       <c r="Y61" s="51">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z61" s="53">
-        <v>25</v>
+        <v>1670</v>
       </c>
       <c r="AA61" s="55">
-        <v>46</v>
+        <v>3176</v>
       </c>
       <c r="AB61" s="57">
-        <v>-22</v>
+        <v>-1506</v>
       </c>
       <c r="AC61" s="59">
-        <v>11</v>
+        <v>776</v>
       </c>
       <c r="AD61" s="61">
-        <v>8</v>
+        <v>560</v>
       </c>
       <c r="AE61" s="63">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="AF61" s="65">
-        <v>28</v>
+        <v>1966</v>
       </c>
       <c r="AG61" s="67">
-        <v>55</v>
+        <v>3829</v>
       </c>
       <c r="AH61" s="69">
-        <v>-28</v>
+        <v>-1863</v>
       </c>
       <c r="AI61" s="71">
-        <v>47</v>
+        <v>3506</v>
       </c>
       <c r="AJ61" s="73">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="AK61" s="75">
-        <v>45</v>
+        <v>3377</v>
       </c>
       <c r="AL61" s="77">
-        <v>1161</v>
+        <v>80881</v>
       </c>
     </row>
     <row r="62">
@@ -8491,115 +8491,115 @@
         <v>74</v>
       </c>
       <c r="B62" s="5">
-        <v>157</v>
+        <v>13474</v>
       </c>
       <c r="C62" s="7">
-        <v>139</v>
+        <v>12079</v>
       </c>
       <c r="D62" s="9">
-        <v>18</v>
+        <v>1395</v>
       </c>
       <c r="E62" s="11">
-        <v>318</v>
+        <v>27369</v>
       </c>
       <c r="F62" s="13">
-        <v>380</v>
+        <v>33002</v>
       </c>
       <c r="G62" s="15">
-        <v>-62</v>
+        <v>-5633</v>
       </c>
       <c r="H62" s="17">
-        <v>190</v>
+        <v>16634</v>
       </c>
       <c r="I62" s="19">
-        <v>253</v>
+        <v>21801</v>
       </c>
       <c r="J62" s="21">
-        <v>-63</v>
+        <v>-5166</v>
       </c>
       <c r="K62" s="23">
-        <v>44</v>
+        <v>3851</v>
       </c>
       <c r="L62" s="25">
-        <v>29</v>
+        <v>2489</v>
       </c>
       <c r="M62" s="27">
-        <v>16</v>
+        <v>1362</v>
       </c>
       <c r="N62" s="29">
-        <v>12</v>
+        <v>1041</v>
       </c>
       <c r="O62" s="31">
-        <v>32</v>
+        <v>2752</v>
       </c>
       <c r="P62" s="33">
-        <v>-20</v>
+        <v>-1711</v>
       </c>
       <c r="Q62" s="35">
-        <v>23</v>
+        <v>2013</v>
       </c>
       <c r="R62" s="37">
-        <v>37</v>
+        <v>3230</v>
       </c>
       <c r="S62" s="39">
-        <v>-14</v>
+        <v>-1217</v>
       </c>
       <c r="T62" s="41">
         <v>0</v>
       </c>
       <c r="U62" s="43">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="V62" s="45">
-        <v>-1</v>
+        <v>-105</v>
       </c>
       <c r="W62" s="47">
         <v>0</v>
       </c>
       <c r="X62" s="49">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="Y62" s="51">
-        <v>-2</v>
+        <v>-165</v>
       </c>
       <c r="Z62" s="53">
-        <v>23</v>
+        <v>1980</v>
       </c>
       <c r="AA62" s="55">
-        <v>77</v>
+        <v>6652</v>
       </c>
       <c r="AB62" s="57">
-        <v>-54</v>
+        <v>-4671</v>
       </c>
       <c r="AC62" s="59">
-        <v>61</v>
+        <v>5344</v>
       </c>
       <c r="AD62" s="61">
-        <v>26</v>
+        <v>2195</v>
       </c>
       <c r="AE62" s="63">
-        <v>35</v>
+        <v>3149</v>
       </c>
       <c r="AF62" s="65">
-        <v>28</v>
+        <v>2405</v>
       </c>
       <c r="AG62" s="67">
-        <v>49</v>
+        <v>4212</v>
       </c>
       <c r="AH62" s="69">
-        <v>-21</v>
+        <v>-1807</v>
       </c>
       <c r="AI62" s="71">
-        <v>108</v>
+        <v>9518</v>
       </c>
       <c r="AJ62" s="73">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="AK62" s="75">
-        <v>106</v>
+        <v>9404</v>
       </c>
       <c r="AL62" s="77">
-        <v>773</v>
+        <v>66996</v>
       </c>
     </row>
     <row r="63">
@@ -8607,115 +8607,115 @@
         <v>75</v>
       </c>
       <c r="B63" s="5">
-        <v>134</v>
+        <v>11265</v>
       </c>
       <c r="C63" s="7">
-        <v>174</v>
+        <v>14887</v>
       </c>
       <c r="D63" s="9">
-        <v>-41</v>
+        <v>-3622</v>
       </c>
       <c r="E63" s="11">
-        <v>477</v>
+        <v>39909</v>
       </c>
       <c r="F63" s="13">
+        <v>33848</v>
+      </c>
+      <c r="G63" s="15">
+        <v>6060</v>
+      </c>
+      <c r="H63" s="17">
+        <v>14414</v>
+      </c>
+      <c r="I63" s="19">
+        <v>38246</v>
+      </c>
+      <c r="J63" s="21">
+        <v>-23832</v>
+      </c>
+      <c r="K63" s="23">
+        <v>2560</v>
+      </c>
+      <c r="L63" s="25">
+        <v>5879</v>
+      </c>
+      <c r="M63" s="27">
+        <v>-3319</v>
+      </c>
+      <c r="N63" s="29">
+        <v>1491</v>
+      </c>
+      <c r="O63" s="31">
+        <v>2235</v>
+      </c>
+      <c r="P63" s="33">
+        <v>-744</v>
+      </c>
+      <c r="Q63" s="35">
+        <v>3526</v>
+      </c>
+      <c r="R63" s="37">
+        <v>12014</v>
+      </c>
+      <c r="S63" s="39">
+        <v>-8488</v>
+      </c>
+      <c r="T63" s="41">
+        <v>29</v>
+      </c>
+      <c r="U63" s="43">
+        <v>2</v>
+      </c>
+      <c r="V63" s="45">
+        <v>27</v>
+      </c>
+      <c r="W63" s="47">
         <v>402</v>
       </c>
-      <c r="G63" s="15">
-        <v>75</v>
-      </c>
-      <c r="H63" s="17">
-        <v>170</v>
-      </c>
-      <c r="I63" s="19">
-        <v>458</v>
-      </c>
-      <c r="J63" s="21">
-        <v>-287</v>
-      </c>
-      <c r="K63" s="23">
-        <v>30</v>
-      </c>
-      <c r="L63" s="25">
-        <v>71</v>
-      </c>
-      <c r="M63" s="27">
-        <v>-41</v>
-      </c>
-      <c r="N63" s="29">
-        <v>18</v>
-      </c>
-      <c r="O63" s="31">
-        <v>27</v>
-      </c>
-      <c r="P63" s="33">
-        <v>-9</v>
-      </c>
-      <c r="Q63" s="35">
-        <v>42</v>
-      </c>
-      <c r="R63" s="37">
-        <v>144</v>
-      </c>
-      <c r="S63" s="39">
-        <v>-102</v>
-      </c>
-      <c r="T63" s="41">
-        <v>0</v>
-      </c>
-      <c r="U63" s="43">
-        <v>0</v>
-      </c>
-      <c r="V63" s="45">
-        <v>0</v>
-      </c>
-      <c r="W63" s="47">
-        <v>5</v>
-      </c>
       <c r="X63" s="49">
-        <v>6</v>
+        <v>482</v>
       </c>
       <c r="Y63" s="51">
-        <v>-1</v>
+        <v>-80</v>
       </c>
       <c r="Z63" s="53">
-        <v>15</v>
+        <v>1276</v>
       </c>
       <c r="AA63" s="55">
-        <v>127</v>
+        <v>10599</v>
       </c>
       <c r="AB63" s="57">
-        <v>-111</v>
+        <v>-9324</v>
       </c>
       <c r="AC63" s="59">
-        <v>36</v>
+        <v>3104</v>
       </c>
       <c r="AD63" s="61">
-        <v>30</v>
+        <v>2499</v>
       </c>
       <c r="AE63" s="63">
-        <v>6</v>
+        <v>605</v>
       </c>
       <c r="AF63" s="65">
-        <v>24</v>
+        <v>2027</v>
       </c>
       <c r="AG63" s="67">
-        <v>54</v>
+        <v>4535</v>
       </c>
       <c r="AH63" s="69">
-        <v>-30</v>
+        <v>-2508</v>
       </c>
       <c r="AI63" s="71">
-        <v>259</v>
+        <v>21830</v>
       </c>
       <c r="AJ63" s="73">
-        <v>5</v>
+        <v>436</v>
       </c>
       <c r="AK63" s="75">
-        <v>253</v>
+        <v>21394</v>
       </c>
       <c r="AL63" s="77">
-        <v>1039</v>
+        <v>87417</v>
       </c>
     </row>
     <row r="64">
@@ -8723,115 +8723,115 @@
         <v>76</v>
       </c>
       <c r="B64" s="5">
-        <v>208</v>
+        <v>19103</v>
       </c>
       <c r="C64" s="7">
-        <v>147</v>
+        <v>13519</v>
       </c>
       <c r="D64" s="9">
-        <v>61</v>
+        <v>5584</v>
       </c>
       <c r="E64" s="11">
-        <v>370</v>
+        <v>33958</v>
       </c>
       <c r="F64" s="13">
-        <v>499</v>
+        <v>45985</v>
       </c>
       <c r="G64" s="15">
-        <v>-129</v>
+        <v>-12027</v>
       </c>
       <c r="H64" s="17">
-        <v>197</v>
+        <v>18215</v>
       </c>
       <c r="I64" s="19">
-        <v>242</v>
+        <v>22182</v>
       </c>
       <c r="J64" s="21">
-        <v>-45</v>
+        <v>-3967</v>
       </c>
       <c r="K64" s="23">
-        <v>38</v>
+        <v>3454</v>
       </c>
       <c r="L64" s="25">
-        <v>46</v>
+        <v>4231</v>
       </c>
       <c r="M64" s="27">
-        <v>-8</v>
+        <v>-777</v>
       </c>
       <c r="N64" s="29">
-        <v>42</v>
+        <v>3885</v>
       </c>
       <c r="O64" s="31">
-        <v>27</v>
+        <v>2462</v>
       </c>
       <c r="P64" s="33">
-        <v>16</v>
+        <v>1423</v>
       </c>
       <c r="Q64" s="35">
-        <v>35</v>
+        <v>3254</v>
       </c>
       <c r="R64" s="37">
-        <v>39</v>
+        <v>3597</v>
       </c>
       <c r="S64" s="39">
-        <v>-4</v>
+        <v>-343</v>
       </c>
       <c r="T64" s="41">
         <v>0</v>
       </c>
       <c r="U64" s="43">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="V64" s="45">
-        <v>-2</v>
+        <v>-169</v>
       </c>
       <c r="W64" s="47">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X64" s="49">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="Y64" s="51">
-        <v>-1</v>
+        <v>-87</v>
       </c>
       <c r="Z64" s="53">
-        <v>31</v>
+        <v>2909</v>
       </c>
       <c r="AA64" s="55">
-        <v>52</v>
+        <v>4727</v>
       </c>
       <c r="AB64" s="57">
-        <v>-21</v>
+        <v>-1818</v>
       </c>
       <c r="AC64" s="59">
-        <v>27</v>
+        <v>2516</v>
       </c>
       <c r="AD64" s="61">
-        <v>44</v>
+        <v>3982</v>
       </c>
       <c r="AE64" s="63">
-        <v>-17</v>
+        <v>-1466</v>
       </c>
       <c r="AF64" s="65">
-        <v>24</v>
+        <v>2181</v>
       </c>
       <c r="AG64" s="67">
-        <v>32</v>
+        <v>2910</v>
       </c>
       <c r="AH64" s="69">
-        <v>-8</v>
+        <v>-729</v>
       </c>
       <c r="AI64" s="71">
-        <v>120</v>
+        <v>11082</v>
       </c>
       <c r="AJ64" s="73">
-        <v>7</v>
+        <v>673</v>
       </c>
       <c r="AK64" s="75">
-        <v>113</v>
+        <v>10409</v>
       </c>
       <c r="AL64" s="77">
-        <v>896</v>
+        <v>82358</v>
       </c>
     </row>
     <row r="65">
@@ -8839,115 +8839,115 @@
         <v>77</v>
       </c>
       <c r="B65" s="5">
-        <v>364</v>
+        <v>33510</v>
       </c>
       <c r="C65" s="7">
-        <v>250</v>
+        <v>22921</v>
       </c>
       <c r="D65" s="9">
-        <v>114</v>
+        <v>10589</v>
       </c>
       <c r="E65" s="11">
-        <v>503</v>
+        <v>45422</v>
       </c>
       <c r="F65" s="13">
-        <v>684</v>
+        <v>62638</v>
       </c>
       <c r="G65" s="15">
-        <v>-181</v>
+        <v>-17216</v>
       </c>
       <c r="H65" s="17">
-        <v>299</v>
+        <v>27399</v>
       </c>
       <c r="I65" s="19">
-        <v>310</v>
+        <v>27970</v>
       </c>
       <c r="J65" s="21">
-        <v>-11</v>
+        <v>-571</v>
       </c>
       <c r="K65" s="23">
-        <v>57</v>
+        <v>5270</v>
       </c>
       <c r="L65" s="25">
-        <v>62</v>
+        <v>5635</v>
       </c>
       <c r="M65" s="27">
-        <v>-5</v>
+        <v>-365</v>
       </c>
       <c r="N65" s="29">
-        <v>24</v>
+        <v>2232</v>
       </c>
       <c r="O65" s="31">
-        <v>34</v>
+        <v>3057</v>
       </c>
       <c r="P65" s="33">
-        <v>-10</v>
+        <v>-825</v>
       </c>
       <c r="Q65" s="35">
-        <v>70</v>
+        <v>6336</v>
       </c>
       <c r="R65" s="37">
-        <v>75</v>
+        <v>6769</v>
       </c>
       <c r="S65" s="39">
-        <v>-5</v>
+        <v>-433</v>
       </c>
       <c r="T65" s="41">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U65" s="43">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="V65" s="45">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="W65" s="47">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="X65" s="49">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="Y65" s="51">
-        <v>-1</v>
+        <v>-80</v>
       </c>
       <c r="Z65" s="53">
-        <v>28</v>
+        <v>2583</v>
       </c>
       <c r="AA65" s="55">
-        <v>51</v>
+        <v>4495</v>
       </c>
       <c r="AB65" s="57">
-        <v>-23</v>
+        <v>-1912</v>
       </c>
       <c r="AC65" s="59">
-        <v>83</v>
+        <v>7687</v>
       </c>
       <c r="AD65" s="61">
-        <v>46</v>
+        <v>4116</v>
       </c>
       <c r="AE65" s="63">
-        <v>37</v>
+        <v>3571</v>
       </c>
       <c r="AF65" s="65">
-        <v>35</v>
+        <v>3141</v>
       </c>
       <c r="AG65" s="67">
-        <v>40</v>
+        <v>3630</v>
       </c>
       <c r="AH65" s="69">
-        <v>-5</v>
+        <v>-489</v>
       </c>
       <c r="AI65" s="71">
-        <v>307</v>
+        <v>28350</v>
       </c>
       <c r="AJ65" s="73">
-        <v>228</v>
+        <v>21152</v>
       </c>
       <c r="AK65" s="75">
-        <v>79</v>
+        <v>7198</v>
       </c>
       <c r="AL65" s="77">
-        <v>1472</v>
+        <v>134681</v>
       </c>
     </row>
     <row r="66">
@@ -8955,115 +8955,115 @@
         <v>78</v>
       </c>
       <c r="B66" s="5">
-        <v>277</v>
+        <v>25519</v>
       </c>
       <c r="C66" s="7">
-        <v>276</v>
+        <v>25431</v>
       </c>
       <c r="D66" s="9">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="E66" s="11">
-        <v>1204</v>
+        <v>110678</v>
       </c>
       <c r="F66" s="13">
-        <v>1088</v>
+        <v>100352</v>
       </c>
       <c r="G66" s="15">
-        <v>117</v>
+        <v>10326</v>
       </c>
       <c r="H66" s="17">
-        <v>406</v>
+        <v>38053</v>
       </c>
       <c r="I66" s="19">
-        <v>530</v>
+        <v>49033</v>
       </c>
       <c r="J66" s="21">
-        <v>-125</v>
+        <v>-10980</v>
       </c>
       <c r="K66" s="23">
+        <v>9740</v>
+      </c>
+      <c r="L66" s="25">
+        <v>12819</v>
+      </c>
+      <c r="M66" s="27">
+        <v>-3079</v>
+      </c>
+      <c r="N66" s="29">
+        <v>5557</v>
+      </c>
+      <c r="O66" s="31">
+        <v>6989</v>
+      </c>
+      <c r="P66" s="33">
+        <v>-1432</v>
+      </c>
+      <c r="Q66" s="35">
+        <v>9300</v>
+      </c>
+      <c r="R66" s="37">
+        <v>7398</v>
+      </c>
+      <c r="S66" s="39">
+        <v>1902</v>
+      </c>
+      <c r="T66" s="41">
         <v>103</v>
       </c>
-      <c r="L66" s="25">
-        <v>140</v>
-      </c>
-      <c r="M66" s="27">
-        <v>-37</v>
-      </c>
-      <c r="N66" s="29">
-        <v>59</v>
-      </c>
-      <c r="O66" s="31">
-        <v>78</v>
-      </c>
-      <c r="P66" s="33">
-        <v>-19</v>
-      </c>
-      <c r="Q66" s="35">
-        <v>99</v>
-      </c>
-      <c r="R66" s="37">
-        <v>79</v>
-      </c>
-      <c r="S66" s="39">
-        <v>20</v>
-      </c>
-      <c r="T66" s="41">
-        <v>1</v>
-      </c>
       <c r="U66" s="43">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V66" s="45">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="W66" s="47">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="X66" s="49">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="Y66" s="51">
-        <v>-1</v>
+        <v>-87</v>
       </c>
       <c r="Z66" s="53">
-        <v>61</v>
+        <v>5846</v>
       </c>
       <c r="AA66" s="55">
-        <v>89</v>
+        <v>8584</v>
       </c>
       <c r="AB66" s="57">
-        <v>-28</v>
+        <v>-2739</v>
       </c>
       <c r="AC66" s="59">
-        <v>33</v>
+        <v>2968</v>
       </c>
       <c r="AD66" s="61">
-        <v>103</v>
+        <v>9437</v>
       </c>
       <c r="AE66" s="63">
-        <v>-70</v>
+        <v>-6469</v>
       </c>
       <c r="AF66" s="65">
-        <v>47</v>
+        <v>4321</v>
       </c>
       <c r="AG66" s="67">
-        <v>38</v>
+        <v>3471</v>
       </c>
       <c r="AH66" s="69">
-        <v>10</v>
+        <v>850</v>
       </c>
       <c r="AI66" s="71">
-        <v>17</v>
+        <v>1538</v>
       </c>
       <c r="AJ66" s="73">
-        <v>10</v>
+        <v>972</v>
       </c>
       <c r="AK66" s="75">
-        <v>7</v>
+        <v>566</v>
       </c>
       <c r="AL66" s="77">
-        <v>1904</v>
+        <v>175788</v>
       </c>
     </row>
     <row r="67">
@@ -9071,115 +9071,115 @@
         <v>79</v>
       </c>
       <c r="B67" s="5">
-        <v>144</v>
+        <v>14984</v>
       </c>
       <c r="C67" s="7">
-        <v>156</v>
+        <v>16335</v>
       </c>
       <c r="D67" s="9">
-        <v>-12</v>
+        <v>-1351</v>
       </c>
       <c r="E67" s="11">
-        <v>785</v>
+        <v>81564</v>
       </c>
       <c r="F67" s="13">
-        <v>804</v>
+        <v>83865</v>
       </c>
       <c r="G67" s="15">
-        <v>-19</v>
+        <v>-2300</v>
       </c>
       <c r="H67" s="17">
-        <v>432</v>
+        <v>44952</v>
       </c>
       <c r="I67" s="19">
-        <v>372</v>
+        <v>38466</v>
       </c>
       <c r="J67" s="21">
-        <v>59</v>
+        <v>6486</v>
       </c>
       <c r="K67" s="23">
-        <v>238</v>
+        <v>24675</v>
       </c>
       <c r="L67" s="25">
-        <v>120</v>
+        <v>12424</v>
       </c>
       <c r="M67" s="27">
-        <v>117</v>
+        <v>12251</v>
       </c>
       <c r="N67" s="29">
-        <v>37</v>
+        <v>3913</v>
       </c>
       <c r="O67" s="31">
-        <v>30</v>
+        <v>3092</v>
       </c>
       <c r="P67" s="33">
-        <v>8</v>
+        <v>821</v>
       </c>
       <c r="Q67" s="35">
-        <v>47</v>
+        <v>4899</v>
       </c>
       <c r="R67" s="37">
-        <v>38</v>
+        <v>3952</v>
       </c>
       <c r="S67" s="39">
-        <v>9</v>
+        <v>947</v>
       </c>
       <c r="T67" s="41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U67" s="43">
-        <v>6</v>
+        <v>591</v>
       </c>
       <c r="V67" s="45">
-        <v>-6</v>
+        <v>-586</v>
       </c>
       <c r="W67" s="47">
-        <v>4</v>
+        <v>376</v>
       </c>
       <c r="X67" s="49">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="Y67" s="51">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="Z67" s="53">
-        <v>48</v>
+        <v>4995</v>
       </c>
       <c r="AA67" s="55">
-        <v>90</v>
+        <v>9282</v>
       </c>
       <c r="AB67" s="57">
-        <v>-42</v>
+        <v>-4287</v>
       </c>
       <c r="AC67" s="59">
-        <v>24</v>
+        <v>2458</v>
       </c>
       <c r="AD67" s="61">
-        <v>48</v>
+        <v>4936</v>
       </c>
       <c r="AE67" s="63">
-        <v>-25</v>
+        <v>-2478</v>
       </c>
       <c r="AF67" s="65">
-        <v>35</v>
+        <v>3630</v>
       </c>
       <c r="AG67" s="67">
-        <v>39</v>
+        <v>4085</v>
       </c>
       <c r="AH67" s="69">
-        <v>-4</v>
+        <v>-455</v>
       </c>
       <c r="AI67" s="71">
-        <v>8</v>
+        <v>840</v>
       </c>
       <c r="AJ67" s="73">
-        <v>36</v>
+        <v>3675</v>
       </c>
       <c r="AK67" s="75">
-        <v>-28</v>
+        <v>-2835</v>
       </c>
       <c r="AL67" s="77">
-        <v>1369</v>
+        <v>142341</v>
       </c>
     </row>
     <row r="68">
@@ -9187,115 +9187,115 @@
         <v>80</v>
       </c>
       <c r="B68" s="5">
-        <v>114</v>
+        <v>12383</v>
       </c>
       <c r="C68" s="7">
-        <v>133</v>
+        <v>14257</v>
       </c>
       <c r="D68" s="9">
-        <v>-18</v>
+        <v>-1873</v>
       </c>
       <c r="E68" s="11">
-        <v>855</v>
+        <v>92028</v>
       </c>
       <c r="F68" s="13">
-        <v>979</v>
+        <v>105444</v>
       </c>
       <c r="G68" s="15">
-        <v>-124</v>
+        <v>-13416</v>
       </c>
       <c r="H68" s="17">
-        <v>474</v>
+        <v>50944</v>
       </c>
       <c r="I68" s="19">
-        <v>345</v>
+        <v>37121</v>
       </c>
       <c r="J68" s="21">
-        <v>129</v>
+        <v>13823</v>
       </c>
       <c r="K68" s="23">
-        <v>159</v>
+        <v>16957</v>
       </c>
       <c r="L68" s="25">
-        <v>68</v>
+        <v>7269</v>
       </c>
       <c r="M68" s="27">
-        <v>92</v>
+        <v>9688</v>
       </c>
       <c r="N68" s="29">
-        <v>26</v>
+        <v>2780</v>
       </c>
       <c r="O68" s="31">
-        <v>33</v>
+        <v>3485</v>
       </c>
       <c r="P68" s="33">
-        <v>-7</v>
+        <v>-705</v>
       </c>
       <c r="Q68" s="35">
-        <v>65</v>
+        <v>7014</v>
       </c>
       <c r="R68" s="37">
-        <v>70</v>
+        <v>7568</v>
       </c>
       <c r="S68" s="39">
-        <v>-5</v>
+        <v>-554</v>
       </c>
       <c r="T68" s="41">
+        <v>414</v>
+      </c>
+      <c r="U68" s="43">
+        <v>229</v>
+      </c>
+      <c r="V68" s="45">
+        <v>185</v>
+      </c>
+      <c r="W68" s="47">
+        <v>53</v>
+      </c>
+      <c r="X68" s="49">
         <v>4</v>
       </c>
-      <c r="U68" s="43">
-        <v>2</v>
-      </c>
-      <c r="V68" s="45">
-        <v>2</v>
-      </c>
-      <c r="W68" s="47">
-        <v>0</v>
-      </c>
-      <c r="X68" s="49">
-        <v>0</v>
-      </c>
       <c r="Y68" s="51">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Z68" s="53">
-        <v>153</v>
+        <v>16479</v>
       </c>
       <c r="AA68" s="55">
-        <v>88</v>
+        <v>9349</v>
       </c>
       <c r="AB68" s="57">
-        <v>65</v>
+        <v>7130</v>
       </c>
       <c r="AC68" s="59">
-        <v>20</v>
+        <v>2099</v>
       </c>
       <c r="AD68" s="61">
-        <v>45</v>
+        <v>4881</v>
       </c>
       <c r="AE68" s="63">
-        <v>-26</v>
+        <v>-2782</v>
       </c>
       <c r="AF68" s="65">
-        <v>47</v>
+        <v>5148</v>
       </c>
       <c r="AG68" s="67">
-        <v>40</v>
+        <v>4336</v>
       </c>
       <c r="AH68" s="69">
-        <v>7</v>
+        <v>812</v>
       </c>
       <c r="AI68" s="71">
-        <v>21</v>
+        <v>2305</v>
       </c>
       <c r="AJ68" s="73">
-        <v>8</v>
+        <v>838</v>
       </c>
       <c r="AK68" s="75">
-        <v>13</v>
+        <v>1467</v>
       </c>
       <c r="AL68" s="77">
-        <v>1465</v>
+        <v>157660</v>
       </c>
     </row>
     <row r="69">
@@ -9303,115 +9303,115 @@
         <v>81</v>
       </c>
       <c r="B69" s="5">
-        <v>185</v>
+        <v>19736</v>
       </c>
       <c r="C69" s="7">
-        <v>168</v>
+        <v>17690</v>
       </c>
       <c r="D69" s="9">
-        <v>17</v>
+        <v>2046</v>
       </c>
       <c r="E69" s="11">
-        <v>1835</v>
+        <v>197389</v>
       </c>
       <c r="F69" s="13">
-        <v>2017</v>
+        <v>217553</v>
       </c>
       <c r="G69" s="15">
-        <v>-182</v>
+        <v>-20164</v>
       </c>
       <c r="H69" s="17">
-        <v>623</v>
+        <v>66951</v>
       </c>
       <c r="I69" s="19">
-        <v>453</v>
+        <v>48345</v>
       </c>
       <c r="J69" s="21">
-        <v>170</v>
+        <v>18606</v>
       </c>
       <c r="K69" s="23">
-        <v>186</v>
+        <v>20146</v>
       </c>
       <c r="L69" s="25">
-        <v>133</v>
+        <v>14181</v>
       </c>
       <c r="M69" s="27">
-        <v>53</v>
+        <v>5965</v>
       </c>
       <c r="N69" s="29">
-        <v>64</v>
+        <v>6685</v>
       </c>
       <c r="O69" s="31">
-        <v>61</v>
+        <v>6671</v>
       </c>
       <c r="P69" s="33">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q69" s="35">
-        <v>156</v>
+        <v>16631</v>
       </c>
       <c r="R69" s="37">
-        <v>87</v>
+        <v>9409</v>
       </c>
       <c r="S69" s="39">
-        <v>69</v>
+        <v>7222</v>
       </c>
       <c r="T69" s="41">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="U69" s="43">
-        <v>13</v>
+        <v>1284</v>
       </c>
       <c r="V69" s="45">
-        <v>-10</v>
+        <v>-1003</v>
       </c>
       <c r="W69" s="47">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="X69" s="49">
-        <v>5</v>
+        <v>535</v>
       </c>
       <c r="Y69" s="51">
-        <v>-4</v>
+        <v>-419</v>
       </c>
       <c r="Z69" s="53">
-        <v>99</v>
+        <v>10823</v>
       </c>
       <c r="AA69" s="55">
-        <v>83</v>
+        <v>8741</v>
       </c>
       <c r="AB69" s="57">
-        <v>16</v>
+        <v>2082</v>
       </c>
       <c r="AC69" s="59">
-        <v>55</v>
+        <v>5950</v>
       </c>
       <c r="AD69" s="61">
-        <v>31</v>
+        <v>3316</v>
       </c>
       <c r="AE69" s="63">
-        <v>23</v>
+        <v>2634</v>
       </c>
       <c r="AF69" s="65">
-        <v>59</v>
+        <v>6319</v>
       </c>
       <c r="AG69" s="67">
-        <v>40</v>
+        <v>4209</v>
       </c>
       <c r="AH69" s="69">
-        <v>20</v>
+        <v>2110</v>
       </c>
       <c r="AI69" s="71">
-        <v>19</v>
+        <v>2059</v>
       </c>
       <c r="AJ69" s="73">
-        <v>24</v>
+        <v>2547</v>
       </c>
       <c r="AK69" s="75">
-        <v>-5</v>
+        <v>-488</v>
       </c>
       <c r="AL69" s="77">
-        <v>2662</v>
+        <v>286136</v>
       </c>
     </row>
     <row r="70">
@@ -9419,115 +9419,115 @@
         <v>82</v>
       </c>
       <c r="B70" s="6">
-        <v>348</v>
+        <v>38583</v>
       </c>
       <c r="C70" s="8">
-        <v>169</v>
+        <v>18865</v>
       </c>
       <c r="D70" s="10">
-        <v>179</v>
+        <v>19718</v>
       </c>
       <c r="E70" s="12">
-        <v>4200</v>
+        <v>468113</v>
       </c>
       <c r="F70" s="14">
-        <v>4332</v>
+        <v>482562</v>
       </c>
       <c r="G70" s="16">
-        <v>-132</v>
+        <v>-14449</v>
       </c>
       <c r="H70" s="18">
-        <v>1056</v>
+        <v>115522</v>
       </c>
       <c r="I70" s="20">
-        <v>1074</v>
+        <v>117498</v>
       </c>
       <c r="J70" s="22">
-        <v>-18</v>
+        <v>-1976</v>
       </c>
       <c r="K70" s="24">
-        <v>257</v>
+        <v>28543</v>
       </c>
       <c r="L70" s="26">
-        <v>202</v>
+        <v>22160</v>
       </c>
       <c r="M70" s="28">
-        <v>56</v>
+        <v>6383</v>
       </c>
       <c r="N70" s="30">
-        <v>180</v>
+        <v>19960</v>
       </c>
       <c r="O70" s="32">
-        <v>115</v>
+        <v>12638</v>
       </c>
       <c r="P70" s="34">
-        <v>65</v>
+        <v>7322</v>
       </c>
       <c r="Q70" s="36">
-        <v>282</v>
+        <v>30310</v>
       </c>
       <c r="R70" s="38">
-        <v>281</v>
+        <v>30690</v>
       </c>
       <c r="S70" s="40">
-        <v>1</v>
+        <v>-380</v>
       </c>
       <c r="T70" s="42">
-        <v>15</v>
+        <v>1658</v>
       </c>
       <c r="U70" s="44">
-        <v>7</v>
+        <v>688</v>
       </c>
       <c r="V70" s="46">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="W70" s="48">
-        <v>7</v>
+        <v>764</v>
       </c>
       <c r="X70" s="50">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="Y70" s="52">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="Z70" s="54">
-        <v>141</v>
+        <v>14929</v>
       </c>
       <c r="AA70" s="56">
-        <v>269</v>
+        <v>29399</v>
       </c>
       <c r="AB70" s="58">
-        <v>-128</v>
+        <v>-14470</v>
       </c>
       <c r="AC70" s="60">
-        <v>115</v>
+        <v>12767</v>
       </c>
       <c r="AD70" s="62">
-        <v>142</v>
+        <v>15324</v>
       </c>
       <c r="AE70" s="64">
-        <v>-27</v>
+        <v>-2557</v>
       </c>
       <c r="AF70" s="66">
-        <v>59</v>
+        <v>6592</v>
       </c>
       <c r="AG70" s="68">
-        <v>55</v>
+        <v>6189</v>
       </c>
       <c r="AH70" s="70">
-        <v>4</v>
+        <v>402</v>
       </c>
       <c r="AI70" s="72">
-        <v>29</v>
+        <v>3143</v>
       </c>
       <c r="AJ70" s="74">
-        <v>58</v>
+        <v>6437</v>
       </c>
       <c r="AK70" s="76">
-        <v>-29</v>
+        <v>-3293</v>
       </c>
       <c r="AL70" s="78">
-        <v>5633</v>
+        <v>625362</v>
       </c>
     </row>
   </sheetData>
